--- a/data/base de modificacion del modelo.xlsx
+++ b/data/base de modificacion del modelo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jean\Documents\GitHub\Analysis-Factors-Interns-\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16EC017-22E1-492C-8A4E-656D0935D8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA23230D-A00A-47F1-9634-A64D3709D502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2F209813-F532-487E-95E8-E4530FD12282}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>mes</t>
   </si>
   <si>
-    <t>año</t>
-  </si>
-  <si>
     <t xml:space="preserve">enero </t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>diciembre</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
         <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
         <v>21</v>
@@ -541,7 +541,7 @@
       </c>
       <c r="K1" t="str">
         <f>CONCATENATE(A1,",",B1,",",C1,",",E1,",",F1,",",G1,",",H1,",",I1,",",J1)</f>
-        <v>paises,mes,año,ROA,SIZE,CAP,LOAN,DEP,PROV</v>
+        <v>paises,mes,year,ROA,SIZE,CAP,LOAN,DEP,PROV</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -549,7 +549,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>2014</v>
@@ -585,7 +585,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>2014</v>
@@ -621,7 +621,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>2014</v>
@@ -657,7 +657,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>2014</v>
@@ -693,7 +693,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>2014</v>
@@ -729,7 +729,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>2014</v>
@@ -765,7 +765,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>2014</v>
@@ -801,7 +801,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>2014</v>
@@ -837,7 +837,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>2014</v>
@@ -873,7 +873,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>2014</v>
@@ -909,7 +909,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>2014</v>
@@ -945,7 +945,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13">
         <v>2014</v>
@@ -981,7 +981,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>2015</v>
@@ -1017,7 +1017,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>2015</v>
@@ -1053,7 +1053,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>2015</v>
@@ -1089,7 +1089,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>2015</v>
@@ -1125,7 +1125,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>2015</v>
@@ -1161,7 +1161,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>2015</v>
@@ -1197,7 +1197,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>2015</v>
@@ -1233,7 +1233,7 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>2015</v>
@@ -1269,7 +1269,7 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>2015</v>
@@ -1305,7 +1305,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <v>2015</v>
@@ -1341,7 +1341,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>2015</v>
@@ -1377,7 +1377,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>2015</v>
@@ -1413,7 +1413,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26">
         <v>2016</v>
@@ -1449,7 +1449,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27">
         <v>2016</v>
@@ -1485,7 +1485,7 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28">
         <v>2016</v>
@@ -1521,7 +1521,7 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29">
         <v>2016</v>
@@ -1557,7 +1557,7 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30">
         <v>2016</v>
@@ -1593,7 +1593,7 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>2016</v>
@@ -1629,7 +1629,7 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32">
         <v>2016</v>
@@ -1665,7 +1665,7 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33">
         <v>2016</v>
@@ -1701,7 +1701,7 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34">
         <v>2016</v>
@@ -1737,7 +1737,7 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35">
         <v>2016</v>
@@ -1773,7 +1773,7 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36">
         <v>2016</v>
@@ -1809,7 +1809,7 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37">
         <v>2016</v>
@@ -1845,7 +1845,7 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38">
         <v>2017</v>
@@ -1881,7 +1881,7 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39">
         <v>2017</v>
@@ -1917,7 +1917,7 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C40">
         <v>2017</v>
@@ -1953,7 +1953,7 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41">
         <v>2017</v>
@@ -1989,7 +1989,7 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42">
         <v>2017</v>
@@ -2025,7 +2025,7 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>2017</v>
@@ -2061,7 +2061,7 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44">
         <v>2017</v>
@@ -2097,7 +2097,7 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C45">
         <v>2017</v>
@@ -2133,7 +2133,7 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46">
         <v>2017</v>
@@ -2169,7 +2169,7 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C47">
         <v>2017</v>
@@ -2205,7 +2205,7 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48">
         <v>2017</v>
@@ -2241,7 +2241,7 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C49">
         <v>2017</v>
@@ -2277,7 +2277,7 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C50">
         <v>2018</v>
@@ -2313,7 +2313,7 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51">
         <v>2018</v>
@@ -2349,7 +2349,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C52">
         <v>2018</v>
@@ -2385,7 +2385,7 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C53">
         <v>2018</v>
@@ -2421,7 +2421,7 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C54">
         <v>2018</v>
@@ -2457,7 +2457,7 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C55">
         <v>2018</v>
@@ -2493,7 +2493,7 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C56">
         <v>2018</v>
@@ -2529,7 +2529,7 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C57">
         <v>2018</v>
@@ -2565,7 +2565,7 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C58">
         <v>2018</v>
@@ -2601,7 +2601,7 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C59">
         <v>2018</v>
@@ -2637,7 +2637,7 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C60">
         <v>2018</v>
@@ -2673,7 +2673,7 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C61">
         <v>2018</v>
@@ -2709,7 +2709,7 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C62">
         <v>2019</v>
@@ -2745,7 +2745,7 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C63">
         <v>2019</v>
@@ -2781,7 +2781,7 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C64">
         <v>2019</v>
@@ -2817,7 +2817,7 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C65">
         <v>2019</v>
@@ -2853,7 +2853,7 @@
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C66">
         <v>2014</v>
@@ -2889,7 +2889,7 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C67">
         <v>2014</v>
@@ -2925,7 +2925,7 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C68">
         <v>2014</v>
@@ -2961,7 +2961,7 @@
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C69">
         <v>2014</v>
@@ -2997,7 +2997,7 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C70">
         <v>2014</v>
@@ -3033,7 +3033,7 @@
         <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C71">
         <v>2014</v>
@@ -3069,7 +3069,7 @@
         <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C72">
         <v>2014</v>
@@ -3105,7 +3105,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C73">
         <v>2014</v>
@@ -3141,7 +3141,7 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C74">
         <v>2014</v>
@@ -3177,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C75">
         <v>2014</v>
@@ -3213,7 +3213,7 @@
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C76">
         <v>2014</v>
@@ -3249,7 +3249,7 @@
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C77">
         <v>2014</v>
@@ -3285,7 +3285,7 @@
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C78">
         <v>2015</v>
@@ -3321,7 +3321,7 @@
         <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C79">
         <v>2015</v>
@@ -3357,7 +3357,7 @@
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C80">
         <v>2015</v>
@@ -3393,7 +3393,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C81">
         <v>2015</v>
@@ -3429,7 +3429,7 @@
         <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C82">
         <v>2015</v>
@@ -3465,7 +3465,7 @@
         <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C83">
         <v>2015</v>
@@ -3501,7 +3501,7 @@
         <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C84">
         <v>2015</v>
@@ -3537,7 +3537,7 @@
         <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C85">
         <v>2015</v>
@@ -3573,7 +3573,7 @@
         <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C86">
         <v>2015</v>
@@ -3609,7 +3609,7 @@
         <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C87">
         <v>2015</v>
@@ -3645,7 +3645,7 @@
         <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C88">
         <v>2015</v>
@@ -3681,7 +3681,7 @@
         <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C89">
         <v>2015</v>
@@ -3717,7 +3717,7 @@
         <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C90">
         <v>2016</v>
@@ -3753,7 +3753,7 @@
         <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C91">
         <v>2016</v>
@@ -3789,7 +3789,7 @@
         <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C92">
         <v>2016</v>
@@ -3825,7 +3825,7 @@
         <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C93">
         <v>2016</v>
@@ -3861,7 +3861,7 @@
         <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C94">
         <v>2016</v>
@@ -3897,7 +3897,7 @@
         <v>7</v>
       </c>
       <c r="B95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C95">
         <v>2016</v>
@@ -3933,7 +3933,7 @@
         <v>7</v>
       </c>
       <c r="B96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C96">
         <v>2016</v>
@@ -3969,7 +3969,7 @@
         <v>7</v>
       </c>
       <c r="B97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C97">
         <v>2016</v>
@@ -4005,7 +4005,7 @@
         <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C98">
         <v>2016</v>
@@ -4041,7 +4041,7 @@
         <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C99">
         <v>2016</v>
@@ -4077,7 +4077,7 @@
         <v>7</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C100">
         <v>2016</v>
@@ -4113,7 +4113,7 @@
         <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C101">
         <v>2016</v>
@@ -4149,7 +4149,7 @@
         <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C102">
         <v>2017</v>
@@ -4185,7 +4185,7 @@
         <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C103">
         <v>2017</v>
@@ -4221,7 +4221,7 @@
         <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C104">
         <v>2017</v>
@@ -4257,7 +4257,7 @@
         <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C105">
         <v>2017</v>
@@ -4293,7 +4293,7 @@
         <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C106">
         <v>2017</v>
@@ -4329,7 +4329,7 @@
         <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C107">
         <v>2017</v>
@@ -4365,7 +4365,7 @@
         <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C108">
         <v>2017</v>
@@ -4401,7 +4401,7 @@
         <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C109">
         <v>2017</v>
@@ -4437,7 +4437,7 @@
         <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C110">
         <v>2017</v>
@@ -4473,7 +4473,7 @@
         <v>7</v>
       </c>
       <c r="B111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C111">
         <v>2017</v>
@@ -4509,7 +4509,7 @@
         <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C112">
         <v>2017</v>
@@ -4545,7 +4545,7 @@
         <v>7</v>
       </c>
       <c r="B113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C113">
         <v>2017</v>
@@ -4581,7 +4581,7 @@
         <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C114">
         <v>2018</v>
@@ -4617,7 +4617,7 @@
         <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C115">
         <v>2018</v>
@@ -4653,7 +4653,7 @@
         <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C116">
         <v>2018</v>
@@ -4689,7 +4689,7 @@
         <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C117">
         <v>2018</v>
@@ -4725,7 +4725,7 @@
         <v>7</v>
       </c>
       <c r="B118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C118">
         <v>2018</v>
@@ -4761,7 +4761,7 @@
         <v>7</v>
       </c>
       <c r="B119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C119">
         <v>2018</v>
@@ -4797,7 +4797,7 @@
         <v>7</v>
       </c>
       <c r="B120" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C120">
         <v>2018</v>
@@ -4833,7 +4833,7 @@
         <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C121">
         <v>2018</v>
@@ -4869,7 +4869,7 @@
         <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C122">
         <v>2018</v>
@@ -4905,7 +4905,7 @@
         <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C123">
         <v>2018</v>
@@ -4941,7 +4941,7 @@
         <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C124">
         <v>2018</v>
@@ -4977,7 +4977,7 @@
         <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C125">
         <v>2018</v>
@@ -5013,7 +5013,7 @@
         <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C126">
         <v>2019</v>
@@ -5049,7 +5049,7 @@
         <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C127">
         <v>2019</v>
@@ -5085,7 +5085,7 @@
         <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C128">
         <v>2019</v>
@@ -5121,7 +5121,7 @@
         <v>7</v>
       </c>
       <c r="B129" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C129">
         <v>2019</v>
@@ -5157,7 +5157,7 @@
         <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C130">
         <v>2014</v>
@@ -5193,7 +5193,7 @@
         <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C131">
         <v>2014</v>
@@ -5229,7 +5229,7 @@
         <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C132">
         <v>2014</v>
@@ -5265,7 +5265,7 @@
         <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C133">
         <v>2014</v>
@@ -5301,7 +5301,7 @@
         <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C134">
         <v>2014</v>
@@ -5337,7 +5337,7 @@
         <v>8</v>
       </c>
       <c r="B135" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C135">
         <v>2014</v>
@@ -5373,7 +5373,7 @@
         <v>8</v>
       </c>
       <c r="B136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C136">
         <v>2014</v>
@@ -5409,7 +5409,7 @@
         <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C137">
         <v>2014</v>
@@ -5445,7 +5445,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C138">
         <v>2014</v>
@@ -5481,7 +5481,7 @@
         <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C139">
         <v>2014</v>
@@ -5517,7 +5517,7 @@
         <v>8</v>
       </c>
       <c r="B140" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C140">
         <v>2014</v>
@@ -5553,7 +5553,7 @@
         <v>8</v>
       </c>
       <c r="B141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C141">
         <v>2014</v>
@@ -5589,7 +5589,7 @@
         <v>8</v>
       </c>
       <c r="B142" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C142">
         <v>2015</v>
@@ -5625,7 +5625,7 @@
         <v>8</v>
       </c>
       <c r="B143" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C143">
         <v>2015</v>
@@ -5661,7 +5661,7 @@
         <v>8</v>
       </c>
       <c r="B144" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C144">
         <v>2015</v>
@@ -5697,7 +5697,7 @@
         <v>8</v>
       </c>
       <c r="B145" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C145">
         <v>2015</v>
@@ -5733,7 +5733,7 @@
         <v>8</v>
       </c>
       <c r="B146" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C146">
         <v>2015</v>
@@ -5769,7 +5769,7 @@
         <v>8</v>
       </c>
       <c r="B147" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C147">
         <v>2015</v>
@@ -5805,7 +5805,7 @@
         <v>8</v>
       </c>
       <c r="B148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C148">
         <v>2015</v>
@@ -5841,7 +5841,7 @@
         <v>8</v>
       </c>
       <c r="B149" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C149">
         <v>2015</v>
@@ -5877,7 +5877,7 @@
         <v>8</v>
       </c>
       <c r="B150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C150">
         <v>2015</v>
@@ -5913,7 +5913,7 @@
         <v>8</v>
       </c>
       <c r="B151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C151">
         <v>2015</v>
@@ -5949,7 +5949,7 @@
         <v>8</v>
       </c>
       <c r="B152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C152">
         <v>2015</v>
@@ -5985,7 +5985,7 @@
         <v>8</v>
       </c>
       <c r="B153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C153">
         <v>2015</v>
@@ -6021,7 +6021,7 @@
         <v>8</v>
       </c>
       <c r="B154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C154">
         <v>2016</v>
@@ -6057,7 +6057,7 @@
         <v>8</v>
       </c>
       <c r="B155" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C155">
         <v>2016</v>
@@ -6093,7 +6093,7 @@
         <v>8</v>
       </c>
       <c r="B156" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C156">
         <v>2016</v>
@@ -6129,7 +6129,7 @@
         <v>8</v>
       </c>
       <c r="B157" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C157">
         <v>2016</v>
@@ -6165,7 +6165,7 @@
         <v>8</v>
       </c>
       <c r="B158" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C158">
         <v>2016</v>
@@ -6201,7 +6201,7 @@
         <v>8</v>
       </c>
       <c r="B159" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C159">
         <v>2016</v>
@@ -6237,7 +6237,7 @@
         <v>8</v>
       </c>
       <c r="B160" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C160">
         <v>2016</v>
@@ -6273,7 +6273,7 @@
         <v>8</v>
       </c>
       <c r="B161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C161">
         <v>2016</v>
@@ -6309,7 +6309,7 @@
         <v>8</v>
       </c>
       <c r="B162" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C162">
         <v>2016</v>
@@ -6345,7 +6345,7 @@
         <v>8</v>
       </c>
       <c r="B163" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C163">
         <v>2016</v>
@@ -6381,7 +6381,7 @@
         <v>8</v>
       </c>
       <c r="B164" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C164">
         <v>2016</v>
@@ -6417,7 +6417,7 @@
         <v>8</v>
       </c>
       <c r="B165" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C165">
         <v>2016</v>
@@ -6453,7 +6453,7 @@
         <v>8</v>
       </c>
       <c r="B166" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C166">
         <v>2017</v>
@@ -6489,7 +6489,7 @@
         <v>8</v>
       </c>
       <c r="B167" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C167">
         <v>2017</v>
@@ -6525,7 +6525,7 @@
         <v>8</v>
       </c>
       <c r="B168" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C168">
         <v>2017</v>
@@ -6561,7 +6561,7 @@
         <v>8</v>
       </c>
       <c r="B169" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C169">
         <v>2017</v>
@@ -6597,7 +6597,7 @@
         <v>8</v>
       </c>
       <c r="B170" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C170">
         <v>2017</v>
@@ -6633,7 +6633,7 @@
         <v>8</v>
       </c>
       <c r="B171" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C171">
         <v>2017</v>
@@ -6669,7 +6669,7 @@
         <v>8</v>
       </c>
       <c r="B172" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C172">
         <v>2017</v>
@@ -6705,7 +6705,7 @@
         <v>8</v>
       </c>
       <c r="B173" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C173">
         <v>2017</v>
@@ -6741,7 +6741,7 @@
         <v>8</v>
       </c>
       <c r="B174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C174">
         <v>2017</v>
@@ -6777,7 +6777,7 @@
         <v>8</v>
       </c>
       <c r="B175" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C175">
         <v>2017</v>
@@ -6813,7 +6813,7 @@
         <v>8</v>
       </c>
       <c r="B176" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C176">
         <v>2017</v>
@@ -6849,7 +6849,7 @@
         <v>8</v>
       </c>
       <c r="B177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C177">
         <v>2017</v>
@@ -6885,7 +6885,7 @@
         <v>8</v>
       </c>
       <c r="B178" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C178">
         <v>2018</v>
@@ -6921,7 +6921,7 @@
         <v>8</v>
       </c>
       <c r="B179" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C179">
         <v>2018</v>
@@ -6957,7 +6957,7 @@
         <v>8</v>
       </c>
       <c r="B180" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C180">
         <v>2018</v>
@@ -6993,7 +6993,7 @@
         <v>8</v>
       </c>
       <c r="B181" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C181">
         <v>2018</v>
@@ -7029,7 +7029,7 @@
         <v>8</v>
       </c>
       <c r="B182" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C182">
         <v>2018</v>
@@ -7065,7 +7065,7 @@
         <v>8</v>
       </c>
       <c r="B183" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C183">
         <v>2018</v>
@@ -7101,7 +7101,7 @@
         <v>8</v>
       </c>
       <c r="B184" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C184">
         <v>2018</v>
@@ -7137,7 +7137,7 @@
         <v>8</v>
       </c>
       <c r="B185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C185">
         <v>2018</v>
@@ -7173,7 +7173,7 @@
         <v>8</v>
       </c>
       <c r="B186" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C186">
         <v>2018</v>
@@ -7209,7 +7209,7 @@
         <v>8</v>
       </c>
       <c r="B187" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C187">
         <v>2018</v>
@@ -7245,7 +7245,7 @@
         <v>8</v>
       </c>
       <c r="B188" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C188">
         <v>2018</v>
@@ -7281,7 +7281,7 @@
         <v>8</v>
       </c>
       <c r="B189" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C189">
         <v>2018</v>
@@ -7317,7 +7317,7 @@
         <v>8</v>
       </c>
       <c r="B190" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C190">
         <v>2019</v>
@@ -7353,7 +7353,7 @@
         <v>8</v>
       </c>
       <c r="B191" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C191">
         <v>2019</v>
@@ -7389,7 +7389,7 @@
         <v>8</v>
       </c>
       <c r="B192" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C192">
         <v>2019</v>
@@ -7425,7 +7425,7 @@
         <v>8</v>
       </c>
       <c r="B193" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C193">
         <v>2019</v>
@@ -7461,7 +7461,7 @@
         <v>9</v>
       </c>
       <c r="B194" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C194">
         <v>2014</v>
@@ -7497,7 +7497,7 @@
         <v>9</v>
       </c>
       <c r="B195" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C195">
         <v>2014</v>
@@ -7533,7 +7533,7 @@
         <v>9</v>
       </c>
       <c r="B196" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C196">
         <v>2014</v>
@@ -7569,7 +7569,7 @@
         <v>9</v>
       </c>
       <c r="B197" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C197">
         <v>2014</v>
@@ -7605,7 +7605,7 @@
         <v>9</v>
       </c>
       <c r="B198" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C198">
         <v>2014</v>
@@ -7641,7 +7641,7 @@
         <v>9</v>
       </c>
       <c r="B199" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C199">
         <v>2014</v>
@@ -7677,7 +7677,7 @@
         <v>9</v>
       </c>
       <c r="B200" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C200">
         <v>2014</v>
@@ -7713,7 +7713,7 @@
         <v>9</v>
       </c>
       <c r="B201" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C201">
         <v>2014</v>
@@ -7749,7 +7749,7 @@
         <v>9</v>
       </c>
       <c r="B202" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C202">
         <v>2014</v>
@@ -7785,7 +7785,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C203">
         <v>2014</v>
@@ -7821,7 +7821,7 @@
         <v>9</v>
       </c>
       <c r="B204" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C204">
         <v>2014</v>
@@ -7857,7 +7857,7 @@
         <v>9</v>
       </c>
       <c r="B205" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C205">
         <v>2014</v>
@@ -7893,7 +7893,7 @@
         <v>9</v>
       </c>
       <c r="B206" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C206">
         <v>2015</v>
@@ -7929,7 +7929,7 @@
         <v>9</v>
       </c>
       <c r="B207" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C207">
         <v>2015</v>
@@ -7965,7 +7965,7 @@
         <v>9</v>
       </c>
       <c r="B208" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C208">
         <v>2015</v>
@@ -8001,7 +8001,7 @@
         <v>9</v>
       </c>
       <c r="B209" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C209">
         <v>2015</v>
@@ -8037,7 +8037,7 @@
         <v>9</v>
       </c>
       <c r="B210" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C210">
         <v>2015</v>
@@ -8073,7 +8073,7 @@
         <v>9</v>
       </c>
       <c r="B211" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C211">
         <v>2015</v>
@@ -8109,7 +8109,7 @@
         <v>9</v>
       </c>
       <c r="B212" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C212">
         <v>2015</v>
@@ -8145,7 +8145,7 @@
         <v>9</v>
       </c>
       <c r="B213" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C213">
         <v>2015</v>
@@ -8181,7 +8181,7 @@
         <v>9</v>
       </c>
       <c r="B214" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C214">
         <v>2015</v>
@@ -8217,7 +8217,7 @@
         <v>9</v>
       </c>
       <c r="B215" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C215">
         <v>2015</v>
@@ -8253,7 +8253,7 @@
         <v>9</v>
       </c>
       <c r="B216" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C216">
         <v>2015</v>
@@ -8289,7 +8289,7 @@
         <v>9</v>
       </c>
       <c r="B217" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C217">
         <v>2015</v>
@@ -8325,7 +8325,7 @@
         <v>9</v>
       </c>
       <c r="B218" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C218">
         <v>2016</v>
@@ -8361,7 +8361,7 @@
         <v>9</v>
       </c>
       <c r="B219" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C219">
         <v>2016</v>
@@ -8397,7 +8397,7 @@
         <v>9</v>
       </c>
       <c r="B220" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C220">
         <v>2016</v>
@@ -8433,7 +8433,7 @@
         <v>9</v>
       </c>
       <c r="B221" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C221">
         <v>2016</v>
@@ -8469,7 +8469,7 @@
         <v>9</v>
       </c>
       <c r="B222" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C222">
         <v>2016</v>
@@ -8505,7 +8505,7 @@
         <v>9</v>
       </c>
       <c r="B223" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C223">
         <v>2016</v>
@@ -8541,7 +8541,7 @@
         <v>9</v>
       </c>
       <c r="B224" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C224">
         <v>2016</v>
@@ -8577,7 +8577,7 @@
         <v>9</v>
       </c>
       <c r="B225" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C225">
         <v>2016</v>
@@ -8613,7 +8613,7 @@
         <v>9</v>
       </c>
       <c r="B226" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C226">
         <v>2016</v>
@@ -8649,7 +8649,7 @@
         <v>9</v>
       </c>
       <c r="B227" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C227">
         <v>2016</v>
@@ -8685,7 +8685,7 @@
         <v>9</v>
       </c>
       <c r="B228" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C228">
         <v>2016</v>
@@ -8721,7 +8721,7 @@
         <v>9</v>
       </c>
       <c r="B229" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C229">
         <v>2016</v>
@@ -8757,7 +8757,7 @@
         <v>9</v>
       </c>
       <c r="B230" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C230">
         <v>2017</v>
@@ -8793,7 +8793,7 @@
         <v>9</v>
       </c>
       <c r="B231" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C231">
         <v>2017</v>
@@ -8829,7 +8829,7 @@
         <v>9</v>
       </c>
       <c r="B232" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C232">
         <v>2017</v>
@@ -8865,7 +8865,7 @@
         <v>9</v>
       </c>
       <c r="B233" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C233">
         <v>2017</v>
@@ -8901,7 +8901,7 @@
         <v>9</v>
       </c>
       <c r="B234" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C234">
         <v>2017</v>
@@ -8937,7 +8937,7 @@
         <v>9</v>
       </c>
       <c r="B235" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C235">
         <v>2017</v>
@@ -8973,7 +8973,7 @@
         <v>9</v>
       </c>
       <c r="B236" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C236">
         <v>2017</v>
@@ -9009,7 +9009,7 @@
         <v>9</v>
       </c>
       <c r="B237" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C237">
         <v>2017</v>
@@ -9045,7 +9045,7 @@
         <v>9</v>
       </c>
       <c r="B238" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C238">
         <v>2017</v>
@@ -9081,7 +9081,7 @@
         <v>9</v>
       </c>
       <c r="B239" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C239">
         <v>2017</v>
@@ -9117,7 +9117,7 @@
         <v>9</v>
       </c>
       <c r="B240" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C240">
         <v>2017</v>
@@ -9153,7 +9153,7 @@
         <v>9</v>
       </c>
       <c r="B241" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C241">
         <v>2017</v>
@@ -9189,7 +9189,7 @@
         <v>9</v>
       </c>
       <c r="B242" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C242">
         <v>2018</v>
@@ -9225,7 +9225,7 @@
         <v>9</v>
       </c>
       <c r="B243" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C243">
         <v>2018</v>
@@ -9261,7 +9261,7 @@
         <v>9</v>
       </c>
       <c r="B244" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C244">
         <v>2018</v>
@@ -9297,7 +9297,7 @@
         <v>9</v>
       </c>
       <c r="B245" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C245">
         <v>2018</v>
@@ -9333,7 +9333,7 @@
         <v>9</v>
       </c>
       <c r="B246" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C246">
         <v>2018</v>
@@ -9369,7 +9369,7 @@
         <v>9</v>
       </c>
       <c r="B247" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C247">
         <v>2018</v>
@@ -9405,7 +9405,7 @@
         <v>9</v>
       </c>
       <c r="B248" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C248">
         <v>2018</v>
@@ -9441,7 +9441,7 @@
         <v>9</v>
       </c>
       <c r="B249" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C249">
         <v>2018</v>
@@ -9477,7 +9477,7 @@
         <v>9</v>
       </c>
       <c r="B250" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C250">
         <v>2018</v>
@@ -9513,7 +9513,7 @@
         <v>9</v>
       </c>
       <c r="B251" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C251">
         <v>2018</v>
@@ -9549,7 +9549,7 @@
         <v>9</v>
       </c>
       <c r="B252" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C252">
         <v>2018</v>
@@ -9585,7 +9585,7 @@
         <v>9</v>
       </c>
       <c r="B253" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C253">
         <v>2018</v>
@@ -9621,7 +9621,7 @@
         <v>9</v>
       </c>
       <c r="B254" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C254">
         <v>2019</v>
@@ -9657,7 +9657,7 @@
         <v>9</v>
       </c>
       <c r="B255" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C255">
         <v>2019</v>
@@ -9693,7 +9693,7 @@
         <v>9</v>
       </c>
       <c r="B256" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C256">
         <v>2019</v>
@@ -9729,7 +9729,7 @@
         <v>9</v>
       </c>
       <c r="B257" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C257">
         <v>2019</v>
@@ -9765,7 +9765,7 @@
         <v>10</v>
       </c>
       <c r="B258" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C258">
         <v>2014</v>
@@ -9801,7 +9801,7 @@
         <v>10</v>
       </c>
       <c r="B259" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C259">
         <v>2014</v>
@@ -9837,7 +9837,7 @@
         <v>10</v>
       </c>
       <c r="B260" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C260">
         <v>2014</v>
@@ -9873,7 +9873,7 @@
         <v>10</v>
       </c>
       <c r="B261" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C261">
         <v>2014</v>
@@ -9909,7 +9909,7 @@
         <v>10</v>
       </c>
       <c r="B262" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C262">
         <v>2014</v>
@@ -9945,7 +9945,7 @@
         <v>10</v>
       </c>
       <c r="B263" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C263">
         <v>2014</v>
@@ -9981,7 +9981,7 @@
         <v>10</v>
       </c>
       <c r="B264" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C264">
         <v>2014</v>
@@ -10017,7 +10017,7 @@
         <v>10</v>
       </c>
       <c r="B265" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C265">
         <v>2014</v>
@@ -10053,7 +10053,7 @@
         <v>10</v>
       </c>
       <c r="B266" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C266">
         <v>2014</v>
@@ -10089,7 +10089,7 @@
         <v>10</v>
       </c>
       <c r="B267" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C267">
         <v>2014</v>
@@ -10125,7 +10125,7 @@
         <v>10</v>
       </c>
       <c r="B268" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C268">
         <v>2014</v>
@@ -10161,7 +10161,7 @@
         <v>10</v>
       </c>
       <c r="B269" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C269">
         <v>2014</v>
@@ -10197,7 +10197,7 @@
         <v>10</v>
       </c>
       <c r="B270" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C270">
         <v>2015</v>
@@ -10233,7 +10233,7 @@
         <v>10</v>
       </c>
       <c r="B271" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C271">
         <v>2015</v>
@@ -10269,7 +10269,7 @@
         <v>10</v>
       </c>
       <c r="B272" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C272">
         <v>2015</v>
@@ -10305,7 +10305,7 @@
         <v>10</v>
       </c>
       <c r="B273" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C273">
         <v>2015</v>
@@ -10341,7 +10341,7 @@
         <v>10</v>
       </c>
       <c r="B274" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C274">
         <v>2015</v>
@@ -10377,7 +10377,7 @@
         <v>10</v>
       </c>
       <c r="B275" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C275">
         <v>2015</v>
@@ -10413,7 +10413,7 @@
         <v>10</v>
       </c>
       <c r="B276" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C276">
         <v>2015</v>
@@ -10449,7 +10449,7 @@
         <v>10</v>
       </c>
       <c r="B277" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C277">
         <v>2015</v>
@@ -10485,7 +10485,7 @@
         <v>10</v>
       </c>
       <c r="B278" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C278">
         <v>2015</v>
@@ -10521,7 +10521,7 @@
         <v>10</v>
       </c>
       <c r="B279" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C279">
         <v>2015</v>
@@ -10557,7 +10557,7 @@
         <v>10</v>
       </c>
       <c r="B280" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C280">
         <v>2015</v>
@@ -10593,7 +10593,7 @@
         <v>10</v>
       </c>
       <c r="B281" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C281">
         <v>2015</v>
@@ -10629,7 +10629,7 @@
         <v>10</v>
       </c>
       <c r="B282" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C282">
         <v>2016</v>
@@ -10665,7 +10665,7 @@
         <v>10</v>
       </c>
       <c r="B283" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C283">
         <v>2016</v>
@@ -10701,7 +10701,7 @@
         <v>10</v>
       </c>
       <c r="B284" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C284">
         <v>2016</v>
@@ -10737,7 +10737,7 @@
         <v>10</v>
       </c>
       <c r="B285" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C285">
         <v>2016</v>
@@ -10773,7 +10773,7 @@
         <v>10</v>
       </c>
       <c r="B286" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C286">
         <v>2016</v>
@@ -10809,7 +10809,7 @@
         <v>10</v>
       </c>
       <c r="B287" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C287">
         <v>2016</v>
@@ -10845,7 +10845,7 @@
         <v>10</v>
       </c>
       <c r="B288" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C288">
         <v>2016</v>
@@ -10881,7 +10881,7 @@
         <v>10</v>
       </c>
       <c r="B289" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C289">
         <v>2016</v>
@@ -10917,7 +10917,7 @@
         <v>10</v>
       </c>
       <c r="B290" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C290">
         <v>2016</v>
@@ -10953,7 +10953,7 @@
         <v>10</v>
       </c>
       <c r="B291" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C291">
         <v>2016</v>
@@ -10989,7 +10989,7 @@
         <v>10</v>
       </c>
       <c r="B292" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C292">
         <v>2016</v>
@@ -11025,7 +11025,7 @@
         <v>10</v>
       </c>
       <c r="B293" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C293">
         <v>2016</v>
@@ -11061,7 +11061,7 @@
         <v>10</v>
       </c>
       <c r="B294" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C294">
         <v>2017</v>
@@ -11097,7 +11097,7 @@
         <v>10</v>
       </c>
       <c r="B295" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C295">
         <v>2017</v>
@@ -11133,7 +11133,7 @@
         <v>10</v>
       </c>
       <c r="B296" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C296">
         <v>2017</v>
@@ -11169,7 +11169,7 @@
         <v>10</v>
       </c>
       <c r="B297" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C297">
         <v>2017</v>
@@ -11205,7 +11205,7 @@
         <v>10</v>
       </c>
       <c r="B298" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C298">
         <v>2017</v>
@@ -11241,7 +11241,7 @@
         <v>10</v>
       </c>
       <c r="B299" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C299">
         <v>2017</v>
@@ -11277,7 +11277,7 @@
         <v>10</v>
       </c>
       <c r="B300" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C300">
         <v>2017</v>
@@ -11313,7 +11313,7 @@
         <v>10</v>
       </c>
       <c r="B301" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C301">
         <v>2017</v>
@@ -11349,7 +11349,7 @@
         <v>10</v>
       </c>
       <c r="B302" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C302">
         <v>2017</v>
@@ -11385,7 +11385,7 @@
         <v>10</v>
       </c>
       <c r="B303" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C303">
         <v>2017</v>
@@ -11421,7 +11421,7 @@
         <v>10</v>
       </c>
       <c r="B304" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C304">
         <v>2017</v>
@@ -11457,7 +11457,7 @@
         <v>10</v>
       </c>
       <c r="B305" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C305">
         <v>2017</v>
@@ -11493,7 +11493,7 @@
         <v>10</v>
       </c>
       <c r="B306" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C306">
         <v>2018</v>
@@ -11529,7 +11529,7 @@
         <v>10</v>
       </c>
       <c r="B307" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C307">
         <v>2018</v>
@@ -11565,7 +11565,7 @@
         <v>10</v>
       </c>
       <c r="B308" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C308">
         <v>2018</v>
@@ -11601,7 +11601,7 @@
         <v>10</v>
       </c>
       <c r="B309" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C309">
         <v>2018</v>
@@ -11637,7 +11637,7 @@
         <v>10</v>
       </c>
       <c r="B310" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C310">
         <v>2018</v>
@@ -11673,7 +11673,7 @@
         <v>10</v>
       </c>
       <c r="B311" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C311">
         <v>2018</v>
@@ -11709,7 +11709,7 @@
         <v>10</v>
       </c>
       <c r="B312" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C312">
         <v>2018</v>
@@ -11745,7 +11745,7 @@
         <v>10</v>
       </c>
       <c r="B313" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C313">
         <v>2018</v>
@@ -11781,7 +11781,7 @@
         <v>10</v>
       </c>
       <c r="B314" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C314">
         <v>2018</v>
@@ -11817,7 +11817,7 @@
         <v>10</v>
       </c>
       <c r="B315" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C315">
         <v>2018</v>
@@ -11853,7 +11853,7 @@
         <v>10</v>
       </c>
       <c r="B316" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C316">
         <v>2018</v>
@@ -11889,7 +11889,7 @@
         <v>10</v>
       </c>
       <c r="B317" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C317">
         <v>2018</v>
@@ -11925,7 +11925,7 @@
         <v>10</v>
       </c>
       <c r="B318" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C318">
         <v>2019</v>
@@ -11961,7 +11961,7 @@
         <v>10</v>
       </c>
       <c r="B319" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C319">
         <v>2019</v>
@@ -11997,7 +11997,7 @@
         <v>10</v>
       </c>
       <c r="B320" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C320">
         <v>2019</v>
@@ -12033,7 +12033,7 @@
         <v>10</v>
       </c>
       <c r="B321" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C321">
         <v>2019</v>
@@ -12069,7 +12069,7 @@
         <v>11</v>
       </c>
       <c r="B322" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C322">
         <v>2014</v>
@@ -12105,7 +12105,7 @@
         <v>11</v>
       </c>
       <c r="B323" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C323">
         <v>2014</v>
@@ -12141,7 +12141,7 @@
         <v>11</v>
       </c>
       <c r="B324" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C324">
         <v>2014</v>
@@ -12177,7 +12177,7 @@
         <v>11</v>
       </c>
       <c r="B325" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C325">
         <v>2014</v>
@@ -12213,7 +12213,7 @@
         <v>11</v>
       </c>
       <c r="B326" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C326">
         <v>2014</v>
@@ -12249,7 +12249,7 @@
         <v>11</v>
       </c>
       <c r="B327" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C327">
         <v>2014</v>
@@ -12285,7 +12285,7 @@
         <v>11</v>
       </c>
       <c r="B328" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C328">
         <v>2014</v>
@@ -12321,7 +12321,7 @@
         <v>11</v>
       </c>
       <c r="B329" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C329">
         <v>2014</v>
@@ -12357,7 +12357,7 @@
         <v>11</v>
       </c>
       <c r="B330" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C330">
         <v>2014</v>
@@ -12393,7 +12393,7 @@
         <v>11</v>
       </c>
       <c r="B331" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C331">
         <v>2014</v>
@@ -12429,7 +12429,7 @@
         <v>11</v>
       </c>
       <c r="B332" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C332">
         <v>2014</v>
@@ -12465,7 +12465,7 @@
         <v>11</v>
       </c>
       <c r="B333" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C333">
         <v>2014</v>
@@ -12501,7 +12501,7 @@
         <v>11</v>
       </c>
       <c r="B334" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C334">
         <v>2015</v>
@@ -12537,7 +12537,7 @@
         <v>11</v>
       </c>
       <c r="B335" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C335">
         <v>2015</v>
@@ -12573,7 +12573,7 @@
         <v>11</v>
       </c>
       <c r="B336" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C336">
         <v>2015</v>
@@ -12609,7 +12609,7 @@
         <v>11</v>
       </c>
       <c r="B337" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C337">
         <v>2015</v>
@@ -12645,7 +12645,7 @@
         <v>11</v>
       </c>
       <c r="B338" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C338">
         <v>2015</v>
@@ -12681,7 +12681,7 @@
         <v>11</v>
       </c>
       <c r="B339" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C339">
         <v>2015</v>
@@ -12717,7 +12717,7 @@
         <v>11</v>
       </c>
       <c r="B340" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C340">
         <v>2015</v>
@@ -12753,7 +12753,7 @@
         <v>11</v>
       </c>
       <c r="B341" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C341">
         <v>2015</v>
@@ -12789,7 +12789,7 @@
         <v>11</v>
       </c>
       <c r="B342" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C342">
         <v>2015</v>
@@ -12825,7 +12825,7 @@
         <v>11</v>
       </c>
       <c r="B343" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C343">
         <v>2015</v>
@@ -12861,7 +12861,7 @@
         <v>11</v>
       </c>
       <c r="B344" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C344">
         <v>2015</v>
@@ -12897,7 +12897,7 @@
         <v>11</v>
       </c>
       <c r="B345" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C345">
         <v>2015</v>
@@ -12933,7 +12933,7 @@
         <v>11</v>
       </c>
       <c r="B346" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C346">
         <v>2016</v>
@@ -12969,7 +12969,7 @@
         <v>11</v>
       </c>
       <c r="B347" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C347">
         <v>2016</v>
@@ -13005,7 +13005,7 @@
         <v>11</v>
       </c>
       <c r="B348" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C348">
         <v>2016</v>
@@ -13041,7 +13041,7 @@
         <v>11</v>
       </c>
       <c r="B349" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C349">
         <v>2016</v>
@@ -13077,7 +13077,7 @@
         <v>11</v>
       </c>
       <c r="B350" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C350">
         <v>2016</v>
@@ -13113,7 +13113,7 @@
         <v>11</v>
       </c>
       <c r="B351" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C351">
         <v>2016</v>
@@ -13149,7 +13149,7 @@
         <v>11</v>
       </c>
       <c r="B352" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C352">
         <v>2016</v>
@@ -13185,7 +13185,7 @@
         <v>11</v>
       </c>
       <c r="B353" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C353">
         <v>2016</v>
@@ -13221,7 +13221,7 @@
         <v>11</v>
       </c>
       <c r="B354" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C354">
         <v>2016</v>
@@ -13257,7 +13257,7 @@
         <v>11</v>
       </c>
       <c r="B355" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C355">
         <v>2016</v>
@@ -13293,7 +13293,7 @@
         <v>11</v>
       </c>
       <c r="B356" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C356">
         <v>2016</v>
@@ -13329,7 +13329,7 @@
         <v>11</v>
       </c>
       <c r="B357" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C357">
         <v>2016</v>
@@ -13365,7 +13365,7 @@
         <v>11</v>
       </c>
       <c r="B358" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C358">
         <v>2017</v>
@@ -13401,7 +13401,7 @@
         <v>11</v>
       </c>
       <c r="B359" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C359">
         <v>2017</v>
@@ -13437,7 +13437,7 @@
         <v>11</v>
       </c>
       <c r="B360" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C360">
         <v>2017</v>
@@ -13473,7 +13473,7 @@
         <v>11</v>
       </c>
       <c r="B361" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C361">
         <v>2017</v>
@@ -13509,7 +13509,7 @@
         <v>11</v>
       </c>
       <c r="B362" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C362">
         <v>2017</v>
@@ -13545,7 +13545,7 @@
         <v>11</v>
       </c>
       <c r="B363" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C363">
         <v>2017</v>
@@ -13581,7 +13581,7 @@
         <v>11</v>
       </c>
       <c r="B364" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C364">
         <v>2017</v>
@@ -13617,7 +13617,7 @@
         <v>11</v>
       </c>
       <c r="B365" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C365">
         <v>2017</v>
@@ -13653,7 +13653,7 @@
         <v>11</v>
       </c>
       <c r="B366" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C366">
         <v>2017</v>
@@ -13689,7 +13689,7 @@
         <v>11</v>
       </c>
       <c r="B367" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C367">
         <v>2017</v>
@@ -13725,7 +13725,7 @@
         <v>11</v>
       </c>
       <c r="B368" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C368">
         <v>2017</v>
@@ -13761,7 +13761,7 @@
         <v>11</v>
       </c>
       <c r="B369" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C369">
         <v>2017</v>
@@ -13797,7 +13797,7 @@
         <v>11</v>
       </c>
       <c r="B370" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C370">
         <v>2018</v>
@@ -13833,7 +13833,7 @@
         <v>11</v>
       </c>
       <c r="B371" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C371">
         <v>2018</v>
@@ -13869,7 +13869,7 @@
         <v>11</v>
       </c>
       <c r="B372" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C372">
         <v>2018</v>
@@ -13905,7 +13905,7 @@
         <v>11</v>
       </c>
       <c r="B373" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C373">
         <v>2018</v>
@@ -13941,7 +13941,7 @@
         <v>11</v>
       </c>
       <c r="B374" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C374">
         <v>2018</v>
@@ -13977,7 +13977,7 @@
         <v>11</v>
       </c>
       <c r="B375" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C375">
         <v>2018</v>
@@ -14013,7 +14013,7 @@
         <v>11</v>
       </c>
       <c r="B376" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C376">
         <v>2018</v>
@@ -14049,7 +14049,7 @@
         <v>11</v>
       </c>
       <c r="B377" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C377">
         <v>2018</v>
@@ -14085,7 +14085,7 @@
         <v>11</v>
       </c>
       <c r="B378" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C378">
         <v>2018</v>
@@ -14121,7 +14121,7 @@
         <v>11</v>
       </c>
       <c r="B379" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C379">
         <v>2018</v>
@@ -14157,7 +14157,7 @@
         <v>11</v>
       </c>
       <c r="B380" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C380">
         <v>2018</v>
@@ -14193,7 +14193,7 @@
         <v>11</v>
       </c>
       <c r="B381" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C381">
         <v>2018</v>
@@ -14229,7 +14229,7 @@
         <v>11</v>
       </c>
       <c r="B382" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C382">
         <v>2019</v>
@@ -14265,7 +14265,7 @@
         <v>11</v>
       </c>
       <c r="B383" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C383">
         <v>2019</v>
@@ -14301,7 +14301,7 @@
         <v>11</v>
       </c>
       <c r="B384" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C384">
         <v>2019</v>
@@ -14337,7 +14337,7 @@
         <v>11</v>
       </c>
       <c r="B385" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C385">
         <v>2019</v>
@@ -14373,7 +14373,7 @@
         <v>12</v>
       </c>
       <c r="B386" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C386">
         <v>2014</v>
@@ -14409,7 +14409,7 @@
         <v>12</v>
       </c>
       <c r="B387" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C387">
         <v>2014</v>
@@ -14445,7 +14445,7 @@
         <v>12</v>
       </c>
       <c r="B388" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C388">
         <v>2014</v>
@@ -14481,7 +14481,7 @@
         <v>12</v>
       </c>
       <c r="B389" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C389">
         <v>2014</v>
@@ -14517,7 +14517,7 @@
         <v>12</v>
       </c>
       <c r="B390" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C390">
         <v>2014</v>
@@ -14553,7 +14553,7 @@
         <v>12</v>
       </c>
       <c r="B391" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C391">
         <v>2014</v>
@@ -14589,7 +14589,7 @@
         <v>12</v>
       </c>
       <c r="B392" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C392">
         <v>2014</v>
@@ -14625,7 +14625,7 @@
         <v>12</v>
       </c>
       <c r="B393" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C393">
         <v>2014</v>
@@ -14661,7 +14661,7 @@
         <v>12</v>
       </c>
       <c r="B394" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C394">
         <v>2014</v>
@@ -14697,7 +14697,7 @@
         <v>12</v>
       </c>
       <c r="B395" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C395">
         <v>2014</v>
@@ -14733,7 +14733,7 @@
         <v>12</v>
       </c>
       <c r="B396" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C396">
         <v>2014</v>
@@ -14769,7 +14769,7 @@
         <v>12</v>
       </c>
       <c r="B397" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C397">
         <v>2014</v>
@@ -14805,7 +14805,7 @@
         <v>12</v>
       </c>
       <c r="B398" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C398">
         <v>2015</v>
@@ -14841,7 +14841,7 @@
         <v>12</v>
       </c>
       <c r="B399" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C399">
         <v>2015</v>
@@ -14877,7 +14877,7 @@
         <v>12</v>
       </c>
       <c r="B400" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C400">
         <v>2015</v>
@@ -14913,7 +14913,7 @@
         <v>12</v>
       </c>
       <c r="B401" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C401">
         <v>2015</v>
@@ -14949,7 +14949,7 @@
         <v>12</v>
       </c>
       <c r="B402" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C402">
         <v>2015</v>
@@ -14985,7 +14985,7 @@
         <v>12</v>
       </c>
       <c r="B403" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C403">
         <v>2015</v>
@@ -15021,7 +15021,7 @@
         <v>12</v>
       </c>
       <c r="B404" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C404">
         <v>2015</v>
@@ -15057,7 +15057,7 @@
         <v>12</v>
       </c>
       <c r="B405" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C405">
         <v>2015</v>
@@ -15093,7 +15093,7 @@
         <v>12</v>
       </c>
       <c r="B406" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C406">
         <v>2015</v>
@@ -15129,7 +15129,7 @@
         <v>12</v>
       </c>
       <c r="B407" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C407">
         <v>2015</v>
@@ -15165,7 +15165,7 @@
         <v>12</v>
       </c>
       <c r="B408" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C408">
         <v>2015</v>
@@ -15201,7 +15201,7 @@
         <v>12</v>
       </c>
       <c r="B409" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C409">
         <v>2015</v>
@@ -15237,7 +15237,7 @@
         <v>12</v>
       </c>
       <c r="B410" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C410">
         <v>2016</v>
@@ -15273,7 +15273,7 @@
         <v>12</v>
       </c>
       <c r="B411" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C411">
         <v>2016</v>
@@ -15309,7 +15309,7 @@
         <v>12</v>
       </c>
       <c r="B412" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C412">
         <v>2016</v>
@@ -15345,7 +15345,7 @@
         <v>12</v>
       </c>
       <c r="B413" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C413">
         <v>2016</v>
@@ -15381,7 +15381,7 @@
         <v>12</v>
       </c>
       <c r="B414" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C414">
         <v>2016</v>
@@ -15417,7 +15417,7 @@
         <v>12</v>
       </c>
       <c r="B415" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C415">
         <v>2016</v>
@@ -15453,7 +15453,7 @@
         <v>12</v>
       </c>
       <c r="B416" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C416">
         <v>2016</v>
@@ -15489,7 +15489,7 @@
         <v>12</v>
       </c>
       <c r="B417" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C417">
         <v>2016</v>
@@ -15525,7 +15525,7 @@
         <v>12</v>
       </c>
       <c r="B418" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C418">
         <v>2016</v>
@@ -15561,7 +15561,7 @@
         <v>12</v>
       </c>
       <c r="B419" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C419">
         <v>2016</v>
@@ -15597,7 +15597,7 @@
         <v>12</v>
       </c>
       <c r="B420" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C420">
         <v>2016</v>
@@ -15633,7 +15633,7 @@
         <v>12</v>
       </c>
       <c r="B421" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C421">
         <v>2016</v>
@@ -15669,7 +15669,7 @@
         <v>12</v>
       </c>
       <c r="B422" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C422">
         <v>2017</v>
@@ -15705,7 +15705,7 @@
         <v>12</v>
       </c>
       <c r="B423" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C423">
         <v>2017</v>
@@ -15741,7 +15741,7 @@
         <v>12</v>
       </c>
       <c r="B424" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C424">
         <v>2017</v>
@@ -15777,7 +15777,7 @@
         <v>12</v>
       </c>
       <c r="B425" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C425">
         <v>2017</v>
@@ -15813,7 +15813,7 @@
         <v>12</v>
       </c>
       <c r="B426" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C426">
         <v>2017</v>
@@ -15849,7 +15849,7 @@
         <v>12</v>
       </c>
       <c r="B427" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C427">
         <v>2017</v>
@@ -15885,7 +15885,7 @@
         <v>12</v>
       </c>
       <c r="B428" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C428">
         <v>2017</v>
@@ -15921,7 +15921,7 @@
         <v>12</v>
       </c>
       <c r="B429" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C429">
         <v>2017</v>
@@ -15957,7 +15957,7 @@
         <v>12</v>
       </c>
       <c r="B430" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C430">
         <v>2017</v>
@@ -15993,7 +15993,7 @@
         <v>12</v>
       </c>
       <c r="B431" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C431">
         <v>2017</v>
@@ -16029,7 +16029,7 @@
         <v>12</v>
       </c>
       <c r="B432" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C432">
         <v>2017</v>
@@ -16065,7 +16065,7 @@
         <v>12</v>
       </c>
       <c r="B433" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C433">
         <v>2017</v>
@@ -16101,7 +16101,7 @@
         <v>12</v>
       </c>
       <c r="B434" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C434">
         <v>2018</v>
@@ -16137,7 +16137,7 @@
         <v>12</v>
       </c>
       <c r="B435" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C435">
         <v>2018</v>
@@ -16173,7 +16173,7 @@
         <v>12</v>
       </c>
       <c r="B436" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C436">
         <v>2018</v>
@@ -16209,7 +16209,7 @@
         <v>12</v>
       </c>
       <c r="B437" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C437">
         <v>2018</v>
@@ -16245,7 +16245,7 @@
         <v>12</v>
       </c>
       <c r="B438" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C438">
         <v>2018</v>
@@ -16281,7 +16281,7 @@
         <v>12</v>
       </c>
       <c r="B439" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C439">
         <v>2018</v>
@@ -16317,7 +16317,7 @@
         <v>12</v>
       </c>
       <c r="B440" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C440">
         <v>2018</v>
@@ -16353,7 +16353,7 @@
         <v>12</v>
       </c>
       <c r="B441" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C441">
         <v>2018</v>
@@ -16389,7 +16389,7 @@
         <v>12</v>
       </c>
       <c r="B442" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C442">
         <v>2018</v>
@@ -16425,7 +16425,7 @@
         <v>12</v>
       </c>
       <c r="B443" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C443">
         <v>2018</v>
@@ -16461,7 +16461,7 @@
         <v>12</v>
       </c>
       <c r="B444" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C444">
         <v>2018</v>
@@ -16497,7 +16497,7 @@
         <v>12</v>
       </c>
       <c r="B445" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C445">
         <v>2018</v>
@@ -16533,7 +16533,7 @@
         <v>12</v>
       </c>
       <c r="B446" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C446">
         <v>2019</v>
@@ -16569,7 +16569,7 @@
         <v>12</v>
       </c>
       <c r="B447" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C447">
         <v>2019</v>
@@ -16605,7 +16605,7 @@
         <v>12</v>
       </c>
       <c r="B448" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C448">
         <v>2019</v>
@@ -16641,7 +16641,7 @@
         <v>12</v>
       </c>
       <c r="B449" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C449">
         <v>2019</v>
@@ -16677,7 +16677,7 @@
         <v>13</v>
       </c>
       <c r="B450" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C450">
         <v>2014</v>
@@ -16713,7 +16713,7 @@
         <v>13</v>
       </c>
       <c r="B451" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C451">
         <v>2014</v>
@@ -16749,7 +16749,7 @@
         <v>13</v>
       </c>
       <c r="B452" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C452">
         <v>2014</v>
@@ -16785,7 +16785,7 @@
         <v>13</v>
       </c>
       <c r="B453" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C453">
         <v>2014</v>
@@ -16821,7 +16821,7 @@
         <v>13</v>
       </c>
       <c r="B454" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C454">
         <v>2014</v>
@@ -16857,7 +16857,7 @@
         <v>13</v>
       </c>
       <c r="B455" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C455">
         <v>2014</v>
@@ -16893,7 +16893,7 @@
         <v>13</v>
       </c>
       <c r="B456" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C456">
         <v>2014</v>
@@ -16929,7 +16929,7 @@
         <v>13</v>
       </c>
       <c r="B457" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C457">
         <v>2014</v>
@@ -16965,7 +16965,7 @@
         <v>13</v>
       </c>
       <c r="B458" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C458">
         <v>2014</v>
@@ -17001,7 +17001,7 @@
         <v>13</v>
       </c>
       <c r="B459" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C459">
         <v>2014</v>
@@ -17037,7 +17037,7 @@
         <v>13</v>
       </c>
       <c r="B460" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C460">
         <v>2014</v>
@@ -17073,7 +17073,7 @@
         <v>13</v>
       </c>
       <c r="B461" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C461">
         <v>2014</v>
@@ -17109,7 +17109,7 @@
         <v>13</v>
       </c>
       <c r="B462" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C462">
         <v>2015</v>
@@ -17145,7 +17145,7 @@
         <v>13</v>
       </c>
       <c r="B463" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C463">
         <v>2015</v>
@@ -17181,7 +17181,7 @@
         <v>13</v>
       </c>
       <c r="B464" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C464">
         <v>2015</v>
@@ -17217,7 +17217,7 @@
         <v>13</v>
       </c>
       <c r="B465" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C465">
         <v>2015</v>
@@ -17253,7 +17253,7 @@
         <v>13</v>
       </c>
       <c r="B466" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C466">
         <v>2015</v>
@@ -17289,7 +17289,7 @@
         <v>13</v>
       </c>
       <c r="B467" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C467">
         <v>2015</v>
@@ -17325,7 +17325,7 @@
         <v>13</v>
       </c>
       <c r="B468" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C468">
         <v>2015</v>
@@ -17361,7 +17361,7 @@
         <v>13</v>
       </c>
       <c r="B469" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C469">
         <v>2015</v>
@@ -17397,7 +17397,7 @@
         <v>13</v>
       </c>
       <c r="B470" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C470">
         <v>2015</v>
@@ -17433,7 +17433,7 @@
         <v>13</v>
       </c>
       <c r="B471" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C471">
         <v>2015</v>
@@ -17469,7 +17469,7 @@
         <v>13</v>
       </c>
       <c r="B472" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C472">
         <v>2015</v>
@@ -17505,7 +17505,7 @@
         <v>13</v>
       </c>
       <c r="B473" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C473">
         <v>2015</v>
@@ -17541,7 +17541,7 @@
         <v>13</v>
       </c>
       <c r="B474" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C474">
         <v>2016</v>
@@ -17577,7 +17577,7 @@
         <v>13</v>
       </c>
       <c r="B475" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C475">
         <v>2016</v>
@@ -17613,7 +17613,7 @@
         <v>13</v>
       </c>
       <c r="B476" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C476">
         <v>2016</v>
@@ -17649,7 +17649,7 @@
         <v>13</v>
       </c>
       <c r="B477" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C477">
         <v>2016</v>
@@ -17685,7 +17685,7 @@
         <v>13</v>
       </c>
       <c r="B478" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C478">
         <v>2016</v>
@@ -17721,7 +17721,7 @@
         <v>13</v>
       </c>
       <c r="B479" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C479">
         <v>2016</v>
@@ -17757,7 +17757,7 @@
         <v>13</v>
       </c>
       <c r="B480" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C480">
         <v>2016</v>
@@ -17793,7 +17793,7 @@
         <v>13</v>
       </c>
       <c r="B481" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C481">
         <v>2016</v>
@@ -17829,7 +17829,7 @@
         <v>13</v>
       </c>
       <c r="B482" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C482">
         <v>2016</v>
@@ -17865,7 +17865,7 @@
         <v>13</v>
       </c>
       <c r="B483" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C483">
         <v>2016</v>
@@ -17901,7 +17901,7 @@
         <v>13</v>
       </c>
       <c r="B484" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C484">
         <v>2016</v>
@@ -17937,7 +17937,7 @@
         <v>13</v>
       </c>
       <c r="B485" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C485">
         <v>2016</v>
@@ -17973,7 +17973,7 @@
         <v>13</v>
       </c>
       <c r="B486" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C486">
         <v>2017</v>
@@ -18009,7 +18009,7 @@
         <v>13</v>
       </c>
       <c r="B487" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C487">
         <v>2017</v>
@@ -18045,7 +18045,7 @@
         <v>13</v>
       </c>
       <c r="B488" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C488">
         <v>2017</v>
@@ -18081,7 +18081,7 @@
         <v>13</v>
       </c>
       <c r="B489" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C489">
         <v>2017</v>
@@ -18117,7 +18117,7 @@
         <v>13</v>
       </c>
       <c r="B490" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C490">
         <v>2017</v>
@@ -18153,7 +18153,7 @@
         <v>13</v>
       </c>
       <c r="B491" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C491">
         <v>2017</v>
@@ -18189,7 +18189,7 @@
         <v>13</v>
       </c>
       <c r="B492" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C492">
         <v>2017</v>
@@ -18225,7 +18225,7 @@
         <v>13</v>
       </c>
       <c r="B493" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C493">
         <v>2017</v>
@@ -18261,7 +18261,7 @@
         <v>13</v>
       </c>
       <c r="B494" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C494">
         <v>2017</v>
@@ -18297,7 +18297,7 @@
         <v>13</v>
       </c>
       <c r="B495" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C495">
         <v>2017</v>
@@ -18333,7 +18333,7 @@
         <v>13</v>
       </c>
       <c r="B496" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C496">
         <v>2017</v>
@@ -18369,7 +18369,7 @@
         <v>13</v>
       </c>
       <c r="B497" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C497">
         <v>2017</v>
@@ -18405,7 +18405,7 @@
         <v>13</v>
       </c>
       <c r="B498" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C498">
         <v>2018</v>
@@ -18441,7 +18441,7 @@
         <v>13</v>
       </c>
       <c r="B499" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C499">
         <v>2018</v>
@@ -18477,7 +18477,7 @@
         <v>13</v>
       </c>
       <c r="B500" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C500">
         <v>2018</v>
@@ -18513,7 +18513,7 @@
         <v>13</v>
       </c>
       <c r="B501" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C501">
         <v>2018</v>
@@ -18549,7 +18549,7 @@
         <v>13</v>
       </c>
       <c r="B502" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C502">
         <v>2018</v>
@@ -18585,7 +18585,7 @@
         <v>13</v>
       </c>
       <c r="B503" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C503">
         <v>2018</v>
@@ -18621,7 +18621,7 @@
         <v>13</v>
       </c>
       <c r="B504" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C504">
         <v>2018</v>
@@ -18657,7 +18657,7 @@
         <v>13</v>
       </c>
       <c r="B505" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C505">
         <v>2018</v>
@@ -18693,7 +18693,7 @@
         <v>13</v>
       </c>
       <c r="B506" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C506">
         <v>2018</v>
@@ -18729,7 +18729,7 @@
         <v>13</v>
       </c>
       <c r="B507" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C507">
         <v>2018</v>
@@ -18765,7 +18765,7 @@
         <v>13</v>
       </c>
       <c r="B508" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C508">
         <v>2018</v>
@@ -18801,7 +18801,7 @@
         <v>13</v>
       </c>
       <c r="B509" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C509">
         <v>2018</v>
@@ -18837,7 +18837,7 @@
         <v>13</v>
       </c>
       <c r="B510" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C510">
         <v>2019</v>
@@ -18873,7 +18873,7 @@
         <v>13</v>
       </c>
       <c r="B511" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C511">
         <v>2019</v>
@@ -18909,7 +18909,7 @@
         <v>13</v>
       </c>
       <c r="B512" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C512">
         <v>2019</v>
@@ -18945,7 +18945,7 @@
         <v>13</v>
       </c>
       <c r="B513" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C513">
         <v>2019</v>
@@ -18981,7 +18981,7 @@
         <v>14</v>
       </c>
       <c r="B514" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C514">
         <v>2014</v>
@@ -19017,7 +19017,7 @@
         <v>14</v>
       </c>
       <c r="B515" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C515">
         <v>2014</v>
@@ -19053,7 +19053,7 @@
         <v>14</v>
       </c>
       <c r="B516" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C516">
         <v>2014</v>
@@ -19089,7 +19089,7 @@
         <v>14</v>
       </c>
       <c r="B517" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C517">
         <v>2014</v>
@@ -19125,7 +19125,7 @@
         <v>14</v>
       </c>
       <c r="B518" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C518">
         <v>2014</v>
@@ -19161,7 +19161,7 @@
         <v>14</v>
       </c>
       <c r="B519" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C519">
         <v>2014</v>
@@ -19197,7 +19197,7 @@
         <v>14</v>
       </c>
       <c r="B520" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C520">
         <v>2014</v>
@@ -19233,7 +19233,7 @@
         <v>14</v>
       </c>
       <c r="B521" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C521">
         <v>2014</v>
@@ -19269,7 +19269,7 @@
         <v>14</v>
       </c>
       <c r="B522" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C522">
         <v>2014</v>
@@ -19305,7 +19305,7 @@
         <v>14</v>
       </c>
       <c r="B523" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C523">
         <v>2014</v>
@@ -19341,7 +19341,7 @@
         <v>14</v>
       </c>
       <c r="B524" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C524">
         <v>2014</v>
@@ -19377,7 +19377,7 @@
         <v>14</v>
       </c>
       <c r="B525" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C525">
         <v>2014</v>
@@ -19413,7 +19413,7 @@
         <v>14</v>
       </c>
       <c r="B526" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C526">
         <v>2015</v>
@@ -19449,7 +19449,7 @@
         <v>14</v>
       </c>
       <c r="B527" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C527">
         <v>2015</v>
@@ -19485,7 +19485,7 @@
         <v>14</v>
       </c>
       <c r="B528" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C528">
         <v>2015</v>
@@ -19521,7 +19521,7 @@
         <v>14</v>
       </c>
       <c r="B529" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C529">
         <v>2015</v>
@@ -19557,7 +19557,7 @@
         <v>14</v>
       </c>
       <c r="B530" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C530">
         <v>2015</v>
@@ -19593,7 +19593,7 @@
         <v>14</v>
       </c>
       <c r="B531" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C531">
         <v>2015</v>
@@ -19629,7 +19629,7 @@
         <v>14</v>
       </c>
       <c r="B532" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C532">
         <v>2015</v>
@@ -19665,7 +19665,7 @@
         <v>14</v>
       </c>
       <c r="B533" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C533">
         <v>2015</v>
@@ -19701,7 +19701,7 @@
         <v>14</v>
       </c>
       <c r="B534" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C534">
         <v>2015</v>
@@ -19737,7 +19737,7 @@
         <v>14</v>
       </c>
       <c r="B535" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C535">
         <v>2015</v>
@@ -19773,7 +19773,7 @@
         <v>14</v>
       </c>
       <c r="B536" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C536">
         <v>2015</v>
@@ -19809,7 +19809,7 @@
         <v>14</v>
       </c>
       <c r="B537" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C537">
         <v>2015</v>
@@ -19845,7 +19845,7 @@
         <v>14</v>
       </c>
       <c r="B538" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C538">
         <v>2016</v>
@@ -19881,7 +19881,7 @@
         <v>14</v>
       </c>
       <c r="B539" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C539">
         <v>2016</v>
@@ -19917,7 +19917,7 @@
         <v>14</v>
       </c>
       <c r="B540" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C540">
         <v>2016</v>
@@ -19953,7 +19953,7 @@
         <v>14</v>
       </c>
       <c r="B541" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C541">
         <v>2016</v>
@@ -19989,7 +19989,7 @@
         <v>14</v>
       </c>
       <c r="B542" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C542">
         <v>2016</v>
@@ -20025,7 +20025,7 @@
         <v>14</v>
       </c>
       <c r="B543" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C543">
         <v>2016</v>
@@ -20061,7 +20061,7 @@
         <v>14</v>
       </c>
       <c r="B544" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C544">
         <v>2016</v>
@@ -20097,7 +20097,7 @@
         <v>14</v>
       </c>
       <c r="B545" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C545">
         <v>2016</v>
@@ -20133,7 +20133,7 @@
         <v>14</v>
       </c>
       <c r="B546" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C546">
         <v>2016</v>
@@ -20169,7 +20169,7 @@
         <v>14</v>
       </c>
       <c r="B547" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C547">
         <v>2016</v>
@@ -20205,7 +20205,7 @@
         <v>14</v>
       </c>
       <c r="B548" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C548">
         <v>2016</v>
@@ -20241,7 +20241,7 @@
         <v>14</v>
       </c>
       <c r="B549" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C549">
         <v>2016</v>
@@ -20277,7 +20277,7 @@
         <v>14</v>
       </c>
       <c r="B550" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C550">
         <v>2017</v>
@@ -20313,7 +20313,7 @@
         <v>14</v>
       </c>
       <c r="B551" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C551">
         <v>2017</v>
@@ -20349,7 +20349,7 @@
         <v>14</v>
       </c>
       <c r="B552" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C552">
         <v>2017</v>
@@ -20385,7 +20385,7 @@
         <v>14</v>
       </c>
       <c r="B553" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C553">
         <v>2017</v>
@@ -20421,7 +20421,7 @@
         <v>14</v>
       </c>
       <c r="B554" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C554">
         <v>2017</v>
@@ -20457,7 +20457,7 @@
         <v>14</v>
       </c>
       <c r="B555" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C555">
         <v>2017</v>
@@ -20493,7 +20493,7 @@
         <v>14</v>
       </c>
       <c r="B556" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C556">
         <v>2017</v>
@@ -20529,7 +20529,7 @@
         <v>14</v>
       </c>
       <c r="B557" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C557">
         <v>2017</v>
@@ -20565,7 +20565,7 @@
         <v>14</v>
       </c>
       <c r="B558" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C558">
         <v>2017</v>
@@ -20601,7 +20601,7 @@
         <v>14</v>
       </c>
       <c r="B559" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C559">
         <v>2017</v>
@@ -20637,7 +20637,7 @@
         <v>14</v>
       </c>
       <c r="B560" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C560">
         <v>2017</v>
@@ -20673,7 +20673,7 @@
         <v>14</v>
       </c>
       <c r="B561" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C561">
         <v>2017</v>
@@ -20709,7 +20709,7 @@
         <v>14</v>
       </c>
       <c r="B562" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C562">
         <v>2018</v>
@@ -20745,7 +20745,7 @@
         <v>14</v>
       </c>
       <c r="B563" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C563">
         <v>2018</v>
@@ -20781,7 +20781,7 @@
         <v>14</v>
       </c>
       <c r="B564" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C564">
         <v>2018</v>
@@ -20817,7 +20817,7 @@
         <v>14</v>
       </c>
       <c r="B565" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C565">
         <v>2018</v>
@@ -20853,7 +20853,7 @@
         <v>14</v>
       </c>
       <c r="B566" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C566">
         <v>2018</v>
@@ -20889,7 +20889,7 @@
         <v>14</v>
       </c>
       <c r="B567" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C567">
         <v>2018</v>
@@ -20925,7 +20925,7 @@
         <v>14</v>
       </c>
       <c r="B568" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C568">
         <v>2018</v>
@@ -20961,7 +20961,7 @@
         <v>14</v>
       </c>
       <c r="B569" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C569">
         <v>2018</v>
@@ -20997,7 +20997,7 @@
         <v>14</v>
       </c>
       <c r="B570" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C570">
         <v>2018</v>
@@ -21033,7 +21033,7 @@
         <v>14</v>
       </c>
       <c r="B571" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C571">
         <v>2018</v>
@@ -21069,7 +21069,7 @@
         <v>14</v>
       </c>
       <c r="B572" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C572">
         <v>2018</v>
@@ -21105,7 +21105,7 @@
         <v>14</v>
       </c>
       <c r="B573" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C573">
         <v>2018</v>
@@ -21141,7 +21141,7 @@
         <v>14</v>
       </c>
       <c r="B574" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C574">
         <v>2019</v>
@@ -21177,7 +21177,7 @@
         <v>14</v>
       </c>
       <c r="B575" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C575">
         <v>2019</v>
@@ -21213,7 +21213,7 @@
         <v>14</v>
       </c>
       <c r="B576" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C576">
         <v>2019</v>
@@ -21249,7 +21249,7 @@
         <v>14</v>
       </c>
       <c r="B577" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C577">
         <v>2019</v>
@@ -21285,7 +21285,7 @@
         <v>15</v>
       </c>
       <c r="B578" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C578">
         <v>2014</v>
@@ -21321,7 +21321,7 @@
         <v>15</v>
       </c>
       <c r="B579" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C579">
         <v>2014</v>
@@ -21357,7 +21357,7 @@
         <v>15</v>
       </c>
       <c r="B580" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C580">
         <v>2014</v>
@@ -21393,7 +21393,7 @@
         <v>15</v>
       </c>
       <c r="B581" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C581">
         <v>2014</v>
@@ -21429,7 +21429,7 @@
         <v>15</v>
       </c>
       <c r="B582" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C582">
         <v>2014</v>
@@ -21465,7 +21465,7 @@
         <v>15</v>
       </c>
       <c r="B583" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C583">
         <v>2014</v>
@@ -21501,7 +21501,7 @@
         <v>15</v>
       </c>
       <c r="B584" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C584">
         <v>2014</v>
@@ -21537,7 +21537,7 @@
         <v>15</v>
       </c>
       <c r="B585" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C585">
         <v>2014</v>
@@ -21573,7 +21573,7 @@
         <v>15</v>
       </c>
       <c r="B586" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C586">
         <v>2014</v>
@@ -21609,7 +21609,7 @@
         <v>15</v>
       </c>
       <c r="B587" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C587">
         <v>2014</v>
@@ -21645,7 +21645,7 @@
         <v>15</v>
       </c>
       <c r="B588" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C588">
         <v>2014</v>
@@ -21681,7 +21681,7 @@
         <v>15</v>
       </c>
       <c r="B589" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C589">
         <v>2014</v>
@@ -21717,7 +21717,7 @@
         <v>15</v>
       </c>
       <c r="B590" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C590">
         <v>2015</v>
@@ -21753,7 +21753,7 @@
         <v>15</v>
       </c>
       <c r="B591" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C591">
         <v>2015</v>
@@ -21789,7 +21789,7 @@
         <v>15</v>
       </c>
       <c r="B592" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C592">
         <v>2015</v>
@@ -21825,7 +21825,7 @@
         <v>15</v>
       </c>
       <c r="B593" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C593">
         <v>2015</v>
@@ -21861,7 +21861,7 @@
         <v>15</v>
       </c>
       <c r="B594" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C594">
         <v>2015</v>
@@ -21897,7 +21897,7 @@
         <v>15</v>
       </c>
       <c r="B595" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C595">
         <v>2015</v>
@@ -21933,7 +21933,7 @@
         <v>15</v>
       </c>
       <c r="B596" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C596">
         <v>2015</v>
@@ -21969,7 +21969,7 @@
         <v>15</v>
       </c>
       <c r="B597" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C597">
         <v>2015</v>
@@ -22005,7 +22005,7 @@
         <v>15</v>
       </c>
       <c r="B598" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C598">
         <v>2015</v>
@@ -22041,7 +22041,7 @@
         <v>15</v>
       </c>
       <c r="B599" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C599">
         <v>2015</v>
@@ -22077,7 +22077,7 @@
         <v>15</v>
       </c>
       <c r="B600" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C600">
         <v>2015</v>
@@ -22113,7 +22113,7 @@
         <v>15</v>
       </c>
       <c r="B601" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C601">
         <v>2015</v>
@@ -22149,7 +22149,7 @@
         <v>15</v>
       </c>
       <c r="B602" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C602">
         <v>2016</v>
@@ -22185,7 +22185,7 @@
         <v>15</v>
       </c>
       <c r="B603" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C603">
         <v>2016</v>
@@ -22221,7 +22221,7 @@
         <v>15</v>
       </c>
       <c r="B604" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C604">
         <v>2016</v>
@@ -22257,7 +22257,7 @@
         <v>15</v>
       </c>
       <c r="B605" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C605">
         <v>2016</v>
@@ -22293,7 +22293,7 @@
         <v>15</v>
       </c>
       <c r="B606" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C606">
         <v>2016</v>
@@ -22329,7 +22329,7 @@
         <v>15</v>
       </c>
       <c r="B607" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C607">
         <v>2016</v>
@@ -22365,7 +22365,7 @@
         <v>15</v>
       </c>
       <c r="B608" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C608">
         <v>2016</v>
@@ -22401,7 +22401,7 @@
         <v>15</v>
       </c>
       <c r="B609" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C609">
         <v>2016</v>
@@ -22437,7 +22437,7 @@
         <v>15</v>
       </c>
       <c r="B610" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C610">
         <v>2016</v>
@@ -22473,7 +22473,7 @@
         <v>15</v>
       </c>
       <c r="B611" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C611">
         <v>2016</v>
@@ -22509,7 +22509,7 @@
         <v>15</v>
       </c>
       <c r="B612" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C612">
         <v>2016</v>
@@ -22545,7 +22545,7 @@
         <v>15</v>
       </c>
       <c r="B613" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C613">
         <v>2016</v>
@@ -22581,7 +22581,7 @@
         <v>15</v>
       </c>
       <c r="B614" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C614">
         <v>2017</v>
@@ -22617,7 +22617,7 @@
         <v>15</v>
       </c>
       <c r="B615" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C615">
         <v>2017</v>
@@ -22653,7 +22653,7 @@
         <v>15</v>
       </c>
       <c r="B616" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C616">
         <v>2017</v>
@@ -22689,7 +22689,7 @@
         <v>15</v>
       </c>
       <c r="B617" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C617">
         <v>2017</v>
@@ -22725,7 +22725,7 @@
         <v>15</v>
       </c>
       <c r="B618" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C618">
         <v>2017</v>
@@ -22761,7 +22761,7 @@
         <v>15</v>
       </c>
       <c r="B619" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C619">
         <v>2017</v>
@@ -22797,7 +22797,7 @@
         <v>15</v>
       </c>
       <c r="B620" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C620">
         <v>2017</v>
@@ -22833,7 +22833,7 @@
         <v>15</v>
       </c>
       <c r="B621" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C621">
         <v>2017</v>
@@ -22869,7 +22869,7 @@
         <v>15</v>
       </c>
       <c r="B622" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C622">
         <v>2017</v>
@@ -22905,7 +22905,7 @@
         <v>15</v>
       </c>
       <c r="B623" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C623">
         <v>2017</v>
@@ -22941,7 +22941,7 @@
         <v>15</v>
       </c>
       <c r="B624" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C624">
         <v>2017</v>
@@ -22977,7 +22977,7 @@
         <v>15</v>
       </c>
       <c r="B625" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C625">
         <v>2017</v>
@@ -23013,7 +23013,7 @@
         <v>15</v>
       </c>
       <c r="B626" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C626">
         <v>2018</v>
@@ -23049,7 +23049,7 @@
         <v>15</v>
       </c>
       <c r="B627" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C627">
         <v>2018</v>
@@ -23085,7 +23085,7 @@
         <v>15</v>
       </c>
       <c r="B628" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C628">
         <v>2018</v>
@@ -23121,7 +23121,7 @@
         <v>15</v>
       </c>
       <c r="B629" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C629">
         <v>2018</v>
@@ -23157,7 +23157,7 @@
         <v>15</v>
       </c>
       <c r="B630" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C630">
         <v>2018</v>
@@ -23193,7 +23193,7 @@
         <v>15</v>
       </c>
       <c r="B631" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C631">
         <v>2018</v>
@@ -23229,7 +23229,7 @@
         <v>15</v>
       </c>
       <c r="B632" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C632">
         <v>2018</v>
@@ -23265,7 +23265,7 @@
         <v>15</v>
       </c>
       <c r="B633" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C633">
         <v>2018</v>
@@ -23301,7 +23301,7 @@
         <v>15</v>
       </c>
       <c r="B634" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C634">
         <v>2018</v>
@@ -23337,7 +23337,7 @@
         <v>15</v>
       </c>
       <c r="B635" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C635">
         <v>2018</v>
@@ -23373,7 +23373,7 @@
         <v>15</v>
       </c>
       <c r="B636" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C636">
         <v>2018</v>
@@ -23409,7 +23409,7 @@
         <v>15</v>
       </c>
       <c r="B637" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C637">
         <v>2018</v>
@@ -23445,7 +23445,7 @@
         <v>15</v>
       </c>
       <c r="B638" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C638">
         <v>2019</v>
@@ -23481,7 +23481,7 @@
         <v>15</v>
       </c>
       <c r="B639" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C639">
         <v>2019</v>
@@ -23517,7 +23517,7 @@
         <v>15</v>
       </c>
       <c r="B640" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C640">
         <v>2019</v>
@@ -23553,7 +23553,7 @@
         <v>15</v>
       </c>
       <c r="B641" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C641">
         <v>2019</v>
@@ -23589,7 +23589,7 @@
         <v>16</v>
       </c>
       <c r="B642" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C642">
         <v>2014</v>
@@ -23625,7 +23625,7 @@
         <v>16</v>
       </c>
       <c r="B643" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C643">
         <v>2014</v>
@@ -23661,7 +23661,7 @@
         <v>16</v>
       </c>
       <c r="B644" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C644">
         <v>2014</v>
@@ -23697,7 +23697,7 @@
         <v>16</v>
       </c>
       <c r="B645" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C645">
         <v>2014</v>
@@ -23733,7 +23733,7 @@
         <v>16</v>
       </c>
       <c r="B646" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C646">
         <v>2014</v>
@@ -23769,7 +23769,7 @@
         <v>16</v>
       </c>
       <c r="B647" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C647">
         <v>2014</v>
@@ -23805,7 +23805,7 @@
         <v>16</v>
       </c>
       <c r="B648" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C648">
         <v>2014</v>
@@ -23841,7 +23841,7 @@
         <v>16</v>
       </c>
       <c r="B649" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C649">
         <v>2014</v>
@@ -23877,7 +23877,7 @@
         <v>16</v>
       </c>
       <c r="B650" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C650">
         <v>2014</v>
@@ -23913,7 +23913,7 @@
         <v>16</v>
       </c>
       <c r="B651" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C651">
         <v>2014</v>
@@ -23949,7 +23949,7 @@
         <v>16</v>
       </c>
       <c r="B652" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C652">
         <v>2014</v>
@@ -23985,7 +23985,7 @@
         <v>16</v>
       </c>
       <c r="B653" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C653">
         <v>2014</v>
@@ -24021,7 +24021,7 @@
         <v>16</v>
       </c>
       <c r="B654" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C654">
         <v>2015</v>
@@ -24057,7 +24057,7 @@
         <v>16</v>
       </c>
       <c r="B655" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C655">
         <v>2015</v>
@@ -24093,7 +24093,7 @@
         <v>16</v>
       </c>
       <c r="B656" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C656">
         <v>2015</v>
@@ -24129,7 +24129,7 @@
         <v>16</v>
       </c>
       <c r="B657" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C657">
         <v>2015</v>
@@ -24165,7 +24165,7 @@
         <v>16</v>
       </c>
       <c r="B658" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C658">
         <v>2015</v>
@@ -24201,7 +24201,7 @@
         <v>16</v>
       </c>
       <c r="B659" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C659">
         <v>2015</v>
@@ -24237,7 +24237,7 @@
         <v>16</v>
       </c>
       <c r="B660" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C660">
         <v>2015</v>
@@ -24273,7 +24273,7 @@
         <v>16</v>
       </c>
       <c r="B661" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C661">
         <v>2015</v>
@@ -24309,7 +24309,7 @@
         <v>16</v>
       </c>
       <c r="B662" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C662">
         <v>2015</v>
@@ -24345,7 +24345,7 @@
         <v>16</v>
       </c>
       <c r="B663" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C663">
         <v>2015</v>
@@ -24381,7 +24381,7 @@
         <v>16</v>
       </c>
       <c r="B664" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C664">
         <v>2015</v>
@@ -24417,7 +24417,7 @@
         <v>16</v>
       </c>
       <c r="B665" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C665">
         <v>2015</v>
@@ -24453,7 +24453,7 @@
         <v>16</v>
       </c>
       <c r="B666" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C666">
         <v>2016</v>
@@ -24489,7 +24489,7 @@
         <v>16</v>
       </c>
       <c r="B667" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C667">
         <v>2016</v>
@@ -24525,7 +24525,7 @@
         <v>16</v>
       </c>
       <c r="B668" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C668">
         <v>2016</v>
@@ -24561,7 +24561,7 @@
         <v>16</v>
       </c>
       <c r="B669" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C669">
         <v>2016</v>
@@ -24597,7 +24597,7 @@
         <v>16</v>
       </c>
       <c r="B670" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C670">
         <v>2016</v>
@@ -24633,7 +24633,7 @@
         <v>16</v>
       </c>
       <c r="B671" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C671">
         <v>2016</v>
@@ -24669,7 +24669,7 @@
         <v>16</v>
       </c>
       <c r="B672" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C672">
         <v>2016</v>
@@ -24705,7 +24705,7 @@
         <v>16</v>
       </c>
       <c r="B673" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C673">
         <v>2016</v>
@@ -24741,7 +24741,7 @@
         <v>16</v>
       </c>
       <c r="B674" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C674">
         <v>2016</v>
@@ -24777,7 +24777,7 @@
         <v>16</v>
       </c>
       <c r="B675" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C675">
         <v>2016</v>
@@ -24813,7 +24813,7 @@
         <v>16</v>
       </c>
       <c r="B676" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C676">
         <v>2016</v>
@@ -24849,7 +24849,7 @@
         <v>16</v>
       </c>
       <c r="B677" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C677">
         <v>2016</v>
@@ -24885,7 +24885,7 @@
         <v>16</v>
       </c>
       <c r="B678" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C678">
         <v>2017</v>
@@ -24921,7 +24921,7 @@
         <v>16</v>
       </c>
       <c r="B679" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C679">
         <v>2017</v>
@@ -24957,7 +24957,7 @@
         <v>16</v>
       </c>
       <c r="B680" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C680">
         <v>2017</v>
@@ -24993,7 +24993,7 @@
         <v>16</v>
       </c>
       <c r="B681" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C681">
         <v>2017</v>
@@ -25029,7 +25029,7 @@
         <v>16</v>
       </c>
       <c r="B682" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C682">
         <v>2017</v>
@@ -25065,7 +25065,7 @@
         <v>16</v>
       </c>
       <c r="B683" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C683">
         <v>2017</v>
@@ -25101,7 +25101,7 @@
         <v>16</v>
       </c>
       <c r="B684" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C684">
         <v>2017</v>
@@ -25137,7 +25137,7 @@
         <v>16</v>
       </c>
       <c r="B685" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C685">
         <v>2017</v>
@@ -25173,7 +25173,7 @@
         <v>16</v>
       </c>
       <c r="B686" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C686">
         <v>2017</v>
@@ -25209,7 +25209,7 @@
         <v>16</v>
       </c>
       <c r="B687" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C687">
         <v>2017</v>
@@ -25245,7 +25245,7 @@
         <v>16</v>
       </c>
       <c r="B688" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C688">
         <v>2017</v>
@@ -25281,7 +25281,7 @@
         <v>16</v>
       </c>
       <c r="B689" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C689">
         <v>2017</v>
@@ -25317,7 +25317,7 @@
         <v>16</v>
       </c>
       <c r="B690" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C690">
         <v>2018</v>
@@ -25353,7 +25353,7 @@
         <v>16</v>
       </c>
       <c r="B691" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C691">
         <v>2018</v>
@@ -25389,7 +25389,7 @@
         <v>16</v>
       </c>
       <c r="B692" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C692">
         <v>2018</v>
@@ -25425,7 +25425,7 @@
         <v>16</v>
       </c>
       <c r="B693" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C693">
         <v>2018</v>
@@ -25461,7 +25461,7 @@
         <v>16</v>
       </c>
       <c r="B694" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C694">
         <v>2018</v>
@@ -25497,7 +25497,7 @@
         <v>16</v>
       </c>
       <c r="B695" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C695">
         <v>2018</v>
@@ -25533,7 +25533,7 @@
         <v>16</v>
       </c>
       <c r="B696" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C696">
         <v>2018</v>
@@ -25569,7 +25569,7 @@
         <v>16</v>
       </c>
       <c r="B697" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C697">
         <v>2018</v>
@@ -25605,7 +25605,7 @@
         <v>16</v>
       </c>
       <c r="B698" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C698">
         <v>2018</v>
@@ -25641,7 +25641,7 @@
         <v>16</v>
       </c>
       <c r="B699" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C699">
         <v>2018</v>
@@ -25677,7 +25677,7 @@
         <v>16</v>
       </c>
       <c r="B700" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C700">
         <v>2018</v>
@@ -25713,7 +25713,7 @@
         <v>16</v>
       </c>
       <c r="B701" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C701">
         <v>2018</v>
@@ -25749,7 +25749,7 @@
         <v>16</v>
       </c>
       <c r="B702" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C702">
         <v>2019</v>
@@ -25785,7 +25785,7 @@
         <v>16</v>
       </c>
       <c r="B703" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C703">
         <v>2019</v>
@@ -25821,7 +25821,7 @@
         <v>16</v>
       </c>
       <c r="B704" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C704">
         <v>2019</v>
@@ -25857,7 +25857,7 @@
         <v>16</v>
       </c>
       <c r="B705" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C705">
         <v>2019</v>
@@ -25893,7 +25893,7 @@
         <v>17</v>
       </c>
       <c r="B706" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C706">
         <v>2014</v>
@@ -25929,7 +25929,7 @@
         <v>17</v>
       </c>
       <c r="B707" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C707">
         <v>2014</v>
@@ -25965,7 +25965,7 @@
         <v>17</v>
       </c>
       <c r="B708" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C708">
         <v>2014</v>
@@ -26001,7 +26001,7 @@
         <v>17</v>
       </c>
       <c r="B709" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C709">
         <v>2014</v>
@@ -26037,7 +26037,7 @@
         <v>17</v>
       </c>
       <c r="B710" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C710">
         <v>2014</v>
@@ -26073,7 +26073,7 @@
         <v>17</v>
       </c>
       <c r="B711" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C711">
         <v>2014</v>
@@ -26109,7 +26109,7 @@
         <v>17</v>
       </c>
       <c r="B712" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C712">
         <v>2014</v>
@@ -26145,7 +26145,7 @@
         <v>17</v>
       </c>
       <c r="B713" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C713">
         <v>2014</v>
@@ -26181,7 +26181,7 @@
         <v>17</v>
       </c>
       <c r="B714" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C714">
         <v>2014</v>
@@ -26217,7 +26217,7 @@
         <v>17</v>
       </c>
       <c r="B715" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C715">
         <v>2014</v>
@@ -26253,7 +26253,7 @@
         <v>17</v>
       </c>
       <c r="B716" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C716">
         <v>2014</v>
@@ -26289,7 +26289,7 @@
         <v>17</v>
       </c>
       <c r="B717" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C717">
         <v>2014</v>
@@ -26325,7 +26325,7 @@
         <v>17</v>
       </c>
       <c r="B718" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C718">
         <v>2015</v>
@@ -26361,7 +26361,7 @@
         <v>17</v>
       </c>
       <c r="B719" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C719">
         <v>2015</v>
@@ -26397,7 +26397,7 @@
         <v>17</v>
       </c>
       <c r="B720" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C720">
         <v>2015</v>
@@ -26433,7 +26433,7 @@
         <v>17</v>
       </c>
       <c r="B721" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C721">
         <v>2015</v>
@@ -26469,7 +26469,7 @@
         <v>17</v>
       </c>
       <c r="B722" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C722">
         <v>2015</v>
@@ -26505,7 +26505,7 @@
         <v>17</v>
       </c>
       <c r="B723" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C723">
         <v>2015</v>
@@ -26541,7 +26541,7 @@
         <v>17</v>
       </c>
       <c r="B724" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C724">
         <v>2015</v>
@@ -26577,7 +26577,7 @@
         <v>17</v>
       </c>
       <c r="B725" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C725">
         <v>2015</v>
@@ -26613,7 +26613,7 @@
         <v>17</v>
       </c>
       <c r="B726" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C726">
         <v>2015</v>
@@ -26649,7 +26649,7 @@
         <v>17</v>
       </c>
       <c r="B727" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C727">
         <v>2015</v>
@@ -26685,7 +26685,7 @@
         <v>17</v>
       </c>
       <c r="B728" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C728">
         <v>2015</v>
@@ -26721,7 +26721,7 @@
         <v>17</v>
       </c>
       <c r="B729" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C729">
         <v>2015</v>
@@ -26757,7 +26757,7 @@
         <v>17</v>
       </c>
       <c r="B730" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C730">
         <v>2016</v>
@@ -26793,7 +26793,7 @@
         <v>17</v>
       </c>
       <c r="B731" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C731">
         <v>2016</v>
@@ -26829,7 +26829,7 @@
         <v>17</v>
       </c>
       <c r="B732" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C732">
         <v>2016</v>
@@ -26865,7 +26865,7 @@
         <v>17</v>
       </c>
       <c r="B733" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C733">
         <v>2016</v>
@@ -26901,7 +26901,7 @@
         <v>17</v>
       </c>
       <c r="B734" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C734">
         <v>2016</v>
@@ -26937,7 +26937,7 @@
         <v>17</v>
       </c>
       <c r="B735" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C735">
         <v>2016</v>
@@ -26973,7 +26973,7 @@
         <v>17</v>
       </c>
       <c r="B736" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C736">
         <v>2016</v>
@@ -27009,7 +27009,7 @@
         <v>17</v>
       </c>
       <c r="B737" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C737">
         <v>2016</v>
@@ -27045,7 +27045,7 @@
         <v>17</v>
       </c>
       <c r="B738" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C738">
         <v>2016</v>
@@ -27081,7 +27081,7 @@
         <v>17</v>
       </c>
       <c r="B739" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C739">
         <v>2016</v>
@@ -27117,7 +27117,7 @@
         <v>17</v>
       </c>
       <c r="B740" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C740">
         <v>2016</v>
@@ -27153,7 +27153,7 @@
         <v>17</v>
       </c>
       <c r="B741" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C741">
         <v>2016</v>
@@ -27189,7 +27189,7 @@
         <v>17</v>
       </c>
       <c r="B742" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C742">
         <v>2017</v>
@@ -27225,7 +27225,7 @@
         <v>17</v>
       </c>
       <c r="B743" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C743">
         <v>2017</v>
@@ -27261,7 +27261,7 @@
         <v>17</v>
       </c>
       <c r="B744" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C744">
         <v>2017</v>
@@ -27297,7 +27297,7 @@
         <v>17</v>
       </c>
       <c r="B745" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C745">
         <v>2017</v>
@@ -27333,7 +27333,7 @@
         <v>17</v>
       </c>
       <c r="B746" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C746">
         <v>2017</v>
@@ -27369,7 +27369,7 @@
         <v>17</v>
       </c>
       <c r="B747" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C747">
         <v>2017</v>
@@ -27405,7 +27405,7 @@
         <v>17</v>
       </c>
       <c r="B748" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C748">
         <v>2017</v>
@@ -27441,7 +27441,7 @@
         <v>17</v>
       </c>
       <c r="B749" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C749">
         <v>2017</v>
@@ -27477,7 +27477,7 @@
         <v>17</v>
       </c>
       <c r="B750" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C750">
         <v>2017</v>
@@ -27513,7 +27513,7 @@
         <v>17</v>
       </c>
       <c r="B751" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C751">
         <v>2017</v>
@@ -27549,7 +27549,7 @@
         <v>17</v>
       </c>
       <c r="B752" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C752">
         <v>2017</v>
@@ -27585,7 +27585,7 @@
         <v>17</v>
       </c>
       <c r="B753" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C753">
         <v>2017</v>
@@ -27621,7 +27621,7 @@
         <v>17</v>
       </c>
       <c r="B754" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C754">
         <v>2018</v>
@@ -27657,7 +27657,7 @@
         <v>17</v>
       </c>
       <c r="B755" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C755">
         <v>2018</v>
@@ -27693,7 +27693,7 @@
         <v>17</v>
       </c>
       <c r="B756" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C756">
         <v>2018</v>
@@ -27729,7 +27729,7 @@
         <v>17</v>
       </c>
       <c r="B757" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C757">
         <v>2018</v>
@@ -27765,7 +27765,7 @@
         <v>17</v>
       </c>
       <c r="B758" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C758">
         <v>2018</v>
@@ -27801,7 +27801,7 @@
         <v>17</v>
       </c>
       <c r="B759" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C759">
         <v>2018</v>
@@ -27837,7 +27837,7 @@
         <v>17</v>
       </c>
       <c r="B760" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C760">
         <v>2018</v>
@@ -27873,7 +27873,7 @@
         <v>17</v>
       </c>
       <c r="B761" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C761">
         <v>2018</v>
@@ -27909,7 +27909,7 @@
         <v>17</v>
       </c>
       <c r="B762" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C762">
         <v>2018</v>
@@ -27945,7 +27945,7 @@
         <v>17</v>
       </c>
       <c r="B763" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C763">
         <v>2018</v>
@@ -27981,7 +27981,7 @@
         <v>17</v>
       </c>
       <c r="B764" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C764">
         <v>2018</v>
@@ -28017,7 +28017,7 @@
         <v>17</v>
       </c>
       <c r="B765" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C765">
         <v>2018</v>
@@ -28053,7 +28053,7 @@
         <v>17</v>
       </c>
       <c r="B766" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C766">
         <v>2019</v>
@@ -28089,7 +28089,7 @@
         <v>17</v>
       </c>
       <c r="B767" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C767">
         <v>2019</v>
@@ -28125,7 +28125,7 @@
         <v>17</v>
       </c>
       <c r="B768" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C768">
         <v>2019</v>
@@ -28161,7 +28161,7 @@
         <v>17</v>
       </c>
       <c r="B769" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C769">
         <v>2019</v>
@@ -28197,7 +28197,7 @@
         <v>18</v>
       </c>
       <c r="B770" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C770">
         <v>2014</v>
@@ -28233,7 +28233,7 @@
         <v>18</v>
       </c>
       <c r="B771" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C771">
         <v>2014</v>
@@ -28269,7 +28269,7 @@
         <v>18</v>
       </c>
       <c r="B772" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C772">
         <v>2014</v>
@@ -28305,7 +28305,7 @@
         <v>18</v>
       </c>
       <c r="B773" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C773">
         <v>2014</v>
@@ -28341,7 +28341,7 @@
         <v>18</v>
       </c>
       <c r="B774" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C774">
         <v>2014</v>
@@ -28377,7 +28377,7 @@
         <v>18</v>
       </c>
       <c r="B775" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C775">
         <v>2014</v>
@@ -28413,7 +28413,7 @@
         <v>18</v>
       </c>
       <c r="B776" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C776">
         <v>2014</v>
@@ -28449,7 +28449,7 @@
         <v>18</v>
       </c>
       <c r="B777" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C777">
         <v>2014</v>
@@ -28485,7 +28485,7 @@
         <v>18</v>
       </c>
       <c r="B778" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C778">
         <v>2014</v>
@@ -28521,7 +28521,7 @@
         <v>18</v>
       </c>
       <c r="B779" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C779">
         <v>2014</v>
@@ -28557,7 +28557,7 @@
         <v>18</v>
       </c>
       <c r="B780" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C780">
         <v>2014</v>
@@ -28593,7 +28593,7 @@
         <v>18</v>
       </c>
       <c r="B781" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C781">
         <v>2014</v>
@@ -28629,7 +28629,7 @@
         <v>18</v>
       </c>
       <c r="B782" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C782">
         <v>2015</v>
@@ -28665,7 +28665,7 @@
         <v>18</v>
       </c>
       <c r="B783" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C783">
         <v>2015</v>
@@ -28701,7 +28701,7 @@
         <v>18</v>
       </c>
       <c r="B784" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C784">
         <v>2015</v>
@@ -28737,7 +28737,7 @@
         <v>18</v>
       </c>
       <c r="B785" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C785">
         <v>2015</v>
@@ -28773,7 +28773,7 @@
         <v>18</v>
       </c>
       <c r="B786" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C786">
         <v>2015</v>
@@ -28809,7 +28809,7 @@
         <v>18</v>
       </c>
       <c r="B787" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C787">
         <v>2015</v>
@@ -28845,7 +28845,7 @@
         <v>18</v>
       </c>
       <c r="B788" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C788">
         <v>2015</v>
@@ -28881,7 +28881,7 @@
         <v>18</v>
       </c>
       <c r="B789" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C789">
         <v>2015</v>
@@ -28917,7 +28917,7 @@
         <v>18</v>
       </c>
       <c r="B790" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C790">
         <v>2015</v>
@@ -28953,7 +28953,7 @@
         <v>18</v>
       </c>
       <c r="B791" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C791">
         <v>2015</v>
@@ -28989,7 +28989,7 @@
         <v>18</v>
       </c>
       <c r="B792" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C792">
         <v>2015</v>
@@ -29025,7 +29025,7 @@
         <v>18</v>
       </c>
       <c r="B793" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C793">
         <v>2015</v>
@@ -29061,7 +29061,7 @@
         <v>18</v>
       </c>
       <c r="B794" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C794">
         <v>2016</v>
@@ -29097,7 +29097,7 @@
         <v>18</v>
       </c>
       <c r="B795" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C795">
         <v>2016</v>
@@ -29133,7 +29133,7 @@
         <v>18</v>
       </c>
       <c r="B796" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C796">
         <v>2016</v>
@@ -29169,7 +29169,7 @@
         <v>18</v>
       </c>
       <c r="B797" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C797">
         <v>2016</v>
@@ -29205,7 +29205,7 @@
         <v>18</v>
       </c>
       <c r="B798" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C798">
         <v>2016</v>
@@ -29241,7 +29241,7 @@
         <v>18</v>
       </c>
       <c r="B799" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C799">
         <v>2016</v>
@@ -29277,7 +29277,7 @@
         <v>18</v>
       </c>
       <c r="B800" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C800">
         <v>2016</v>
@@ -29313,7 +29313,7 @@
         <v>18</v>
       </c>
       <c r="B801" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C801">
         <v>2016</v>
@@ -29349,7 +29349,7 @@
         <v>18</v>
       </c>
       <c r="B802" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C802">
         <v>2016</v>
@@ -29385,7 +29385,7 @@
         <v>18</v>
       </c>
       <c r="B803" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C803">
         <v>2016</v>
@@ -29421,7 +29421,7 @@
         <v>18</v>
       </c>
       <c r="B804" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C804">
         <v>2016</v>
@@ -29457,7 +29457,7 @@
         <v>18</v>
       </c>
       <c r="B805" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C805">
         <v>2016</v>
@@ -29493,7 +29493,7 @@
         <v>18</v>
       </c>
       <c r="B806" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C806">
         <v>2017</v>
@@ -29529,7 +29529,7 @@
         <v>18</v>
       </c>
       <c r="B807" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C807">
         <v>2017</v>
@@ -29565,7 +29565,7 @@
         <v>18</v>
       </c>
       <c r="B808" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C808">
         <v>2017</v>
@@ -29601,7 +29601,7 @@
         <v>18</v>
       </c>
       <c r="B809" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C809">
         <v>2017</v>
@@ -29637,7 +29637,7 @@
         <v>18</v>
       </c>
       <c r="B810" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C810">
         <v>2017</v>
@@ -29673,7 +29673,7 @@
         <v>18</v>
       </c>
       <c r="B811" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C811">
         <v>2017</v>
@@ -29709,7 +29709,7 @@
         <v>18</v>
       </c>
       <c r="B812" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C812">
         <v>2017</v>
@@ -29745,7 +29745,7 @@
         <v>18</v>
       </c>
       <c r="B813" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C813">
         <v>2017</v>
@@ -29781,7 +29781,7 @@
         <v>18</v>
       </c>
       <c r="B814" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C814">
         <v>2017</v>
@@ -29817,7 +29817,7 @@
         <v>18</v>
       </c>
       <c r="B815" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C815">
         <v>2017</v>
@@ -29853,7 +29853,7 @@
         <v>18</v>
       </c>
       <c r="B816" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C816">
         <v>2017</v>
@@ -29889,7 +29889,7 @@
         <v>18</v>
       </c>
       <c r="B817" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C817">
         <v>2017</v>
@@ -29925,7 +29925,7 @@
         <v>18</v>
       </c>
       <c r="B818" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C818">
         <v>2018</v>
@@ -29961,7 +29961,7 @@
         <v>18</v>
       </c>
       <c r="B819" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C819">
         <v>2018</v>
@@ -29997,7 +29997,7 @@
         <v>18</v>
       </c>
       <c r="B820" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C820">
         <v>2018</v>
@@ -30033,7 +30033,7 @@
         <v>18</v>
       </c>
       <c r="B821" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C821">
         <v>2018</v>
@@ -30069,7 +30069,7 @@
         <v>18</v>
       </c>
       <c r="B822" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C822">
         <v>2018</v>
@@ -30105,7 +30105,7 @@
         <v>18</v>
       </c>
       <c r="B823" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C823">
         <v>2018</v>
@@ -30141,7 +30141,7 @@
         <v>18</v>
       </c>
       <c r="B824" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C824">
         <v>2018</v>
@@ -30177,7 +30177,7 @@
         <v>18</v>
       </c>
       <c r="B825" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C825">
         <v>2018</v>
@@ -30213,7 +30213,7 @@
         <v>18</v>
       </c>
       <c r="B826" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C826">
         <v>2018</v>
@@ -30249,7 +30249,7 @@
         <v>18</v>
       </c>
       <c r="B827" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C827">
         <v>2018</v>
@@ -30285,7 +30285,7 @@
         <v>18</v>
       </c>
       <c r="B828" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C828">
         <v>2018</v>
@@ -30321,7 +30321,7 @@
         <v>18</v>
       </c>
       <c r="B829" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C829">
         <v>2018</v>
@@ -30357,7 +30357,7 @@
         <v>18</v>
       </c>
       <c r="B830" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C830">
         <v>2019</v>
@@ -30393,7 +30393,7 @@
         <v>18</v>
       </c>
       <c r="B831" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C831">
         <v>2019</v>
@@ -30429,7 +30429,7 @@
         <v>18</v>
       </c>
       <c r="B832" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C832">
         <v>2019</v>
@@ -30465,7 +30465,7 @@
         <v>18</v>
       </c>
       <c r="B833" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C833">
         <v>2019</v>
@@ -30501,7 +30501,7 @@
         <v>19</v>
       </c>
       <c r="B834" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C834">
         <v>2014</v>
@@ -30537,7 +30537,7 @@
         <v>19</v>
       </c>
       <c r="B835" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C835">
         <v>2014</v>
@@ -30573,7 +30573,7 @@
         <v>19</v>
       </c>
       <c r="B836" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C836">
         <v>2014</v>
@@ -30609,7 +30609,7 @@
         <v>19</v>
       </c>
       <c r="B837" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C837">
         <v>2014</v>
@@ -30645,7 +30645,7 @@
         <v>19</v>
       </c>
       <c r="B838" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C838">
         <v>2014</v>
@@ -30681,7 +30681,7 @@
         <v>19</v>
       </c>
       <c r="B839" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C839">
         <v>2014</v>
@@ -30717,7 +30717,7 @@
         <v>19</v>
       </c>
       <c r="B840" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C840">
         <v>2014</v>
@@ -30753,7 +30753,7 @@
         <v>19</v>
       </c>
       <c r="B841" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C841">
         <v>2014</v>
@@ -30789,7 +30789,7 @@
         <v>19</v>
       </c>
       <c r="B842" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C842">
         <v>2014</v>
@@ -30825,7 +30825,7 @@
         <v>19</v>
       </c>
       <c r="B843" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C843">
         <v>2014</v>
@@ -30861,7 +30861,7 @@
         <v>19</v>
       </c>
       <c r="B844" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C844">
         <v>2014</v>
@@ -30897,7 +30897,7 @@
         <v>19</v>
       </c>
       <c r="B845" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C845">
         <v>2014</v>
@@ -30933,7 +30933,7 @@
         <v>19</v>
       </c>
       <c r="B846" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C846">
         <v>2015</v>
@@ -30969,7 +30969,7 @@
         <v>19</v>
       </c>
       <c r="B847" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C847">
         <v>2015</v>
@@ -31005,7 +31005,7 @@
         <v>19</v>
       </c>
       <c r="B848" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C848">
         <v>2015</v>
@@ -31041,7 +31041,7 @@
         <v>19</v>
       </c>
       <c r="B849" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C849">
         <v>2015</v>
@@ -31077,7 +31077,7 @@
         <v>19</v>
       </c>
       <c r="B850" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C850">
         <v>2015</v>
@@ -31113,7 +31113,7 @@
         <v>19</v>
       </c>
       <c r="B851" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C851">
         <v>2015</v>
@@ -31149,7 +31149,7 @@
         <v>19</v>
       </c>
       <c r="B852" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C852">
         <v>2015</v>
@@ -31185,7 +31185,7 @@
         <v>19</v>
       </c>
       <c r="B853" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C853">
         <v>2015</v>
@@ -31221,7 +31221,7 @@
         <v>19</v>
       </c>
       <c r="B854" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C854">
         <v>2015</v>
@@ -31257,7 +31257,7 @@
         <v>19</v>
       </c>
       <c r="B855" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C855">
         <v>2015</v>
@@ -31293,7 +31293,7 @@
         <v>19</v>
       </c>
       <c r="B856" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C856">
         <v>2015</v>
@@ -31329,7 +31329,7 @@
         <v>19</v>
       </c>
       <c r="B857" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C857">
         <v>2015</v>
@@ -31365,7 +31365,7 @@
         <v>19</v>
       </c>
       <c r="B858" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C858">
         <v>2016</v>
@@ -31401,7 +31401,7 @@
         <v>19</v>
       </c>
       <c r="B859" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C859">
         <v>2016</v>
@@ -31437,7 +31437,7 @@
         <v>19</v>
       </c>
       <c r="B860" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C860">
         <v>2016</v>
@@ -31473,7 +31473,7 @@
         <v>19</v>
       </c>
       <c r="B861" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C861">
         <v>2016</v>
@@ -31509,7 +31509,7 @@
         <v>19</v>
       </c>
       <c r="B862" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C862">
         <v>2016</v>
@@ -31545,7 +31545,7 @@
         <v>19</v>
       </c>
       <c r="B863" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C863">
         <v>2016</v>
@@ -31581,7 +31581,7 @@
         <v>19</v>
       </c>
       <c r="B864" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C864">
         <v>2016</v>
@@ -31617,7 +31617,7 @@
         <v>19</v>
       </c>
       <c r="B865" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C865">
         <v>2016</v>
@@ -31653,7 +31653,7 @@
         <v>19</v>
       </c>
       <c r="B866" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C866">
         <v>2016</v>
@@ -31689,7 +31689,7 @@
         <v>19</v>
       </c>
       <c r="B867" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C867">
         <v>2016</v>
@@ -31725,7 +31725,7 @@
         <v>19</v>
       </c>
       <c r="B868" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C868">
         <v>2016</v>
@@ -31761,7 +31761,7 @@
         <v>19</v>
       </c>
       <c r="B869" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C869">
         <v>2016</v>
@@ -31797,7 +31797,7 @@
         <v>19</v>
       </c>
       <c r="B870" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C870">
         <v>2017</v>
@@ -31833,7 +31833,7 @@
         <v>19</v>
       </c>
       <c r="B871" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C871">
         <v>2017</v>
@@ -31869,7 +31869,7 @@
         <v>19</v>
       </c>
       <c r="B872" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C872">
         <v>2017</v>
@@ -31905,7 +31905,7 @@
         <v>19</v>
       </c>
       <c r="B873" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C873">
         <v>2017</v>
@@ -31941,7 +31941,7 @@
         <v>19</v>
       </c>
       <c r="B874" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C874">
         <v>2017</v>
@@ -31977,7 +31977,7 @@
         <v>19</v>
       </c>
       <c r="B875" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C875">
         <v>2017</v>
@@ -32013,7 +32013,7 @@
         <v>19</v>
       </c>
       <c r="B876" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C876">
         <v>2017</v>
@@ -32049,7 +32049,7 @@
         <v>19</v>
       </c>
       <c r="B877" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C877">
         <v>2017</v>
@@ -32085,7 +32085,7 @@
         <v>19</v>
       </c>
       <c r="B878" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C878">
         <v>2017</v>
@@ -32121,7 +32121,7 @@
         <v>19</v>
       </c>
       <c r="B879" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C879">
         <v>2017</v>
@@ -32157,7 +32157,7 @@
         <v>19</v>
       </c>
       <c r="B880" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C880">
         <v>2017</v>
@@ -32193,7 +32193,7 @@
         <v>19</v>
       </c>
       <c r="B881" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C881">
         <v>2017</v>
@@ -32229,7 +32229,7 @@
         <v>19</v>
       </c>
       <c r="B882" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C882">
         <v>2018</v>
@@ -32265,7 +32265,7 @@
         <v>19</v>
       </c>
       <c r="B883" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C883">
         <v>2018</v>
@@ -32301,7 +32301,7 @@
         <v>19</v>
       </c>
       <c r="B884" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C884">
         <v>2018</v>
@@ -32337,7 +32337,7 @@
         <v>19</v>
       </c>
       <c r="B885" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C885">
         <v>2018</v>
@@ -32373,7 +32373,7 @@
         <v>19</v>
       </c>
       <c r="B886" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C886">
         <v>2018</v>
@@ -32409,7 +32409,7 @@
         <v>19</v>
       </c>
       <c r="B887" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C887">
         <v>2018</v>
@@ -32445,7 +32445,7 @@
         <v>19</v>
       </c>
       <c r="B888" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C888">
         <v>2018</v>
@@ -32481,7 +32481,7 @@
         <v>19</v>
       </c>
       <c r="B889" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C889">
         <v>2018</v>
@@ -32517,7 +32517,7 @@
         <v>19</v>
       </c>
       <c r="B890" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C890">
         <v>2018</v>
@@ -32553,7 +32553,7 @@
         <v>19</v>
       </c>
       <c r="B891" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C891">
         <v>2018</v>
@@ -32589,7 +32589,7 @@
         <v>19</v>
       </c>
       <c r="B892" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C892">
         <v>2018</v>
@@ -32625,7 +32625,7 @@
         <v>19</v>
       </c>
       <c r="B893" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C893">
         <v>2018</v>
@@ -32661,7 +32661,7 @@
         <v>19</v>
       </c>
       <c r="B894" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C894">
         <v>2019</v>
@@ -32697,7 +32697,7 @@
         <v>19</v>
       </c>
       <c r="B895" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C895">
         <v>2019</v>
@@ -32733,7 +32733,7 @@
         <v>19</v>
       </c>
       <c r="B896" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C896">
         <v>2019</v>
@@ -32769,7 +32769,7 @@
         <v>19</v>
       </c>
       <c r="B897" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C897">
         <v>2019</v>

--- a/data/base de modificacion del modelo.xlsx
+++ b/data/base de modificacion del modelo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jean\Documents\GitHub\Analysis-Factors-Interns-\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7069D44-71B1-412B-80D1-85F03C78D5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D576C4-33E2-4D2B-B963-A9AED98C1DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2F209813-F532-487E-95E8-E4530FD12282}"/>
   </bookViews>
@@ -84,9 +84,6 @@
     <t>Banco Azteca</t>
   </si>
   <si>
-    <t>paises</t>
-  </si>
-  <si>
     <t>fecha</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>BCP</t>
+  </si>
+  <si>
+    <t>banco</t>
   </si>
 </sst>
 </file>
@@ -497,9 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1029512-8D18-454A-A5EE-72507EB488AD}">
   <dimension ref="A1:K897"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -510,16 +508,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -541,7 +539,7 @@
       </c>
       <c r="K1" t="str">
         <f>CONCATENATE(A1,",",B1,",",C1,",",E1,",",F1,",",G1,",",H1,",",I1,",",J1)</f>
-        <v>paises,mes,year,ROA,SIZE,CAP,LOAN,DEP,PROV</v>
+        <v>banco,mes,year,ROA,SIZE,CAP,LOAN,DEP,PROV</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -549,7 +547,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>2014</v>
@@ -585,7 +583,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>2014</v>
@@ -621,7 +619,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>2014</v>
@@ -657,7 +655,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>2014</v>
@@ -693,7 +691,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>2014</v>
@@ -729,7 +727,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>2014</v>
@@ -765,7 +763,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>2014</v>
@@ -801,7 +799,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>2014</v>
@@ -837,7 +835,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>2014</v>
@@ -873,7 +871,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>2014</v>
@@ -909,7 +907,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>2014</v>
@@ -945,7 +943,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>2014</v>
@@ -981,7 +979,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>2015</v>
@@ -1017,7 +1015,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>2015</v>
@@ -1053,7 +1051,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>2015</v>
@@ -1089,7 +1087,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>2015</v>
@@ -1125,7 +1123,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>2015</v>
@@ -1161,7 +1159,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>2015</v>
@@ -1197,7 +1195,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>2015</v>
@@ -1233,7 +1231,7 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>2015</v>
@@ -1269,7 +1267,7 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22">
         <v>2015</v>
@@ -1305,7 +1303,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23">
         <v>2015</v>
@@ -1341,7 +1339,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24">
         <v>2015</v>
@@ -1377,7 +1375,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25">
         <v>2015</v>
@@ -1413,7 +1411,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26">
         <v>2016</v>
@@ -1449,7 +1447,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27">
         <v>2016</v>
@@ -1485,7 +1483,7 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28">
         <v>2016</v>
@@ -1521,7 +1519,7 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29">
         <v>2016</v>
@@ -1557,7 +1555,7 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30">
         <v>2016</v>
@@ -1593,7 +1591,7 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31">
         <v>2016</v>
@@ -1629,7 +1627,7 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32">
         <v>2016</v>
@@ -1665,7 +1663,7 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>2016</v>
@@ -1701,7 +1699,7 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34">
         <v>2016</v>
@@ -1737,7 +1735,7 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35">
         <v>2016</v>
@@ -1773,7 +1771,7 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36">
         <v>2016</v>
@@ -1809,7 +1807,7 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37">
         <v>2016</v>
@@ -1845,7 +1843,7 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38">
         <v>2017</v>
@@ -1881,7 +1879,7 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C39">
         <v>2017</v>
@@ -1917,7 +1915,7 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40">
         <v>2017</v>
@@ -1953,7 +1951,7 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41">
         <v>2017</v>
@@ -1989,7 +1987,7 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42">
         <v>2017</v>
@@ -2025,7 +2023,7 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C43">
         <v>2017</v>
@@ -2061,7 +2059,7 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C44">
         <v>2017</v>
@@ -2097,7 +2095,7 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45">
         <v>2017</v>
@@ -2133,7 +2131,7 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C46">
         <v>2017</v>
@@ -2169,7 +2167,7 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C47">
         <v>2017</v>
@@ -2205,7 +2203,7 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C48">
         <v>2017</v>
@@ -2241,7 +2239,7 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C49">
         <v>2017</v>
@@ -2277,7 +2275,7 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C50">
         <v>2018</v>
@@ -2313,7 +2311,7 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C51">
         <v>2018</v>
@@ -2349,7 +2347,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C52">
         <v>2018</v>
@@ -2385,7 +2383,7 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C53">
         <v>2018</v>
@@ -2421,7 +2419,7 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C54">
         <v>2018</v>
@@ -2457,7 +2455,7 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C55">
         <v>2018</v>
@@ -2493,7 +2491,7 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C56">
         <v>2018</v>
@@ -2529,7 +2527,7 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C57">
         <v>2018</v>
@@ -2565,7 +2563,7 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C58">
         <v>2018</v>
@@ -2601,7 +2599,7 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C59">
         <v>2018</v>
@@ -2637,7 +2635,7 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C60">
         <v>2018</v>
@@ -2673,7 +2671,7 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C61">
         <v>2018</v>
@@ -2709,7 +2707,7 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C62">
         <v>2019</v>
@@ -2745,7 +2743,7 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C63">
         <v>2019</v>
@@ -2781,7 +2779,7 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C64">
         <v>2019</v>
@@ -2817,7 +2815,7 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C65">
         <v>2019</v>
@@ -2853,7 +2851,7 @@
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C66">
         <v>2014</v>
@@ -2889,7 +2887,7 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C67">
         <v>2014</v>
@@ -2925,7 +2923,7 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C68">
         <v>2014</v>
@@ -2961,7 +2959,7 @@
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C69">
         <v>2014</v>
@@ -2997,7 +2995,7 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C70">
         <v>2014</v>
@@ -3033,7 +3031,7 @@
         <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C71">
         <v>2014</v>
@@ -3069,7 +3067,7 @@
         <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C72">
         <v>2014</v>
@@ -3105,7 +3103,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C73">
         <v>2014</v>
@@ -3141,7 +3139,7 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C74">
         <v>2014</v>
@@ -3177,7 +3175,7 @@
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C75">
         <v>2014</v>
@@ -3213,7 +3211,7 @@
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C76">
         <v>2014</v>
@@ -3249,7 +3247,7 @@
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C77">
         <v>2014</v>
@@ -3285,7 +3283,7 @@
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C78">
         <v>2015</v>
@@ -3321,7 +3319,7 @@
         <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C79">
         <v>2015</v>
@@ -3357,7 +3355,7 @@
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C80">
         <v>2015</v>
@@ -3393,7 +3391,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C81">
         <v>2015</v>
@@ -3429,7 +3427,7 @@
         <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C82">
         <v>2015</v>
@@ -3465,7 +3463,7 @@
         <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C83">
         <v>2015</v>
@@ -3501,7 +3499,7 @@
         <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C84">
         <v>2015</v>
@@ -3537,7 +3535,7 @@
         <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C85">
         <v>2015</v>
@@ -3573,7 +3571,7 @@
         <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C86">
         <v>2015</v>
@@ -3609,7 +3607,7 @@
         <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C87">
         <v>2015</v>
@@ -3645,7 +3643,7 @@
         <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C88">
         <v>2015</v>
@@ -3681,7 +3679,7 @@
         <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C89">
         <v>2015</v>
@@ -3717,7 +3715,7 @@
         <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C90">
         <v>2016</v>
@@ -3753,7 +3751,7 @@
         <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C91">
         <v>2016</v>
@@ -3789,7 +3787,7 @@
         <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C92">
         <v>2016</v>
@@ -3825,7 +3823,7 @@
         <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C93">
         <v>2016</v>
@@ -3861,7 +3859,7 @@
         <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C94">
         <v>2016</v>
@@ -3897,7 +3895,7 @@
         <v>7</v>
       </c>
       <c r="B95" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C95">
         <v>2016</v>
@@ -3933,7 +3931,7 @@
         <v>7</v>
       </c>
       <c r="B96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C96">
         <v>2016</v>
@@ -3969,7 +3967,7 @@
         <v>7</v>
       </c>
       <c r="B97" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C97">
         <v>2016</v>
@@ -4005,7 +4003,7 @@
         <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C98">
         <v>2016</v>
@@ -4041,7 +4039,7 @@
         <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C99">
         <v>2016</v>
@@ -4077,7 +4075,7 @@
         <v>7</v>
       </c>
       <c r="B100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C100">
         <v>2016</v>
@@ -4113,7 +4111,7 @@
         <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C101">
         <v>2016</v>
@@ -4149,7 +4147,7 @@
         <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C102">
         <v>2017</v>
@@ -4185,7 +4183,7 @@
         <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C103">
         <v>2017</v>
@@ -4221,7 +4219,7 @@
         <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C104">
         <v>2017</v>
@@ -4257,7 +4255,7 @@
         <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C105">
         <v>2017</v>
@@ -4293,7 +4291,7 @@
         <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C106">
         <v>2017</v>
@@ -4329,7 +4327,7 @@
         <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C107">
         <v>2017</v>
@@ -4365,7 +4363,7 @@
         <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C108">
         <v>2017</v>
@@ -4401,7 +4399,7 @@
         <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C109">
         <v>2017</v>
@@ -4437,7 +4435,7 @@
         <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C110">
         <v>2017</v>
@@ -4473,7 +4471,7 @@
         <v>7</v>
       </c>
       <c r="B111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C111">
         <v>2017</v>
@@ -4509,7 +4507,7 @@
         <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C112">
         <v>2017</v>
@@ -4545,7 +4543,7 @@
         <v>7</v>
       </c>
       <c r="B113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C113">
         <v>2017</v>
@@ -4581,7 +4579,7 @@
         <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C114">
         <v>2018</v>
@@ -4617,7 +4615,7 @@
         <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C115">
         <v>2018</v>
@@ -4653,7 +4651,7 @@
         <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C116">
         <v>2018</v>
@@ -4689,7 +4687,7 @@
         <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C117">
         <v>2018</v>
@@ -4725,7 +4723,7 @@
         <v>7</v>
       </c>
       <c r="B118" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C118">
         <v>2018</v>
@@ -4761,7 +4759,7 @@
         <v>7</v>
       </c>
       <c r="B119" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C119">
         <v>2018</v>
@@ -4797,7 +4795,7 @@
         <v>7</v>
       </c>
       <c r="B120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C120">
         <v>2018</v>
@@ -4833,7 +4831,7 @@
         <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C121">
         <v>2018</v>
@@ -4869,7 +4867,7 @@
         <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C122">
         <v>2018</v>
@@ -4905,7 +4903,7 @@
         <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C123">
         <v>2018</v>
@@ -4941,7 +4939,7 @@
         <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C124">
         <v>2018</v>
@@ -4977,7 +4975,7 @@
         <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C125">
         <v>2018</v>
@@ -5013,7 +5011,7 @@
         <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C126">
         <v>2019</v>
@@ -5049,7 +5047,7 @@
         <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C127">
         <v>2019</v>
@@ -5085,7 +5083,7 @@
         <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C128">
         <v>2019</v>
@@ -5121,7 +5119,7 @@
         <v>7</v>
       </c>
       <c r="B129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C129">
         <v>2019</v>
@@ -5154,10 +5152,10 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B130" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C130">
         <v>2014</v>
@@ -5190,10 +5188,10 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B131" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C131">
         <v>2014</v>
@@ -5226,10 +5224,10 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B132" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C132">
         <v>2014</v>
@@ -5262,10 +5260,10 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B133" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C133">
         <v>2014</v>
@@ -5298,10 +5296,10 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B134" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C134">
         <v>2014</v>
@@ -5334,10 +5332,10 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B135" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C135">
         <v>2014</v>
@@ -5370,10 +5368,10 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B136" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C136">
         <v>2014</v>
@@ -5406,10 +5404,10 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B137" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C137">
         <v>2014</v>
@@ -5442,10 +5440,10 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C138">
         <v>2014</v>
@@ -5478,10 +5476,10 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C139">
         <v>2014</v>
@@ -5514,10 +5512,10 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C140">
         <v>2014</v>
@@ -5550,10 +5548,10 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B141" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C141">
         <v>2014</v>
@@ -5586,10 +5584,10 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B142" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C142">
         <v>2015</v>
@@ -5622,10 +5620,10 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B143" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C143">
         <v>2015</v>
@@ -5658,10 +5656,10 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B144" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C144">
         <v>2015</v>
@@ -5694,10 +5692,10 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B145" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C145">
         <v>2015</v>
@@ -5730,10 +5728,10 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B146" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C146">
         <v>2015</v>
@@ -5766,10 +5764,10 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B147" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C147">
         <v>2015</v>
@@ -5802,10 +5800,10 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B148" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C148">
         <v>2015</v>
@@ -5838,10 +5836,10 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B149" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C149">
         <v>2015</v>
@@ -5874,10 +5872,10 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C150">
         <v>2015</v>
@@ -5910,10 +5908,10 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B151" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C151">
         <v>2015</v>
@@ -5946,10 +5944,10 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C152">
         <v>2015</v>
@@ -5982,10 +5980,10 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B153" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C153">
         <v>2015</v>
@@ -6018,10 +6016,10 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B154" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C154">
         <v>2016</v>
@@ -6054,10 +6052,10 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B155" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C155">
         <v>2016</v>
@@ -6090,10 +6088,10 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B156" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C156">
         <v>2016</v>
@@ -6126,10 +6124,10 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B157" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C157">
         <v>2016</v>
@@ -6162,10 +6160,10 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B158" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C158">
         <v>2016</v>
@@ -6198,10 +6196,10 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B159" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C159">
         <v>2016</v>
@@ -6234,10 +6232,10 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B160" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C160">
         <v>2016</v>
@@ -6270,10 +6268,10 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B161" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C161">
         <v>2016</v>
@@ -6306,10 +6304,10 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B162" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C162">
         <v>2016</v>
@@ -6342,10 +6340,10 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C163">
         <v>2016</v>
@@ -6378,10 +6376,10 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C164">
         <v>2016</v>
@@ -6414,10 +6412,10 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B165" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C165">
         <v>2016</v>
@@ -6450,10 +6448,10 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B166" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C166">
         <v>2017</v>
@@ -6486,10 +6484,10 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B167" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C167">
         <v>2017</v>
@@ -6522,10 +6520,10 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C168">
         <v>2017</v>
@@ -6558,10 +6556,10 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B169" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C169">
         <v>2017</v>
@@ -6594,10 +6592,10 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B170" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C170">
         <v>2017</v>
@@ -6630,10 +6628,10 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B171" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C171">
         <v>2017</v>
@@ -6666,10 +6664,10 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B172" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C172">
         <v>2017</v>
@@ -6702,10 +6700,10 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B173" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C173">
         <v>2017</v>
@@ -6738,10 +6736,10 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B174" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C174">
         <v>2017</v>
@@ -6774,10 +6772,10 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B175" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C175">
         <v>2017</v>
@@ -6810,10 +6808,10 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B176" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C176">
         <v>2017</v>
@@ -6846,10 +6844,10 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B177" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C177">
         <v>2017</v>
@@ -6882,10 +6880,10 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B178" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C178">
         <v>2018</v>
@@ -6918,10 +6916,10 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B179" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C179">
         <v>2018</v>
@@ -6954,10 +6952,10 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B180" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C180">
         <v>2018</v>
@@ -6990,10 +6988,10 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B181" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C181">
         <v>2018</v>
@@ -7026,10 +7024,10 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B182" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C182">
         <v>2018</v>
@@ -7062,10 +7060,10 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B183" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C183">
         <v>2018</v>
@@ -7098,10 +7096,10 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B184" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C184">
         <v>2018</v>
@@ -7134,10 +7132,10 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B185" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C185">
         <v>2018</v>
@@ -7170,10 +7168,10 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B186" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C186">
         <v>2018</v>
@@ -7206,10 +7204,10 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B187" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C187">
         <v>2018</v>
@@ -7242,10 +7240,10 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B188" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C188">
         <v>2018</v>
@@ -7278,10 +7276,10 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B189" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C189">
         <v>2018</v>
@@ -7314,10 +7312,10 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B190" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C190">
         <v>2019</v>
@@ -7350,10 +7348,10 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B191" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C191">
         <v>2019</v>
@@ -7386,10 +7384,10 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B192" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C192">
         <v>2019</v>
@@ -7422,10 +7420,10 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B193" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C193">
         <v>2019</v>
@@ -7461,7 +7459,7 @@
         <v>8</v>
       </c>
       <c r="B194" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C194">
         <v>2014</v>
@@ -7497,7 +7495,7 @@
         <v>8</v>
       </c>
       <c r="B195" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C195">
         <v>2014</v>
@@ -7533,7 +7531,7 @@
         <v>8</v>
       </c>
       <c r="B196" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C196">
         <v>2014</v>
@@ -7569,7 +7567,7 @@
         <v>8</v>
       </c>
       <c r="B197" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C197">
         <v>2014</v>
@@ -7605,7 +7603,7 @@
         <v>8</v>
       </c>
       <c r="B198" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C198">
         <v>2014</v>
@@ -7641,7 +7639,7 @@
         <v>8</v>
       </c>
       <c r="B199" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C199">
         <v>2014</v>
@@ -7677,7 +7675,7 @@
         <v>8</v>
       </c>
       <c r="B200" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C200">
         <v>2014</v>
@@ -7713,7 +7711,7 @@
         <v>8</v>
       </c>
       <c r="B201" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C201">
         <v>2014</v>
@@ -7749,7 +7747,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C202">
         <v>2014</v>
@@ -7785,7 +7783,7 @@
         <v>8</v>
       </c>
       <c r="B203" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C203">
         <v>2014</v>
@@ -7821,7 +7819,7 @@
         <v>8</v>
       </c>
       <c r="B204" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C204">
         <v>2014</v>
@@ -7857,7 +7855,7 @@
         <v>8</v>
       </c>
       <c r="B205" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C205">
         <v>2014</v>
@@ -7893,7 +7891,7 @@
         <v>8</v>
       </c>
       <c r="B206" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C206">
         <v>2015</v>
@@ -7929,7 +7927,7 @@
         <v>8</v>
       </c>
       <c r="B207" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C207">
         <v>2015</v>
@@ -7965,7 +7963,7 @@
         <v>8</v>
       </c>
       <c r="B208" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C208">
         <v>2015</v>
@@ -8001,7 +7999,7 @@
         <v>8</v>
       </c>
       <c r="B209" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C209">
         <v>2015</v>
@@ -8037,7 +8035,7 @@
         <v>8</v>
       </c>
       <c r="B210" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C210">
         <v>2015</v>
@@ -8073,7 +8071,7 @@
         <v>8</v>
       </c>
       <c r="B211" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C211">
         <v>2015</v>
@@ -8109,7 +8107,7 @@
         <v>8</v>
       </c>
       <c r="B212" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C212">
         <v>2015</v>
@@ -8145,7 +8143,7 @@
         <v>8</v>
       </c>
       <c r="B213" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C213">
         <v>2015</v>
@@ -8181,7 +8179,7 @@
         <v>8</v>
       </c>
       <c r="B214" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C214">
         <v>2015</v>
@@ -8217,7 +8215,7 @@
         <v>8</v>
       </c>
       <c r="B215" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C215">
         <v>2015</v>
@@ -8253,7 +8251,7 @@
         <v>8</v>
       </c>
       <c r="B216" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C216">
         <v>2015</v>
@@ -8289,7 +8287,7 @@
         <v>8</v>
       </c>
       <c r="B217" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C217">
         <v>2015</v>
@@ -8325,7 +8323,7 @@
         <v>8</v>
       </c>
       <c r="B218" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C218">
         <v>2016</v>
@@ -8361,7 +8359,7 @@
         <v>8</v>
       </c>
       <c r="B219" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C219">
         <v>2016</v>
@@ -8397,7 +8395,7 @@
         <v>8</v>
       </c>
       <c r="B220" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C220">
         <v>2016</v>
@@ -8433,7 +8431,7 @@
         <v>8</v>
       </c>
       <c r="B221" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C221">
         <v>2016</v>
@@ -8469,7 +8467,7 @@
         <v>8</v>
       </c>
       <c r="B222" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C222">
         <v>2016</v>
@@ -8505,7 +8503,7 @@
         <v>8</v>
       </c>
       <c r="B223" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C223">
         <v>2016</v>
@@ -8541,7 +8539,7 @@
         <v>8</v>
       </c>
       <c r="B224" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C224">
         <v>2016</v>
@@ -8577,7 +8575,7 @@
         <v>8</v>
       </c>
       <c r="B225" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C225">
         <v>2016</v>
@@ -8613,7 +8611,7 @@
         <v>8</v>
       </c>
       <c r="B226" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C226">
         <v>2016</v>
@@ -8649,7 +8647,7 @@
         <v>8</v>
       </c>
       <c r="B227" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C227">
         <v>2016</v>
@@ -8685,7 +8683,7 @@
         <v>8</v>
       </c>
       <c r="B228" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C228">
         <v>2016</v>
@@ -8721,7 +8719,7 @@
         <v>8</v>
       </c>
       <c r="B229" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C229">
         <v>2016</v>
@@ -8757,7 +8755,7 @@
         <v>8</v>
       </c>
       <c r="B230" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C230">
         <v>2017</v>
@@ -8793,7 +8791,7 @@
         <v>8</v>
       </c>
       <c r="B231" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C231">
         <v>2017</v>
@@ -8829,7 +8827,7 @@
         <v>8</v>
       </c>
       <c r="B232" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C232">
         <v>2017</v>
@@ -8865,7 +8863,7 @@
         <v>8</v>
       </c>
       <c r="B233" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C233">
         <v>2017</v>
@@ -8901,7 +8899,7 @@
         <v>8</v>
       </c>
       <c r="B234" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C234">
         <v>2017</v>
@@ -8937,7 +8935,7 @@
         <v>8</v>
       </c>
       <c r="B235" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C235">
         <v>2017</v>
@@ -8973,7 +8971,7 @@
         <v>8</v>
       </c>
       <c r="B236" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C236">
         <v>2017</v>
@@ -9009,7 +9007,7 @@
         <v>8</v>
       </c>
       <c r="B237" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C237">
         <v>2017</v>
@@ -9045,7 +9043,7 @@
         <v>8</v>
       </c>
       <c r="B238" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C238">
         <v>2017</v>
@@ -9081,7 +9079,7 @@
         <v>8</v>
       </c>
       <c r="B239" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C239">
         <v>2017</v>
@@ -9117,7 +9115,7 @@
         <v>8</v>
       </c>
       <c r="B240" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C240">
         <v>2017</v>
@@ -9153,7 +9151,7 @@
         <v>8</v>
       </c>
       <c r="B241" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C241">
         <v>2017</v>
@@ -9189,7 +9187,7 @@
         <v>8</v>
       </c>
       <c r="B242" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C242">
         <v>2018</v>
@@ -9225,7 +9223,7 @@
         <v>8</v>
       </c>
       <c r="B243" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C243">
         <v>2018</v>
@@ -9261,7 +9259,7 @@
         <v>8</v>
       </c>
       <c r="B244" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C244">
         <v>2018</v>
@@ -9297,7 +9295,7 @@
         <v>8</v>
       </c>
       <c r="B245" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C245">
         <v>2018</v>
@@ -9333,7 +9331,7 @@
         <v>8</v>
       </c>
       <c r="B246" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C246">
         <v>2018</v>
@@ -9369,7 +9367,7 @@
         <v>8</v>
       </c>
       <c r="B247" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C247">
         <v>2018</v>
@@ -9405,7 +9403,7 @@
         <v>8</v>
       </c>
       <c r="B248" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C248">
         <v>2018</v>
@@ -9441,7 +9439,7 @@
         <v>8</v>
       </c>
       <c r="B249" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C249">
         <v>2018</v>
@@ -9477,7 +9475,7 @@
         <v>8</v>
       </c>
       <c r="B250" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C250">
         <v>2018</v>
@@ -9513,7 +9511,7 @@
         <v>8</v>
       </c>
       <c r="B251" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C251">
         <v>2018</v>
@@ -9549,7 +9547,7 @@
         <v>8</v>
       </c>
       <c r="B252" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C252">
         <v>2018</v>
@@ -9585,7 +9583,7 @@
         <v>8</v>
       </c>
       <c r="B253" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C253">
         <v>2018</v>
@@ -9621,7 +9619,7 @@
         <v>8</v>
       </c>
       <c r="B254" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C254">
         <v>2019</v>
@@ -9657,7 +9655,7 @@
         <v>8</v>
       </c>
       <c r="B255" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C255">
         <v>2019</v>
@@ -9693,7 +9691,7 @@
         <v>8</v>
       </c>
       <c r="B256" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C256">
         <v>2019</v>
@@ -9729,7 +9727,7 @@
         <v>8</v>
       </c>
       <c r="B257" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C257">
         <v>2019</v>
@@ -9765,7 +9763,7 @@
         <v>9</v>
       </c>
       <c r="B258" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C258">
         <v>2014</v>
@@ -9801,7 +9799,7 @@
         <v>9</v>
       </c>
       <c r="B259" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C259">
         <v>2014</v>
@@ -9837,7 +9835,7 @@
         <v>9</v>
       </c>
       <c r="B260" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C260">
         <v>2014</v>
@@ -9873,7 +9871,7 @@
         <v>9</v>
       </c>
       <c r="B261" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C261">
         <v>2014</v>
@@ -9909,7 +9907,7 @@
         <v>9</v>
       </c>
       <c r="B262" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C262">
         <v>2014</v>
@@ -9945,7 +9943,7 @@
         <v>9</v>
       </c>
       <c r="B263" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C263">
         <v>2014</v>
@@ -9981,7 +9979,7 @@
         <v>9</v>
       </c>
       <c r="B264" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C264">
         <v>2014</v>
@@ -10017,7 +10015,7 @@
         <v>9</v>
       </c>
       <c r="B265" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C265">
         <v>2014</v>
@@ -10053,7 +10051,7 @@
         <v>9</v>
       </c>
       <c r="B266" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C266">
         <v>2014</v>
@@ -10089,7 +10087,7 @@
         <v>9</v>
       </c>
       <c r="B267" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C267">
         <v>2014</v>
@@ -10125,7 +10123,7 @@
         <v>9</v>
       </c>
       <c r="B268" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C268">
         <v>2014</v>
@@ -10161,7 +10159,7 @@
         <v>9</v>
       </c>
       <c r="B269" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C269">
         <v>2014</v>
@@ -10197,7 +10195,7 @@
         <v>9</v>
       </c>
       <c r="B270" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C270">
         <v>2015</v>
@@ -10233,7 +10231,7 @@
         <v>9</v>
       </c>
       <c r="B271" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C271">
         <v>2015</v>
@@ -10269,7 +10267,7 @@
         <v>9</v>
       </c>
       <c r="B272" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C272">
         <v>2015</v>
@@ -10305,7 +10303,7 @@
         <v>9</v>
       </c>
       <c r="B273" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C273">
         <v>2015</v>
@@ -10341,7 +10339,7 @@
         <v>9</v>
       </c>
       <c r="B274" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C274">
         <v>2015</v>
@@ -10377,7 +10375,7 @@
         <v>9</v>
       </c>
       <c r="B275" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C275">
         <v>2015</v>
@@ -10413,7 +10411,7 @@
         <v>9</v>
       </c>
       <c r="B276" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C276">
         <v>2015</v>
@@ -10449,7 +10447,7 @@
         <v>9</v>
       </c>
       <c r="B277" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C277">
         <v>2015</v>
@@ -10485,7 +10483,7 @@
         <v>9</v>
       </c>
       <c r="B278" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C278">
         <v>2015</v>
@@ -10521,7 +10519,7 @@
         <v>9</v>
       </c>
       <c r="B279" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C279">
         <v>2015</v>
@@ -10557,7 +10555,7 @@
         <v>9</v>
       </c>
       <c r="B280" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C280">
         <v>2015</v>
@@ -10593,7 +10591,7 @@
         <v>9</v>
       </c>
       <c r="B281" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C281">
         <v>2015</v>
@@ -10629,7 +10627,7 @@
         <v>9</v>
       </c>
       <c r="B282" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C282">
         <v>2016</v>
@@ -10665,7 +10663,7 @@
         <v>9</v>
       </c>
       <c r="B283" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C283">
         <v>2016</v>
@@ -10701,7 +10699,7 @@
         <v>9</v>
       </c>
       <c r="B284" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C284">
         <v>2016</v>
@@ -10737,7 +10735,7 @@
         <v>9</v>
       </c>
       <c r="B285" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C285">
         <v>2016</v>
@@ -10773,7 +10771,7 @@
         <v>9</v>
       </c>
       <c r="B286" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C286">
         <v>2016</v>
@@ -10809,7 +10807,7 @@
         <v>9</v>
       </c>
       <c r="B287" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C287">
         <v>2016</v>
@@ -10845,7 +10843,7 @@
         <v>9</v>
       </c>
       <c r="B288" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C288">
         <v>2016</v>
@@ -10881,7 +10879,7 @@
         <v>9</v>
       </c>
       <c r="B289" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C289">
         <v>2016</v>
@@ -10917,7 +10915,7 @@
         <v>9</v>
       </c>
       <c r="B290" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C290">
         <v>2016</v>
@@ -10953,7 +10951,7 @@
         <v>9</v>
       </c>
       <c r="B291" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C291">
         <v>2016</v>
@@ -10989,7 +10987,7 @@
         <v>9</v>
       </c>
       <c r="B292" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C292">
         <v>2016</v>
@@ -11025,7 +11023,7 @@
         <v>9</v>
       </c>
       <c r="B293" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C293">
         <v>2016</v>
@@ -11061,7 +11059,7 @@
         <v>9</v>
       </c>
       <c r="B294" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C294">
         <v>2017</v>
@@ -11097,7 +11095,7 @@
         <v>9</v>
       </c>
       <c r="B295" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C295">
         <v>2017</v>
@@ -11133,7 +11131,7 @@
         <v>9</v>
       </c>
       <c r="B296" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C296">
         <v>2017</v>
@@ -11169,7 +11167,7 @@
         <v>9</v>
       </c>
       <c r="B297" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C297">
         <v>2017</v>
@@ -11205,7 +11203,7 @@
         <v>9</v>
       </c>
       <c r="B298" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C298">
         <v>2017</v>
@@ -11241,7 +11239,7 @@
         <v>9</v>
       </c>
       <c r="B299" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C299">
         <v>2017</v>
@@ -11277,7 +11275,7 @@
         <v>9</v>
       </c>
       <c r="B300" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C300">
         <v>2017</v>
@@ -11313,7 +11311,7 @@
         <v>9</v>
       </c>
       <c r="B301" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C301">
         <v>2017</v>
@@ -11349,7 +11347,7 @@
         <v>9</v>
       </c>
       <c r="B302" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C302">
         <v>2017</v>
@@ -11385,7 +11383,7 @@
         <v>9</v>
       </c>
       <c r="B303" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C303">
         <v>2017</v>
@@ -11421,7 +11419,7 @@
         <v>9</v>
       </c>
       <c r="B304" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C304">
         <v>2017</v>
@@ -11457,7 +11455,7 @@
         <v>9</v>
       </c>
       <c r="B305" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C305">
         <v>2017</v>
@@ -11493,7 +11491,7 @@
         <v>9</v>
       </c>
       <c r="B306" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C306">
         <v>2018</v>
@@ -11529,7 +11527,7 @@
         <v>9</v>
       </c>
       <c r="B307" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C307">
         <v>2018</v>
@@ -11565,7 +11563,7 @@
         <v>9</v>
       </c>
       <c r="B308" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C308">
         <v>2018</v>
@@ -11601,7 +11599,7 @@
         <v>9</v>
       </c>
       <c r="B309" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C309">
         <v>2018</v>
@@ -11637,7 +11635,7 @@
         <v>9</v>
       </c>
       <c r="B310" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C310">
         <v>2018</v>
@@ -11673,7 +11671,7 @@
         <v>9</v>
       </c>
       <c r="B311" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C311">
         <v>2018</v>
@@ -11709,7 +11707,7 @@
         <v>9</v>
       </c>
       <c r="B312" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C312">
         <v>2018</v>
@@ -11745,7 +11743,7 @@
         <v>9</v>
       </c>
       <c r="B313" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C313">
         <v>2018</v>
@@ -11781,7 +11779,7 @@
         <v>9</v>
       </c>
       <c r="B314" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C314">
         <v>2018</v>
@@ -11817,7 +11815,7 @@
         <v>9</v>
       </c>
       <c r="B315" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C315">
         <v>2018</v>
@@ -11853,7 +11851,7 @@
         <v>9</v>
       </c>
       <c r="B316" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C316">
         <v>2018</v>
@@ -11889,7 +11887,7 @@
         <v>9</v>
       </c>
       <c r="B317" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C317">
         <v>2018</v>
@@ -11925,7 +11923,7 @@
         <v>9</v>
       </c>
       <c r="B318" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C318">
         <v>2019</v>
@@ -11961,7 +11959,7 @@
         <v>9</v>
       </c>
       <c r="B319" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C319">
         <v>2019</v>
@@ -11997,7 +11995,7 @@
         <v>9</v>
       </c>
       <c r="B320" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C320">
         <v>2019</v>
@@ -12033,7 +12031,7 @@
         <v>9</v>
       </c>
       <c r="B321" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C321">
         <v>2019</v>
@@ -12069,7 +12067,7 @@
         <v>10</v>
       </c>
       <c r="B322" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C322">
         <v>2014</v>
@@ -12105,7 +12103,7 @@
         <v>10</v>
       </c>
       <c r="B323" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C323">
         <v>2014</v>
@@ -12141,7 +12139,7 @@
         <v>10</v>
       </c>
       <c r="B324" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C324">
         <v>2014</v>
@@ -12177,7 +12175,7 @@
         <v>10</v>
       </c>
       <c r="B325" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C325">
         <v>2014</v>
@@ -12213,7 +12211,7 @@
         <v>10</v>
       </c>
       <c r="B326" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C326">
         <v>2014</v>
@@ -12249,7 +12247,7 @@
         <v>10</v>
       </c>
       <c r="B327" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C327">
         <v>2014</v>
@@ -12285,7 +12283,7 @@
         <v>10</v>
       </c>
       <c r="B328" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C328">
         <v>2014</v>
@@ -12321,7 +12319,7 @@
         <v>10</v>
       </c>
       <c r="B329" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C329">
         <v>2014</v>
@@ -12357,7 +12355,7 @@
         <v>10</v>
       </c>
       <c r="B330" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C330">
         <v>2014</v>
@@ -12393,7 +12391,7 @@
         <v>10</v>
       </c>
       <c r="B331" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C331">
         <v>2014</v>
@@ -12429,7 +12427,7 @@
         <v>10</v>
       </c>
       <c r="B332" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C332">
         <v>2014</v>
@@ -12465,7 +12463,7 @@
         <v>10</v>
       </c>
       <c r="B333" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C333">
         <v>2014</v>
@@ -12501,7 +12499,7 @@
         <v>10</v>
       </c>
       <c r="B334" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C334">
         <v>2015</v>
@@ -12537,7 +12535,7 @@
         <v>10</v>
       </c>
       <c r="B335" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C335">
         <v>2015</v>
@@ -12573,7 +12571,7 @@
         <v>10</v>
       </c>
       <c r="B336" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C336">
         <v>2015</v>
@@ -12609,7 +12607,7 @@
         <v>10</v>
       </c>
       <c r="B337" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C337">
         <v>2015</v>
@@ -12645,7 +12643,7 @@
         <v>10</v>
       </c>
       <c r="B338" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C338">
         <v>2015</v>
@@ -12681,7 +12679,7 @@
         <v>10</v>
       </c>
       <c r="B339" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C339">
         <v>2015</v>
@@ -12717,7 +12715,7 @@
         <v>10</v>
       </c>
       <c r="B340" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C340">
         <v>2015</v>
@@ -12753,7 +12751,7 @@
         <v>10</v>
       </c>
       <c r="B341" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C341">
         <v>2015</v>
@@ -12789,7 +12787,7 @@
         <v>10</v>
       </c>
       <c r="B342" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C342">
         <v>2015</v>
@@ -12825,7 +12823,7 @@
         <v>10</v>
       </c>
       <c r="B343" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C343">
         <v>2015</v>
@@ -12861,7 +12859,7 @@
         <v>10</v>
       </c>
       <c r="B344" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C344">
         <v>2015</v>
@@ -12897,7 +12895,7 @@
         <v>10</v>
       </c>
       <c r="B345" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C345">
         <v>2015</v>
@@ -12933,7 +12931,7 @@
         <v>10</v>
       </c>
       <c r="B346" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C346">
         <v>2016</v>
@@ -12969,7 +12967,7 @@
         <v>10</v>
       </c>
       <c r="B347" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C347">
         <v>2016</v>
@@ -13005,7 +13003,7 @@
         <v>10</v>
       </c>
       <c r="B348" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C348">
         <v>2016</v>
@@ -13041,7 +13039,7 @@
         <v>10</v>
       </c>
       <c r="B349" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C349">
         <v>2016</v>
@@ -13077,7 +13075,7 @@
         <v>10</v>
       </c>
       <c r="B350" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C350">
         <v>2016</v>
@@ -13113,7 +13111,7 @@
         <v>10</v>
       </c>
       <c r="B351" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C351">
         <v>2016</v>
@@ -13149,7 +13147,7 @@
         <v>10</v>
       </c>
       <c r="B352" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C352">
         <v>2016</v>
@@ -13185,7 +13183,7 @@
         <v>10</v>
       </c>
       <c r="B353" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C353">
         <v>2016</v>
@@ -13221,7 +13219,7 @@
         <v>10</v>
       </c>
       <c r="B354" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C354">
         <v>2016</v>
@@ -13257,7 +13255,7 @@
         <v>10</v>
       </c>
       <c r="B355" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C355">
         <v>2016</v>
@@ -13293,7 +13291,7 @@
         <v>10</v>
       </c>
       <c r="B356" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C356">
         <v>2016</v>
@@ -13329,7 +13327,7 @@
         <v>10</v>
       </c>
       <c r="B357" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C357">
         <v>2016</v>
@@ -13365,7 +13363,7 @@
         <v>10</v>
       </c>
       <c r="B358" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C358">
         <v>2017</v>
@@ -13401,7 +13399,7 @@
         <v>10</v>
       </c>
       <c r="B359" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C359">
         <v>2017</v>
@@ -13437,7 +13435,7 @@
         <v>10</v>
       </c>
       <c r="B360" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C360">
         <v>2017</v>
@@ -13473,7 +13471,7 @@
         <v>10</v>
       </c>
       <c r="B361" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C361">
         <v>2017</v>
@@ -13509,7 +13507,7 @@
         <v>10</v>
       </c>
       <c r="B362" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C362">
         <v>2017</v>
@@ -13545,7 +13543,7 @@
         <v>10</v>
       </c>
       <c r="B363" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C363">
         <v>2017</v>
@@ -13581,7 +13579,7 @@
         <v>10</v>
       </c>
       <c r="B364" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C364">
         <v>2017</v>
@@ -13617,7 +13615,7 @@
         <v>10</v>
       </c>
       <c r="B365" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C365">
         <v>2017</v>
@@ -13653,7 +13651,7 @@
         <v>10</v>
       </c>
       <c r="B366" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C366">
         <v>2017</v>
@@ -13689,7 +13687,7 @@
         <v>10</v>
       </c>
       <c r="B367" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C367">
         <v>2017</v>
@@ -13725,7 +13723,7 @@
         <v>10</v>
       </c>
       <c r="B368" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C368">
         <v>2017</v>
@@ -13761,7 +13759,7 @@
         <v>10</v>
       </c>
       <c r="B369" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C369">
         <v>2017</v>
@@ -13797,7 +13795,7 @@
         <v>10</v>
       </c>
       <c r="B370" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C370">
         <v>2018</v>
@@ -13833,7 +13831,7 @@
         <v>10</v>
       </c>
       <c r="B371" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C371">
         <v>2018</v>
@@ -13869,7 +13867,7 @@
         <v>10</v>
       </c>
       <c r="B372" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C372">
         <v>2018</v>
@@ -13905,7 +13903,7 @@
         <v>10</v>
       </c>
       <c r="B373" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C373">
         <v>2018</v>
@@ -13941,7 +13939,7 @@
         <v>10</v>
       </c>
       <c r="B374" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C374">
         <v>2018</v>
@@ -13977,7 +13975,7 @@
         <v>10</v>
       </c>
       <c r="B375" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C375">
         <v>2018</v>
@@ -14013,7 +14011,7 @@
         <v>10</v>
       </c>
       <c r="B376" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C376">
         <v>2018</v>
@@ -14049,7 +14047,7 @@
         <v>10</v>
       </c>
       <c r="B377" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C377">
         <v>2018</v>
@@ -14085,7 +14083,7 @@
         <v>10</v>
       </c>
       <c r="B378" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C378">
         <v>2018</v>
@@ -14121,7 +14119,7 @@
         <v>10</v>
       </c>
       <c r="B379" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C379">
         <v>2018</v>
@@ -14157,7 +14155,7 @@
         <v>10</v>
       </c>
       <c r="B380" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C380">
         <v>2018</v>
@@ -14193,7 +14191,7 @@
         <v>10</v>
       </c>
       <c r="B381" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C381">
         <v>2018</v>
@@ -14229,7 +14227,7 @@
         <v>10</v>
       </c>
       <c r="B382" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C382">
         <v>2019</v>
@@ -14265,7 +14263,7 @@
         <v>10</v>
       </c>
       <c r="B383" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C383">
         <v>2019</v>
@@ -14301,7 +14299,7 @@
         <v>10</v>
       </c>
       <c r="B384" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C384">
         <v>2019</v>
@@ -14337,7 +14335,7 @@
         <v>10</v>
       </c>
       <c r="B385" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C385">
         <v>2019</v>
@@ -14373,7 +14371,7 @@
         <v>11</v>
       </c>
       <c r="B386" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C386">
         <v>2014</v>
@@ -14409,7 +14407,7 @@
         <v>11</v>
       </c>
       <c r="B387" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C387">
         <v>2014</v>
@@ -14445,7 +14443,7 @@
         <v>11</v>
       </c>
       <c r="B388" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C388">
         <v>2014</v>
@@ -14481,7 +14479,7 @@
         <v>11</v>
       </c>
       <c r="B389" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C389">
         <v>2014</v>
@@ -14517,7 +14515,7 @@
         <v>11</v>
       </c>
       <c r="B390" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C390">
         <v>2014</v>
@@ -14553,7 +14551,7 @@
         <v>11</v>
       </c>
       <c r="B391" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C391">
         <v>2014</v>
@@ -14589,7 +14587,7 @@
         <v>11</v>
       </c>
       <c r="B392" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C392">
         <v>2014</v>
@@ -14625,7 +14623,7 @@
         <v>11</v>
       </c>
       <c r="B393" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C393">
         <v>2014</v>
@@ -14661,7 +14659,7 @@
         <v>11</v>
       </c>
       <c r="B394" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C394">
         <v>2014</v>
@@ -14697,7 +14695,7 @@
         <v>11</v>
       </c>
       <c r="B395" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C395">
         <v>2014</v>
@@ -14733,7 +14731,7 @@
         <v>11</v>
       </c>
       <c r="B396" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C396">
         <v>2014</v>
@@ -14769,7 +14767,7 @@
         <v>11</v>
       </c>
       <c r="B397" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C397">
         <v>2014</v>
@@ -14805,7 +14803,7 @@
         <v>11</v>
       </c>
       <c r="B398" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C398">
         <v>2015</v>
@@ -14841,7 +14839,7 @@
         <v>11</v>
       </c>
       <c r="B399" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C399">
         <v>2015</v>
@@ -14877,7 +14875,7 @@
         <v>11</v>
       </c>
       <c r="B400" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C400">
         <v>2015</v>
@@ -14913,7 +14911,7 @@
         <v>11</v>
       </c>
       <c r="B401" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C401">
         <v>2015</v>
@@ -14949,7 +14947,7 @@
         <v>11</v>
       </c>
       <c r="B402" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C402">
         <v>2015</v>
@@ -14985,7 +14983,7 @@
         <v>11</v>
       </c>
       <c r="B403" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C403">
         <v>2015</v>
@@ -15021,7 +15019,7 @@
         <v>11</v>
       </c>
       <c r="B404" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C404">
         <v>2015</v>
@@ -15057,7 +15055,7 @@
         <v>11</v>
       </c>
       <c r="B405" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C405">
         <v>2015</v>
@@ -15093,7 +15091,7 @@
         <v>11</v>
       </c>
       <c r="B406" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C406">
         <v>2015</v>
@@ -15129,7 +15127,7 @@
         <v>11</v>
       </c>
       <c r="B407" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C407">
         <v>2015</v>
@@ -15165,7 +15163,7 @@
         <v>11</v>
       </c>
       <c r="B408" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C408">
         <v>2015</v>
@@ -15201,7 +15199,7 @@
         <v>11</v>
       </c>
       <c r="B409" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C409">
         <v>2015</v>
@@ -15237,7 +15235,7 @@
         <v>11</v>
       </c>
       <c r="B410" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C410">
         <v>2016</v>
@@ -15273,7 +15271,7 @@
         <v>11</v>
       </c>
       <c r="B411" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C411">
         <v>2016</v>
@@ -15309,7 +15307,7 @@
         <v>11</v>
       </c>
       <c r="B412" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C412">
         <v>2016</v>
@@ -15345,7 +15343,7 @@
         <v>11</v>
       </c>
       <c r="B413" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C413">
         <v>2016</v>
@@ -15381,7 +15379,7 @@
         <v>11</v>
       </c>
       <c r="B414" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C414">
         <v>2016</v>
@@ -15417,7 +15415,7 @@
         <v>11</v>
       </c>
       <c r="B415" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C415">
         <v>2016</v>
@@ -15453,7 +15451,7 @@
         <v>11</v>
       </c>
       <c r="B416" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C416">
         <v>2016</v>
@@ -15489,7 +15487,7 @@
         <v>11</v>
       </c>
       <c r="B417" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C417">
         <v>2016</v>
@@ -15525,7 +15523,7 @@
         <v>11</v>
       </c>
       <c r="B418" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C418">
         <v>2016</v>
@@ -15561,7 +15559,7 @@
         <v>11</v>
       </c>
       <c r="B419" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C419">
         <v>2016</v>
@@ -15597,7 +15595,7 @@
         <v>11</v>
       </c>
       <c r="B420" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C420">
         <v>2016</v>
@@ -15633,7 +15631,7 @@
         <v>11</v>
       </c>
       <c r="B421" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C421">
         <v>2016</v>
@@ -15669,7 +15667,7 @@
         <v>11</v>
       </c>
       <c r="B422" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C422">
         <v>2017</v>
@@ -15705,7 +15703,7 @@
         <v>11</v>
       </c>
       <c r="B423" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C423">
         <v>2017</v>
@@ -15741,7 +15739,7 @@
         <v>11</v>
       </c>
       <c r="B424" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C424">
         <v>2017</v>
@@ -15777,7 +15775,7 @@
         <v>11</v>
       </c>
       <c r="B425" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C425">
         <v>2017</v>
@@ -15813,7 +15811,7 @@
         <v>11</v>
       </c>
       <c r="B426" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C426">
         <v>2017</v>
@@ -15849,7 +15847,7 @@
         <v>11</v>
       </c>
       <c r="B427" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C427">
         <v>2017</v>
@@ -15885,7 +15883,7 @@
         <v>11</v>
       </c>
       <c r="B428" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C428">
         <v>2017</v>
@@ -15921,7 +15919,7 @@
         <v>11</v>
       </c>
       <c r="B429" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C429">
         <v>2017</v>
@@ -15957,7 +15955,7 @@
         <v>11</v>
       </c>
       <c r="B430" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C430">
         <v>2017</v>
@@ -15993,7 +15991,7 @@
         <v>11</v>
       </c>
       <c r="B431" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C431">
         <v>2017</v>
@@ -16029,7 +16027,7 @@
         <v>11</v>
       </c>
       <c r="B432" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C432">
         <v>2017</v>
@@ -16065,7 +16063,7 @@
         <v>11</v>
       </c>
       <c r="B433" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C433">
         <v>2017</v>
@@ -16101,7 +16099,7 @@
         <v>11</v>
       </c>
       <c r="B434" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C434">
         <v>2018</v>
@@ -16137,7 +16135,7 @@
         <v>11</v>
       </c>
       <c r="B435" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C435">
         <v>2018</v>
@@ -16173,7 +16171,7 @@
         <v>11</v>
       </c>
       <c r="B436" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C436">
         <v>2018</v>
@@ -16209,7 +16207,7 @@
         <v>11</v>
       </c>
       <c r="B437" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C437">
         <v>2018</v>
@@ -16245,7 +16243,7 @@
         <v>11</v>
       </c>
       <c r="B438" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C438">
         <v>2018</v>
@@ -16281,7 +16279,7 @@
         <v>11</v>
       </c>
       <c r="B439" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C439">
         <v>2018</v>
@@ -16317,7 +16315,7 @@
         <v>11</v>
       </c>
       <c r="B440" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C440">
         <v>2018</v>
@@ -16353,7 +16351,7 @@
         <v>11</v>
       </c>
       <c r="B441" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C441">
         <v>2018</v>
@@ -16389,7 +16387,7 @@
         <v>11</v>
       </c>
       <c r="B442" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C442">
         <v>2018</v>
@@ -16425,7 +16423,7 @@
         <v>11</v>
       </c>
       <c r="B443" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C443">
         <v>2018</v>
@@ -16461,7 +16459,7 @@
         <v>11</v>
       </c>
       <c r="B444" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C444">
         <v>2018</v>
@@ -16497,7 +16495,7 @@
         <v>11</v>
       </c>
       <c r="B445" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C445">
         <v>2018</v>
@@ -16533,7 +16531,7 @@
         <v>11</v>
       </c>
       <c r="B446" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C446">
         <v>2019</v>
@@ -16569,7 +16567,7 @@
         <v>11</v>
       </c>
       <c r="B447" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C447">
         <v>2019</v>
@@ -16605,7 +16603,7 @@
         <v>11</v>
       </c>
       <c r="B448" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C448">
         <v>2019</v>
@@ -16641,7 +16639,7 @@
         <v>11</v>
       </c>
       <c r="B449" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C449">
         <v>2019</v>
@@ -16677,7 +16675,7 @@
         <v>12</v>
       </c>
       <c r="B450" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C450">
         <v>2014</v>
@@ -16713,7 +16711,7 @@
         <v>12</v>
       </c>
       <c r="B451" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C451">
         <v>2014</v>
@@ -16749,7 +16747,7 @@
         <v>12</v>
       </c>
       <c r="B452" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C452">
         <v>2014</v>
@@ -16785,7 +16783,7 @@
         <v>12</v>
       </c>
       <c r="B453" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C453">
         <v>2014</v>
@@ -16821,7 +16819,7 @@
         <v>12</v>
       </c>
       <c r="B454" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C454">
         <v>2014</v>
@@ -16857,7 +16855,7 @@
         <v>12</v>
       </c>
       <c r="B455" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C455">
         <v>2014</v>
@@ -16893,7 +16891,7 @@
         <v>12</v>
       </c>
       <c r="B456" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C456">
         <v>2014</v>
@@ -16929,7 +16927,7 @@
         <v>12</v>
       </c>
       <c r="B457" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C457">
         <v>2014</v>
@@ -16965,7 +16963,7 @@
         <v>12</v>
       </c>
       <c r="B458" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C458">
         <v>2014</v>
@@ -17001,7 +16999,7 @@
         <v>12</v>
       </c>
       <c r="B459" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C459">
         <v>2014</v>
@@ -17037,7 +17035,7 @@
         <v>12</v>
       </c>
       <c r="B460" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C460">
         <v>2014</v>
@@ -17073,7 +17071,7 @@
         <v>12</v>
       </c>
       <c r="B461" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C461">
         <v>2014</v>
@@ -17109,7 +17107,7 @@
         <v>12</v>
       </c>
       <c r="B462" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C462">
         <v>2015</v>
@@ -17145,7 +17143,7 @@
         <v>12</v>
       </c>
       <c r="B463" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C463">
         <v>2015</v>
@@ -17181,7 +17179,7 @@
         <v>12</v>
       </c>
       <c r="B464" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C464">
         <v>2015</v>
@@ -17217,7 +17215,7 @@
         <v>12</v>
       </c>
       <c r="B465" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C465">
         <v>2015</v>
@@ -17253,7 +17251,7 @@
         <v>12</v>
       </c>
       <c r="B466" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C466">
         <v>2015</v>
@@ -17289,7 +17287,7 @@
         <v>12</v>
       </c>
       <c r="B467" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C467">
         <v>2015</v>
@@ -17325,7 +17323,7 @@
         <v>12</v>
       </c>
       <c r="B468" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C468">
         <v>2015</v>
@@ -17361,7 +17359,7 @@
         <v>12</v>
       </c>
       <c r="B469" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C469">
         <v>2015</v>
@@ -17397,7 +17395,7 @@
         <v>12</v>
       </c>
       <c r="B470" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C470">
         <v>2015</v>
@@ -17433,7 +17431,7 @@
         <v>12</v>
       </c>
       <c r="B471" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C471">
         <v>2015</v>
@@ -17469,7 +17467,7 @@
         <v>12</v>
       </c>
       <c r="B472" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C472">
         <v>2015</v>
@@ -17505,7 +17503,7 @@
         <v>12</v>
       </c>
       <c r="B473" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C473">
         <v>2015</v>
@@ -17541,7 +17539,7 @@
         <v>12</v>
       </c>
       <c r="B474" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C474">
         <v>2016</v>
@@ -17577,7 +17575,7 @@
         <v>12</v>
       </c>
       <c r="B475" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C475">
         <v>2016</v>
@@ -17613,7 +17611,7 @@
         <v>12</v>
       </c>
       <c r="B476" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C476">
         <v>2016</v>
@@ -17649,7 +17647,7 @@
         <v>12</v>
       </c>
       <c r="B477" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C477">
         <v>2016</v>
@@ -17685,7 +17683,7 @@
         <v>12</v>
       </c>
       <c r="B478" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C478">
         <v>2016</v>
@@ -17721,7 +17719,7 @@
         <v>12</v>
       </c>
       <c r="B479" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C479">
         <v>2016</v>
@@ -17757,7 +17755,7 @@
         <v>12</v>
       </c>
       <c r="B480" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C480">
         <v>2016</v>
@@ -17793,7 +17791,7 @@
         <v>12</v>
       </c>
       <c r="B481" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C481">
         <v>2016</v>
@@ -17829,7 +17827,7 @@
         <v>12</v>
       </c>
       <c r="B482" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C482">
         <v>2016</v>
@@ -17865,7 +17863,7 @@
         <v>12</v>
       </c>
       <c r="B483" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C483">
         <v>2016</v>
@@ -17901,7 +17899,7 @@
         <v>12</v>
       </c>
       <c r="B484" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C484">
         <v>2016</v>
@@ -17937,7 +17935,7 @@
         <v>12</v>
       </c>
       <c r="B485" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C485">
         <v>2016</v>
@@ -17973,7 +17971,7 @@
         <v>12</v>
       </c>
       <c r="B486" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C486">
         <v>2017</v>
@@ -18009,7 +18007,7 @@
         <v>12</v>
       </c>
       <c r="B487" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C487">
         <v>2017</v>
@@ -18045,7 +18043,7 @@
         <v>12</v>
       </c>
       <c r="B488" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C488">
         <v>2017</v>
@@ -18081,7 +18079,7 @@
         <v>12</v>
       </c>
       <c r="B489" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C489">
         <v>2017</v>
@@ -18117,7 +18115,7 @@
         <v>12</v>
       </c>
       <c r="B490" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C490">
         <v>2017</v>
@@ -18153,7 +18151,7 @@
         <v>12</v>
       </c>
       <c r="B491" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C491">
         <v>2017</v>
@@ -18189,7 +18187,7 @@
         <v>12</v>
       </c>
       <c r="B492" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C492">
         <v>2017</v>
@@ -18225,7 +18223,7 @@
         <v>12</v>
       </c>
       <c r="B493" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C493">
         <v>2017</v>
@@ -18261,7 +18259,7 @@
         <v>12</v>
       </c>
       <c r="B494" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C494">
         <v>2017</v>
@@ -18297,7 +18295,7 @@
         <v>12</v>
       </c>
       <c r="B495" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C495">
         <v>2017</v>
@@ -18333,7 +18331,7 @@
         <v>12</v>
       </c>
       <c r="B496" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C496">
         <v>2017</v>
@@ -18369,7 +18367,7 @@
         <v>12</v>
       </c>
       <c r="B497" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C497">
         <v>2017</v>
@@ -18405,7 +18403,7 @@
         <v>12</v>
       </c>
       <c r="B498" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C498">
         <v>2018</v>
@@ -18441,7 +18439,7 @@
         <v>12</v>
       </c>
       <c r="B499" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C499">
         <v>2018</v>
@@ -18477,7 +18475,7 @@
         <v>12</v>
       </c>
       <c r="B500" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C500">
         <v>2018</v>
@@ -18513,7 +18511,7 @@
         <v>12</v>
       </c>
       <c r="B501" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C501">
         <v>2018</v>
@@ -18549,7 +18547,7 @@
         <v>12</v>
       </c>
       <c r="B502" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C502">
         <v>2018</v>
@@ -18585,7 +18583,7 @@
         <v>12</v>
       </c>
       <c r="B503" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C503">
         <v>2018</v>
@@ -18621,7 +18619,7 @@
         <v>12</v>
       </c>
       <c r="B504" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C504">
         <v>2018</v>
@@ -18657,7 +18655,7 @@
         <v>12</v>
       </c>
       <c r="B505" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C505">
         <v>2018</v>
@@ -18693,7 +18691,7 @@
         <v>12</v>
       </c>
       <c r="B506" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C506">
         <v>2018</v>
@@ -18729,7 +18727,7 @@
         <v>12</v>
       </c>
       <c r="B507" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C507">
         <v>2018</v>
@@ -18765,7 +18763,7 @@
         <v>12</v>
       </c>
       <c r="B508" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C508">
         <v>2018</v>
@@ -18801,7 +18799,7 @@
         <v>12</v>
       </c>
       <c r="B509" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C509">
         <v>2018</v>
@@ -18837,7 +18835,7 @@
         <v>12</v>
       </c>
       <c r="B510" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C510">
         <v>2019</v>
@@ -18873,7 +18871,7 @@
         <v>12</v>
       </c>
       <c r="B511" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C511">
         <v>2019</v>
@@ -18909,7 +18907,7 @@
         <v>12</v>
       </c>
       <c r="B512" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C512">
         <v>2019</v>
@@ -18945,7 +18943,7 @@
         <v>12</v>
       </c>
       <c r="B513" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C513">
         <v>2019</v>
@@ -18981,7 +18979,7 @@
         <v>13</v>
       </c>
       <c r="B514" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C514">
         <v>2014</v>
@@ -19017,7 +19015,7 @@
         <v>13</v>
       </c>
       <c r="B515" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C515">
         <v>2014</v>
@@ -19053,7 +19051,7 @@
         <v>13</v>
       </c>
       <c r="B516" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C516">
         <v>2014</v>
@@ -19089,7 +19087,7 @@
         <v>13</v>
       </c>
       <c r="B517" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C517">
         <v>2014</v>
@@ -19125,7 +19123,7 @@
         <v>13</v>
       </c>
       <c r="B518" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C518">
         <v>2014</v>
@@ -19161,7 +19159,7 @@
         <v>13</v>
       </c>
       <c r="B519" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C519">
         <v>2014</v>
@@ -19197,7 +19195,7 @@
         <v>13</v>
       </c>
       <c r="B520" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C520">
         <v>2014</v>
@@ -19233,7 +19231,7 @@
         <v>13</v>
       </c>
       <c r="B521" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C521">
         <v>2014</v>
@@ -19269,7 +19267,7 @@
         <v>13</v>
       </c>
       <c r="B522" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C522">
         <v>2014</v>
@@ -19305,7 +19303,7 @@
         <v>13</v>
       </c>
       <c r="B523" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C523">
         <v>2014</v>
@@ -19341,7 +19339,7 @@
         <v>13</v>
       </c>
       <c r="B524" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C524">
         <v>2014</v>
@@ -19377,7 +19375,7 @@
         <v>13</v>
       </c>
       <c r="B525" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C525">
         <v>2014</v>
@@ -19413,7 +19411,7 @@
         <v>13</v>
       </c>
       <c r="B526" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C526">
         <v>2015</v>
@@ -19449,7 +19447,7 @@
         <v>13</v>
       </c>
       <c r="B527" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C527">
         <v>2015</v>
@@ -19485,7 +19483,7 @@
         <v>13</v>
       </c>
       <c r="B528" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C528">
         <v>2015</v>
@@ -19521,7 +19519,7 @@
         <v>13</v>
       </c>
       <c r="B529" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C529">
         <v>2015</v>
@@ -19557,7 +19555,7 @@
         <v>13</v>
       </c>
       <c r="B530" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C530">
         <v>2015</v>
@@ -19593,7 +19591,7 @@
         <v>13</v>
       </c>
       <c r="B531" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C531">
         <v>2015</v>
@@ -19629,7 +19627,7 @@
         <v>13</v>
       </c>
       <c r="B532" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C532">
         <v>2015</v>
@@ -19665,7 +19663,7 @@
         <v>13</v>
       </c>
       <c r="B533" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C533">
         <v>2015</v>
@@ -19701,7 +19699,7 @@
         <v>13</v>
       </c>
       <c r="B534" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C534">
         <v>2015</v>
@@ -19737,7 +19735,7 @@
         <v>13</v>
       </c>
       <c r="B535" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C535">
         <v>2015</v>
@@ -19773,7 +19771,7 @@
         <v>13</v>
       </c>
       <c r="B536" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C536">
         <v>2015</v>
@@ -19809,7 +19807,7 @@
         <v>13</v>
       </c>
       <c r="B537" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C537">
         <v>2015</v>
@@ -19845,7 +19843,7 @@
         <v>13</v>
       </c>
       <c r="B538" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C538">
         <v>2016</v>
@@ -19881,7 +19879,7 @@
         <v>13</v>
       </c>
       <c r="B539" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C539">
         <v>2016</v>
@@ -19917,7 +19915,7 @@
         <v>13</v>
       </c>
       <c r="B540" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C540">
         <v>2016</v>
@@ -19953,7 +19951,7 @@
         <v>13</v>
       </c>
       <c r="B541" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C541">
         <v>2016</v>
@@ -19989,7 +19987,7 @@
         <v>13</v>
       </c>
       <c r="B542" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C542">
         <v>2016</v>
@@ -20025,7 +20023,7 @@
         <v>13</v>
       </c>
       <c r="B543" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C543">
         <v>2016</v>
@@ -20061,7 +20059,7 @@
         <v>13</v>
       </c>
       <c r="B544" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C544">
         <v>2016</v>
@@ -20097,7 +20095,7 @@
         <v>13</v>
       </c>
       <c r="B545" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C545">
         <v>2016</v>
@@ -20133,7 +20131,7 @@
         <v>13</v>
       </c>
       <c r="B546" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C546">
         <v>2016</v>
@@ -20169,7 +20167,7 @@
         <v>13</v>
       </c>
       <c r="B547" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C547">
         <v>2016</v>
@@ -20205,7 +20203,7 @@
         <v>13</v>
       </c>
       <c r="B548" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C548">
         <v>2016</v>
@@ -20241,7 +20239,7 @@
         <v>13</v>
       </c>
       <c r="B549" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C549">
         <v>2016</v>
@@ -20277,7 +20275,7 @@
         <v>13</v>
       </c>
       <c r="B550" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C550">
         <v>2017</v>
@@ -20313,7 +20311,7 @@
         <v>13</v>
       </c>
       <c r="B551" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C551">
         <v>2017</v>
@@ -20349,7 +20347,7 @@
         <v>13</v>
       </c>
       <c r="B552" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C552">
         <v>2017</v>
@@ -20385,7 +20383,7 @@
         <v>13</v>
       </c>
       <c r="B553" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C553">
         <v>2017</v>
@@ -20421,7 +20419,7 @@
         <v>13</v>
       </c>
       <c r="B554" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C554">
         <v>2017</v>
@@ -20457,7 +20455,7 @@
         <v>13</v>
       </c>
       <c r="B555" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C555">
         <v>2017</v>
@@ -20493,7 +20491,7 @@
         <v>13</v>
       </c>
       <c r="B556" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C556">
         <v>2017</v>
@@ -20529,7 +20527,7 @@
         <v>13</v>
       </c>
       <c r="B557" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C557">
         <v>2017</v>
@@ -20565,7 +20563,7 @@
         <v>13</v>
       </c>
       <c r="B558" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C558">
         <v>2017</v>
@@ -20601,7 +20599,7 @@
         <v>13</v>
       </c>
       <c r="B559" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C559">
         <v>2017</v>
@@ -20637,7 +20635,7 @@
         <v>13</v>
       </c>
       <c r="B560" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C560">
         <v>2017</v>
@@ -20673,7 +20671,7 @@
         <v>13</v>
       </c>
       <c r="B561" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C561">
         <v>2017</v>
@@ -20709,7 +20707,7 @@
         <v>13</v>
       </c>
       <c r="B562" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C562">
         <v>2018</v>
@@ -20745,7 +20743,7 @@
         <v>13</v>
       </c>
       <c r="B563" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C563">
         <v>2018</v>
@@ -20781,7 +20779,7 @@
         <v>13</v>
       </c>
       <c r="B564" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C564">
         <v>2018</v>
@@ -20817,7 +20815,7 @@
         <v>13</v>
       </c>
       <c r="B565" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C565">
         <v>2018</v>
@@ -20853,7 +20851,7 @@
         <v>13</v>
       </c>
       <c r="B566" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C566">
         <v>2018</v>
@@ -20889,7 +20887,7 @@
         <v>13</v>
       </c>
       <c r="B567" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C567">
         <v>2018</v>
@@ -20925,7 +20923,7 @@
         <v>13</v>
       </c>
       <c r="B568" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C568">
         <v>2018</v>
@@ -20961,7 +20959,7 @@
         <v>13</v>
       </c>
       <c r="B569" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C569">
         <v>2018</v>
@@ -20997,7 +20995,7 @@
         <v>13</v>
       </c>
       <c r="B570" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C570">
         <v>2018</v>
@@ -21033,7 +21031,7 @@
         <v>13</v>
       </c>
       <c r="B571" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C571">
         <v>2018</v>
@@ -21069,7 +21067,7 @@
         <v>13</v>
       </c>
       <c r="B572" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C572">
         <v>2018</v>
@@ -21105,7 +21103,7 @@
         <v>13</v>
       </c>
       <c r="B573" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C573">
         <v>2018</v>
@@ -21141,7 +21139,7 @@
         <v>13</v>
       </c>
       <c r="B574" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C574">
         <v>2019</v>
@@ -21177,7 +21175,7 @@
         <v>13</v>
       </c>
       <c r="B575" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C575">
         <v>2019</v>
@@ -21213,7 +21211,7 @@
         <v>13</v>
       </c>
       <c r="B576" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C576">
         <v>2019</v>
@@ -21249,7 +21247,7 @@
         <v>13</v>
       </c>
       <c r="B577" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C577">
         <v>2019</v>
@@ -21285,7 +21283,7 @@
         <v>14</v>
       </c>
       <c r="B578" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C578">
         <v>2014</v>
@@ -21321,7 +21319,7 @@
         <v>14</v>
       </c>
       <c r="B579" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C579">
         <v>2014</v>
@@ -21357,7 +21355,7 @@
         <v>14</v>
       </c>
       <c r="B580" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C580">
         <v>2014</v>
@@ -21393,7 +21391,7 @@
         <v>14</v>
       </c>
       <c r="B581" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C581">
         <v>2014</v>
@@ -21429,7 +21427,7 @@
         <v>14</v>
       </c>
       <c r="B582" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C582">
         <v>2014</v>
@@ -21465,7 +21463,7 @@
         <v>14</v>
       </c>
       <c r="B583" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C583">
         <v>2014</v>
@@ -21501,7 +21499,7 @@
         <v>14</v>
       </c>
       <c r="B584" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C584">
         <v>2014</v>
@@ -21537,7 +21535,7 @@
         <v>14</v>
       </c>
       <c r="B585" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C585">
         <v>2014</v>
@@ -21573,7 +21571,7 @@
         <v>14</v>
       </c>
       <c r="B586" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C586">
         <v>2014</v>
@@ -21609,7 +21607,7 @@
         <v>14</v>
       </c>
       <c r="B587" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C587">
         <v>2014</v>
@@ -21645,7 +21643,7 @@
         <v>14</v>
       </c>
       <c r="B588" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C588">
         <v>2014</v>
@@ -21681,7 +21679,7 @@
         <v>14</v>
       </c>
       <c r="B589" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C589">
         <v>2014</v>
@@ -21717,7 +21715,7 @@
         <v>14</v>
       </c>
       <c r="B590" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C590">
         <v>2015</v>
@@ -21753,7 +21751,7 @@
         <v>14</v>
       </c>
       <c r="B591" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C591">
         <v>2015</v>
@@ -21789,7 +21787,7 @@
         <v>14</v>
       </c>
       <c r="B592" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C592">
         <v>2015</v>
@@ -21825,7 +21823,7 @@
         <v>14</v>
       </c>
       <c r="B593" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C593">
         <v>2015</v>
@@ -21861,7 +21859,7 @@
         <v>14</v>
       </c>
       <c r="B594" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C594">
         <v>2015</v>
@@ -21897,7 +21895,7 @@
         <v>14</v>
       </c>
       <c r="B595" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C595">
         <v>2015</v>
@@ -21933,7 +21931,7 @@
         <v>14</v>
       </c>
       <c r="B596" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C596">
         <v>2015</v>
@@ -21969,7 +21967,7 @@
         <v>14</v>
       </c>
       <c r="B597" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C597">
         <v>2015</v>
@@ -22005,7 +22003,7 @@
         <v>14</v>
       </c>
       <c r="B598" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C598">
         <v>2015</v>
@@ -22041,7 +22039,7 @@
         <v>14</v>
       </c>
       <c r="B599" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C599">
         <v>2015</v>
@@ -22077,7 +22075,7 @@
         <v>14</v>
       </c>
       <c r="B600" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C600">
         <v>2015</v>
@@ -22113,7 +22111,7 @@
         <v>14</v>
       </c>
       <c r="B601" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C601">
         <v>2015</v>
@@ -22149,7 +22147,7 @@
         <v>14</v>
       </c>
       <c r="B602" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C602">
         <v>2016</v>
@@ -22185,7 +22183,7 @@
         <v>14</v>
       </c>
       <c r="B603" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C603">
         <v>2016</v>
@@ -22221,7 +22219,7 @@
         <v>14</v>
       </c>
       <c r="B604" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C604">
         <v>2016</v>
@@ -22257,7 +22255,7 @@
         <v>14</v>
       </c>
       <c r="B605" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C605">
         <v>2016</v>
@@ -22293,7 +22291,7 @@
         <v>14</v>
       </c>
       <c r="B606" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C606">
         <v>2016</v>
@@ -22329,7 +22327,7 @@
         <v>14</v>
       </c>
       <c r="B607" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C607">
         <v>2016</v>
@@ -22365,7 +22363,7 @@
         <v>14</v>
       </c>
       <c r="B608" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C608">
         <v>2016</v>
@@ -22401,7 +22399,7 @@
         <v>14</v>
       </c>
       <c r="B609" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C609">
         <v>2016</v>
@@ -22437,7 +22435,7 @@
         <v>14</v>
       </c>
       <c r="B610" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C610">
         <v>2016</v>
@@ -22473,7 +22471,7 @@
         <v>14</v>
       </c>
       <c r="B611" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C611">
         <v>2016</v>
@@ -22509,7 +22507,7 @@
         <v>14</v>
       </c>
       <c r="B612" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C612">
         <v>2016</v>
@@ -22545,7 +22543,7 @@
         <v>14</v>
       </c>
       <c r="B613" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C613">
         <v>2016</v>
@@ -22581,7 +22579,7 @@
         <v>14</v>
       </c>
       <c r="B614" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C614">
         <v>2017</v>
@@ -22617,7 +22615,7 @@
         <v>14</v>
       </c>
       <c r="B615" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C615">
         <v>2017</v>
@@ -22653,7 +22651,7 @@
         <v>14</v>
       </c>
       <c r="B616" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C616">
         <v>2017</v>
@@ -22689,7 +22687,7 @@
         <v>14</v>
       </c>
       <c r="B617" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C617">
         <v>2017</v>
@@ -22725,7 +22723,7 @@
         <v>14</v>
       </c>
       <c r="B618" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C618">
         <v>2017</v>
@@ -22761,7 +22759,7 @@
         <v>14</v>
       </c>
       <c r="B619" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C619">
         <v>2017</v>
@@ -22797,7 +22795,7 @@
         <v>14</v>
       </c>
       <c r="B620" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C620">
         <v>2017</v>
@@ -22833,7 +22831,7 @@
         <v>14</v>
       </c>
       <c r="B621" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C621">
         <v>2017</v>
@@ -22869,7 +22867,7 @@
         <v>14</v>
       </c>
       <c r="B622" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C622">
         <v>2017</v>
@@ -22905,7 +22903,7 @@
         <v>14</v>
       </c>
       <c r="B623" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C623">
         <v>2017</v>
@@ -22941,7 +22939,7 @@
         <v>14</v>
       </c>
       <c r="B624" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C624">
         <v>2017</v>
@@ -22977,7 +22975,7 @@
         <v>14</v>
       </c>
       <c r="B625" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C625">
         <v>2017</v>
@@ -23013,7 +23011,7 @@
         <v>14</v>
       </c>
       <c r="B626" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C626">
         <v>2018</v>
@@ -23049,7 +23047,7 @@
         <v>14</v>
       </c>
       <c r="B627" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C627">
         <v>2018</v>
@@ -23085,7 +23083,7 @@
         <v>14</v>
       </c>
       <c r="B628" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C628">
         <v>2018</v>
@@ -23121,7 +23119,7 @@
         <v>14</v>
       </c>
       <c r="B629" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C629">
         <v>2018</v>
@@ -23157,7 +23155,7 @@
         <v>14</v>
       </c>
       <c r="B630" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C630">
         <v>2018</v>
@@ -23193,7 +23191,7 @@
         <v>14</v>
       </c>
       <c r="B631" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C631">
         <v>2018</v>
@@ -23229,7 +23227,7 @@
         <v>14</v>
       </c>
       <c r="B632" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C632">
         <v>2018</v>
@@ -23265,7 +23263,7 @@
         <v>14</v>
       </c>
       <c r="B633" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C633">
         <v>2018</v>
@@ -23301,7 +23299,7 @@
         <v>14</v>
       </c>
       <c r="B634" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C634">
         <v>2018</v>
@@ -23337,7 +23335,7 @@
         <v>14</v>
       </c>
       <c r="B635" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C635">
         <v>2018</v>
@@ -23373,7 +23371,7 @@
         <v>14</v>
       </c>
       <c r="B636" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C636">
         <v>2018</v>
@@ -23409,7 +23407,7 @@
         <v>14</v>
       </c>
       <c r="B637" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C637">
         <v>2018</v>
@@ -23445,7 +23443,7 @@
         <v>14</v>
       </c>
       <c r="B638" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C638">
         <v>2019</v>
@@ -23481,7 +23479,7 @@
         <v>14</v>
       </c>
       <c r="B639" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C639">
         <v>2019</v>
@@ -23517,7 +23515,7 @@
         <v>14</v>
       </c>
       <c r="B640" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C640">
         <v>2019</v>
@@ -23553,7 +23551,7 @@
         <v>14</v>
       </c>
       <c r="B641" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C641">
         <v>2019</v>
@@ -23589,7 +23587,7 @@
         <v>15</v>
       </c>
       <c r="B642" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C642">
         <v>2014</v>
@@ -23625,7 +23623,7 @@
         <v>15</v>
       </c>
       <c r="B643" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C643">
         <v>2014</v>
@@ -23661,7 +23659,7 @@
         <v>15</v>
       </c>
       <c r="B644" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C644">
         <v>2014</v>
@@ -23697,7 +23695,7 @@
         <v>15</v>
       </c>
       <c r="B645" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C645">
         <v>2014</v>
@@ -23733,7 +23731,7 @@
         <v>15</v>
       </c>
       <c r="B646" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C646">
         <v>2014</v>
@@ -23769,7 +23767,7 @@
         <v>15</v>
       </c>
       <c r="B647" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C647">
         <v>2014</v>
@@ -23805,7 +23803,7 @@
         <v>15</v>
       </c>
       <c r="B648" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C648">
         <v>2014</v>
@@ -23841,7 +23839,7 @@
         <v>15</v>
       </c>
       <c r="B649" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C649">
         <v>2014</v>
@@ -23877,7 +23875,7 @@
         <v>15</v>
       </c>
       <c r="B650" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C650">
         <v>2014</v>
@@ -23913,7 +23911,7 @@
         <v>15</v>
       </c>
       <c r="B651" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C651">
         <v>2014</v>
@@ -23949,7 +23947,7 @@
         <v>15</v>
       </c>
       <c r="B652" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C652">
         <v>2014</v>
@@ -23985,7 +23983,7 @@
         <v>15</v>
       </c>
       <c r="B653" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C653">
         <v>2014</v>
@@ -24021,7 +24019,7 @@
         <v>15</v>
       </c>
       <c r="B654" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C654">
         <v>2015</v>
@@ -24057,7 +24055,7 @@
         <v>15</v>
       </c>
       <c r="B655" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C655">
         <v>2015</v>
@@ -24093,7 +24091,7 @@
         <v>15</v>
       </c>
       <c r="B656" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C656">
         <v>2015</v>
@@ -24129,7 +24127,7 @@
         <v>15</v>
       </c>
       <c r="B657" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C657">
         <v>2015</v>
@@ -24165,7 +24163,7 @@
         <v>15</v>
       </c>
       <c r="B658" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C658">
         <v>2015</v>
@@ -24201,7 +24199,7 @@
         <v>15</v>
       </c>
       <c r="B659" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C659">
         <v>2015</v>
@@ -24237,7 +24235,7 @@
         <v>15</v>
       </c>
       <c r="B660" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C660">
         <v>2015</v>
@@ -24273,7 +24271,7 @@
         <v>15</v>
       </c>
       <c r="B661" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C661">
         <v>2015</v>
@@ -24309,7 +24307,7 @@
         <v>15</v>
       </c>
       <c r="B662" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C662">
         <v>2015</v>
@@ -24345,7 +24343,7 @@
         <v>15</v>
       </c>
       <c r="B663" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C663">
         <v>2015</v>
@@ -24381,7 +24379,7 @@
         <v>15</v>
       </c>
       <c r="B664" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C664">
         <v>2015</v>
@@ -24417,7 +24415,7 @@
         <v>15</v>
       </c>
       <c r="B665" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C665">
         <v>2015</v>
@@ -24453,7 +24451,7 @@
         <v>15</v>
       </c>
       <c r="B666" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C666">
         <v>2016</v>
@@ -24489,7 +24487,7 @@
         <v>15</v>
       </c>
       <c r="B667" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C667">
         <v>2016</v>
@@ -24525,7 +24523,7 @@
         <v>15</v>
       </c>
       <c r="B668" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C668">
         <v>2016</v>
@@ -24561,7 +24559,7 @@
         <v>15</v>
       </c>
       <c r="B669" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C669">
         <v>2016</v>
@@ -24597,7 +24595,7 @@
         <v>15</v>
       </c>
       <c r="B670" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C670">
         <v>2016</v>
@@ -24633,7 +24631,7 @@
         <v>15</v>
       </c>
       <c r="B671" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C671">
         <v>2016</v>
@@ -24669,7 +24667,7 @@
         <v>15</v>
       </c>
       <c r="B672" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C672">
         <v>2016</v>
@@ -24705,7 +24703,7 @@
         <v>15</v>
       </c>
       <c r="B673" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C673">
         <v>2016</v>
@@ -24741,7 +24739,7 @@
         <v>15</v>
       </c>
       <c r="B674" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C674">
         <v>2016</v>
@@ -24777,7 +24775,7 @@
         <v>15</v>
       </c>
       <c r="B675" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C675">
         <v>2016</v>
@@ -24813,7 +24811,7 @@
         <v>15</v>
       </c>
       <c r="B676" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C676">
         <v>2016</v>
@@ -24849,7 +24847,7 @@
         <v>15</v>
       </c>
       <c r="B677" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C677">
         <v>2016</v>
@@ -24885,7 +24883,7 @@
         <v>15</v>
       </c>
       <c r="B678" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C678">
         <v>2017</v>
@@ -24921,7 +24919,7 @@
         <v>15</v>
       </c>
       <c r="B679" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C679">
         <v>2017</v>
@@ -24957,7 +24955,7 @@
         <v>15</v>
       </c>
       <c r="B680" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C680">
         <v>2017</v>
@@ -24993,7 +24991,7 @@
         <v>15</v>
       </c>
       <c r="B681" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C681">
         <v>2017</v>
@@ -25029,7 +25027,7 @@
         <v>15</v>
       </c>
       <c r="B682" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C682">
         <v>2017</v>
@@ -25065,7 +25063,7 @@
         <v>15</v>
       </c>
       <c r="B683" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C683">
         <v>2017</v>
@@ -25101,7 +25099,7 @@
         <v>15</v>
       </c>
       <c r="B684" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C684">
         <v>2017</v>
@@ -25137,7 +25135,7 @@
         <v>15</v>
       </c>
       <c r="B685" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C685">
         <v>2017</v>
@@ -25173,7 +25171,7 @@
         <v>15</v>
       </c>
       <c r="B686" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C686">
         <v>2017</v>
@@ -25209,7 +25207,7 @@
         <v>15</v>
       </c>
       <c r="B687" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C687">
         <v>2017</v>
@@ -25245,7 +25243,7 @@
         <v>15</v>
       </c>
       <c r="B688" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C688">
         <v>2017</v>
@@ -25281,7 +25279,7 @@
         <v>15</v>
       </c>
       <c r="B689" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C689">
         <v>2017</v>
@@ -25317,7 +25315,7 @@
         <v>15</v>
       </c>
       <c r="B690" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C690">
         <v>2018</v>
@@ -25353,7 +25351,7 @@
         <v>15</v>
       </c>
       <c r="B691" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C691">
         <v>2018</v>
@@ -25389,7 +25387,7 @@
         <v>15</v>
       </c>
       <c r="B692" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C692">
         <v>2018</v>
@@ -25425,7 +25423,7 @@
         <v>15</v>
       </c>
       <c r="B693" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C693">
         <v>2018</v>
@@ -25461,7 +25459,7 @@
         <v>15</v>
       </c>
       <c r="B694" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C694">
         <v>2018</v>
@@ -25497,7 +25495,7 @@
         <v>15</v>
       </c>
       <c r="B695" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C695">
         <v>2018</v>
@@ -25533,7 +25531,7 @@
         <v>15</v>
       </c>
       <c r="B696" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C696">
         <v>2018</v>
@@ -25569,7 +25567,7 @@
         <v>15</v>
       </c>
       <c r="B697" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C697">
         <v>2018</v>
@@ -25605,7 +25603,7 @@
         <v>15</v>
       </c>
       <c r="B698" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C698">
         <v>2018</v>
@@ -25641,7 +25639,7 @@
         <v>15</v>
       </c>
       <c r="B699" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C699">
         <v>2018</v>
@@ -25677,7 +25675,7 @@
         <v>15</v>
       </c>
       <c r="B700" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C700">
         <v>2018</v>
@@ -25713,7 +25711,7 @@
         <v>15</v>
       </c>
       <c r="B701" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C701">
         <v>2018</v>
@@ -25749,7 +25747,7 @@
         <v>15</v>
       </c>
       <c r="B702" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C702">
         <v>2019</v>
@@ -25785,7 +25783,7 @@
         <v>15</v>
       </c>
       <c r="B703" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C703">
         <v>2019</v>
@@ -25821,7 +25819,7 @@
         <v>15</v>
       </c>
       <c r="B704" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C704">
         <v>2019</v>
@@ -25857,7 +25855,7 @@
         <v>15</v>
       </c>
       <c r="B705" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C705">
         <v>2019</v>
@@ -25893,7 +25891,7 @@
         <v>16</v>
       </c>
       <c r="B706" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C706">
         <v>2014</v>
@@ -25929,7 +25927,7 @@
         <v>16</v>
       </c>
       <c r="B707" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C707">
         <v>2014</v>
@@ -25965,7 +25963,7 @@
         <v>16</v>
       </c>
       <c r="B708" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C708">
         <v>2014</v>
@@ -26001,7 +25999,7 @@
         <v>16</v>
       </c>
       <c r="B709" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C709">
         <v>2014</v>
@@ -26037,7 +26035,7 @@
         <v>16</v>
       </c>
       <c r="B710" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C710">
         <v>2014</v>
@@ -26073,7 +26071,7 @@
         <v>16</v>
       </c>
       <c r="B711" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C711">
         <v>2014</v>
@@ -26109,7 +26107,7 @@
         <v>16</v>
       </c>
       <c r="B712" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C712">
         <v>2014</v>
@@ -26145,7 +26143,7 @@
         <v>16</v>
       </c>
       <c r="B713" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C713">
         <v>2014</v>
@@ -26181,7 +26179,7 @@
         <v>16</v>
       </c>
       <c r="B714" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C714">
         <v>2014</v>
@@ -26217,7 +26215,7 @@
         <v>16</v>
       </c>
       <c r="B715" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C715">
         <v>2014</v>
@@ -26253,7 +26251,7 @@
         <v>16</v>
       </c>
       <c r="B716" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C716">
         <v>2014</v>
@@ -26289,7 +26287,7 @@
         <v>16</v>
       </c>
       <c r="B717" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C717">
         <v>2014</v>
@@ -26325,7 +26323,7 @@
         <v>16</v>
       </c>
       <c r="B718" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C718">
         <v>2015</v>
@@ -26361,7 +26359,7 @@
         <v>16</v>
       </c>
       <c r="B719" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C719">
         <v>2015</v>
@@ -26397,7 +26395,7 @@
         <v>16</v>
       </c>
       <c r="B720" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C720">
         <v>2015</v>
@@ -26433,7 +26431,7 @@
         <v>16</v>
       </c>
       <c r="B721" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C721">
         <v>2015</v>
@@ -26469,7 +26467,7 @@
         <v>16</v>
       </c>
       <c r="B722" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C722">
         <v>2015</v>
@@ -26505,7 +26503,7 @@
         <v>16</v>
       </c>
       <c r="B723" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C723">
         <v>2015</v>
@@ -26541,7 +26539,7 @@
         <v>16</v>
       </c>
       <c r="B724" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C724">
         <v>2015</v>
@@ -26577,7 +26575,7 @@
         <v>16</v>
       </c>
       <c r="B725" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C725">
         <v>2015</v>
@@ -26613,7 +26611,7 @@
         <v>16</v>
       </c>
       <c r="B726" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C726">
         <v>2015</v>
@@ -26649,7 +26647,7 @@
         <v>16</v>
       </c>
       <c r="B727" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C727">
         <v>2015</v>
@@ -26685,7 +26683,7 @@
         <v>16</v>
       </c>
       <c r="B728" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C728">
         <v>2015</v>
@@ -26721,7 +26719,7 @@
         <v>16</v>
       </c>
       <c r="B729" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C729">
         <v>2015</v>
@@ -26757,7 +26755,7 @@
         <v>16</v>
       </c>
       <c r="B730" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C730">
         <v>2016</v>
@@ -26793,7 +26791,7 @@
         <v>16</v>
       </c>
       <c r="B731" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C731">
         <v>2016</v>
@@ -26829,7 +26827,7 @@
         <v>16</v>
       </c>
       <c r="B732" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C732">
         <v>2016</v>
@@ -26865,7 +26863,7 @@
         <v>16</v>
       </c>
       <c r="B733" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C733">
         <v>2016</v>
@@ -26901,7 +26899,7 @@
         <v>16</v>
       </c>
       <c r="B734" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C734">
         <v>2016</v>
@@ -26937,7 +26935,7 @@
         <v>16</v>
       </c>
       <c r="B735" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C735">
         <v>2016</v>
@@ -26973,7 +26971,7 @@
         <v>16</v>
       </c>
       <c r="B736" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C736">
         <v>2016</v>
@@ -27009,7 +27007,7 @@
         <v>16</v>
       </c>
       <c r="B737" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C737">
         <v>2016</v>
@@ -27045,7 +27043,7 @@
         <v>16</v>
       </c>
       <c r="B738" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C738">
         <v>2016</v>
@@ -27081,7 +27079,7 @@
         <v>16</v>
       </c>
       <c r="B739" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C739">
         <v>2016</v>
@@ -27117,7 +27115,7 @@
         <v>16</v>
       </c>
       <c r="B740" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C740">
         <v>2016</v>
@@ -27153,7 +27151,7 @@
         <v>16</v>
       </c>
       <c r="B741" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C741">
         <v>2016</v>
@@ -27189,7 +27187,7 @@
         <v>16</v>
       </c>
       <c r="B742" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C742">
         <v>2017</v>
@@ -27225,7 +27223,7 @@
         <v>16</v>
       </c>
       <c r="B743" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C743">
         <v>2017</v>
@@ -27261,7 +27259,7 @@
         <v>16</v>
       </c>
       <c r="B744" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C744">
         <v>2017</v>
@@ -27297,7 +27295,7 @@
         <v>16</v>
       </c>
       <c r="B745" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C745">
         <v>2017</v>
@@ -27333,7 +27331,7 @@
         <v>16</v>
       </c>
       <c r="B746" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C746">
         <v>2017</v>
@@ -27369,7 +27367,7 @@
         <v>16</v>
       </c>
       <c r="B747" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C747">
         <v>2017</v>
@@ -27405,7 +27403,7 @@
         <v>16</v>
       </c>
       <c r="B748" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C748">
         <v>2017</v>
@@ -27441,7 +27439,7 @@
         <v>16</v>
       </c>
       <c r="B749" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C749">
         <v>2017</v>
@@ -27477,7 +27475,7 @@
         <v>16</v>
       </c>
       <c r="B750" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C750">
         <v>2017</v>
@@ -27513,7 +27511,7 @@
         <v>16</v>
       </c>
       <c r="B751" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C751">
         <v>2017</v>
@@ -27549,7 +27547,7 @@
         <v>16</v>
       </c>
       <c r="B752" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C752">
         <v>2017</v>
@@ -27585,7 +27583,7 @@
         <v>16</v>
       </c>
       <c r="B753" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C753">
         <v>2017</v>
@@ -27621,7 +27619,7 @@
         <v>16</v>
       </c>
       <c r="B754" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C754">
         <v>2018</v>
@@ -27657,7 +27655,7 @@
         <v>16</v>
       </c>
       <c r="B755" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C755">
         <v>2018</v>
@@ -27693,7 +27691,7 @@
         <v>16</v>
       </c>
       <c r="B756" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C756">
         <v>2018</v>
@@ -27729,7 +27727,7 @@
         <v>16</v>
       </c>
       <c r="B757" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C757">
         <v>2018</v>
@@ -27765,7 +27763,7 @@
         <v>16</v>
       </c>
       <c r="B758" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C758">
         <v>2018</v>
@@ -27801,7 +27799,7 @@
         <v>16</v>
       </c>
       <c r="B759" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C759">
         <v>2018</v>
@@ -27837,7 +27835,7 @@
         <v>16</v>
       </c>
       <c r="B760" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C760">
         <v>2018</v>
@@ -27873,7 +27871,7 @@
         <v>16</v>
       </c>
       <c r="B761" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C761">
         <v>2018</v>
@@ -27909,7 +27907,7 @@
         <v>16</v>
       </c>
       <c r="B762" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C762">
         <v>2018</v>
@@ -27945,7 +27943,7 @@
         <v>16</v>
       </c>
       <c r="B763" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C763">
         <v>2018</v>
@@ -27981,7 +27979,7 @@
         <v>16</v>
       </c>
       <c r="B764" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C764">
         <v>2018</v>
@@ -28017,7 +28015,7 @@
         <v>16</v>
       </c>
       <c r="B765" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C765">
         <v>2018</v>
@@ -28053,7 +28051,7 @@
         <v>16</v>
       </c>
       <c r="B766" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C766">
         <v>2019</v>
@@ -28089,7 +28087,7 @@
         <v>16</v>
       </c>
       <c r="B767" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C767">
         <v>2019</v>
@@ -28125,7 +28123,7 @@
         <v>16</v>
       </c>
       <c r="B768" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C768">
         <v>2019</v>
@@ -28161,7 +28159,7 @@
         <v>16</v>
       </c>
       <c r="B769" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C769">
         <v>2019</v>
@@ -28197,7 +28195,7 @@
         <v>17</v>
       </c>
       <c r="B770" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C770">
         <v>2014</v>
@@ -28233,7 +28231,7 @@
         <v>17</v>
       </c>
       <c r="B771" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C771">
         <v>2014</v>
@@ -28269,7 +28267,7 @@
         <v>17</v>
       </c>
       <c r="B772" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C772">
         <v>2014</v>
@@ -28305,7 +28303,7 @@
         <v>17</v>
       </c>
       <c r="B773" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C773">
         <v>2014</v>
@@ -28341,7 +28339,7 @@
         <v>17</v>
       </c>
       <c r="B774" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C774">
         <v>2014</v>
@@ -28377,7 +28375,7 @@
         <v>17</v>
       </c>
       <c r="B775" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C775">
         <v>2014</v>
@@ -28413,7 +28411,7 @@
         <v>17</v>
       </c>
       <c r="B776" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C776">
         <v>2014</v>
@@ -28449,7 +28447,7 @@
         <v>17</v>
       </c>
       <c r="B777" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C777">
         <v>2014</v>
@@ -28485,7 +28483,7 @@
         <v>17</v>
       </c>
       <c r="B778" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C778">
         <v>2014</v>
@@ -28521,7 +28519,7 @@
         <v>17</v>
       </c>
       <c r="B779" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C779">
         <v>2014</v>
@@ -28557,7 +28555,7 @@
         <v>17</v>
       </c>
       <c r="B780" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C780">
         <v>2014</v>
@@ -28593,7 +28591,7 @@
         <v>17</v>
       </c>
       <c r="B781" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C781">
         <v>2014</v>
@@ -28629,7 +28627,7 @@
         <v>17</v>
       </c>
       <c r="B782" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C782">
         <v>2015</v>
@@ -28665,7 +28663,7 @@
         <v>17</v>
       </c>
       <c r="B783" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C783">
         <v>2015</v>
@@ -28701,7 +28699,7 @@
         <v>17</v>
       </c>
       <c r="B784" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C784">
         <v>2015</v>
@@ -28737,7 +28735,7 @@
         <v>17</v>
       </c>
       <c r="B785" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C785">
         <v>2015</v>
@@ -28773,7 +28771,7 @@
         <v>17</v>
       </c>
       <c r="B786" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C786">
         <v>2015</v>
@@ -28809,7 +28807,7 @@
         <v>17</v>
       </c>
       <c r="B787" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C787">
         <v>2015</v>
@@ -28845,7 +28843,7 @@
         <v>17</v>
       </c>
       <c r="B788" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C788">
         <v>2015</v>
@@ -28881,7 +28879,7 @@
         <v>17</v>
       </c>
       <c r="B789" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C789">
         <v>2015</v>
@@ -28917,7 +28915,7 @@
         <v>17</v>
       </c>
       <c r="B790" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C790">
         <v>2015</v>
@@ -28953,7 +28951,7 @@
         <v>17</v>
       </c>
       <c r="B791" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C791">
         <v>2015</v>
@@ -28989,7 +28987,7 @@
         <v>17</v>
       </c>
       <c r="B792" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C792">
         <v>2015</v>
@@ -29025,7 +29023,7 @@
         <v>17</v>
       </c>
       <c r="B793" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C793">
         <v>2015</v>
@@ -29061,7 +29059,7 @@
         <v>17</v>
       </c>
       <c r="B794" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C794">
         <v>2016</v>
@@ -29097,7 +29095,7 @@
         <v>17</v>
       </c>
       <c r="B795" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C795">
         <v>2016</v>
@@ -29133,7 +29131,7 @@
         <v>17</v>
       </c>
       <c r="B796" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C796">
         <v>2016</v>
@@ -29169,7 +29167,7 @@
         <v>17</v>
       </c>
       <c r="B797" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C797">
         <v>2016</v>
@@ -29205,7 +29203,7 @@
         <v>17</v>
       </c>
       <c r="B798" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C798">
         <v>2016</v>
@@ -29241,7 +29239,7 @@
         <v>17</v>
       </c>
       <c r="B799" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C799">
         <v>2016</v>
@@ -29277,7 +29275,7 @@
         <v>17</v>
       </c>
       <c r="B800" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C800">
         <v>2016</v>
@@ -29313,7 +29311,7 @@
         <v>17</v>
       </c>
       <c r="B801" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C801">
         <v>2016</v>
@@ -29349,7 +29347,7 @@
         <v>17</v>
       </c>
       <c r="B802" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C802">
         <v>2016</v>
@@ -29385,7 +29383,7 @@
         <v>17</v>
       </c>
       <c r="B803" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C803">
         <v>2016</v>
@@ -29421,7 +29419,7 @@
         <v>17</v>
       </c>
       <c r="B804" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C804">
         <v>2016</v>
@@ -29457,7 +29455,7 @@
         <v>17</v>
       </c>
       <c r="B805" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C805">
         <v>2016</v>
@@ -29493,7 +29491,7 @@
         <v>17</v>
       </c>
       <c r="B806" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C806">
         <v>2017</v>
@@ -29529,7 +29527,7 @@
         <v>17</v>
       </c>
       <c r="B807" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C807">
         <v>2017</v>
@@ -29565,7 +29563,7 @@
         <v>17</v>
       </c>
       <c r="B808" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C808">
         <v>2017</v>
@@ -29601,7 +29599,7 @@
         <v>17</v>
       </c>
       <c r="B809" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C809">
         <v>2017</v>
@@ -29637,7 +29635,7 @@
         <v>17</v>
       </c>
       <c r="B810" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C810">
         <v>2017</v>
@@ -29673,7 +29671,7 @@
         <v>17</v>
       </c>
       <c r="B811" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C811">
         <v>2017</v>
@@ -29709,7 +29707,7 @@
         <v>17</v>
       </c>
       <c r="B812" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C812">
         <v>2017</v>
@@ -29745,7 +29743,7 @@
         <v>17</v>
       </c>
       <c r="B813" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C813">
         <v>2017</v>
@@ -29781,7 +29779,7 @@
         <v>17</v>
       </c>
       <c r="B814" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C814">
         <v>2017</v>
@@ -29817,7 +29815,7 @@
         <v>17</v>
       </c>
       <c r="B815" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C815">
         <v>2017</v>
@@ -29853,7 +29851,7 @@
         <v>17</v>
       </c>
       <c r="B816" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C816">
         <v>2017</v>
@@ -29889,7 +29887,7 @@
         <v>17</v>
       </c>
       <c r="B817" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C817">
         <v>2017</v>
@@ -29925,7 +29923,7 @@
         <v>17</v>
       </c>
       <c r="B818" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C818">
         <v>2018</v>
@@ -29961,7 +29959,7 @@
         <v>17</v>
       </c>
       <c r="B819" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C819">
         <v>2018</v>
@@ -29997,7 +29995,7 @@
         <v>17</v>
       </c>
       <c r="B820" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C820">
         <v>2018</v>
@@ -30033,7 +30031,7 @@
         <v>17</v>
       </c>
       <c r="B821" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C821">
         <v>2018</v>
@@ -30069,7 +30067,7 @@
         <v>17</v>
       </c>
       <c r="B822" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C822">
         <v>2018</v>
@@ -30105,7 +30103,7 @@
         <v>17</v>
       </c>
       <c r="B823" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C823">
         <v>2018</v>
@@ -30141,7 +30139,7 @@
         <v>17</v>
       </c>
       <c r="B824" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C824">
         <v>2018</v>
@@ -30177,7 +30175,7 @@
         <v>17</v>
       </c>
       <c r="B825" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C825">
         <v>2018</v>
@@ -30213,7 +30211,7 @@
         <v>17</v>
       </c>
       <c r="B826" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C826">
         <v>2018</v>
@@ -30249,7 +30247,7 @@
         <v>17</v>
       </c>
       <c r="B827" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C827">
         <v>2018</v>
@@ -30285,7 +30283,7 @@
         <v>17</v>
       </c>
       <c r="B828" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C828">
         <v>2018</v>
@@ -30321,7 +30319,7 @@
         <v>17</v>
       </c>
       <c r="B829" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C829">
         <v>2018</v>
@@ -30357,7 +30355,7 @@
         <v>17</v>
       </c>
       <c r="B830" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C830">
         <v>2019</v>
@@ -30393,7 +30391,7 @@
         <v>17</v>
       </c>
       <c r="B831" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C831">
         <v>2019</v>
@@ -30429,7 +30427,7 @@
         <v>17</v>
       </c>
       <c r="B832" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C832">
         <v>2019</v>
@@ -30465,7 +30463,7 @@
         <v>17</v>
       </c>
       <c r="B833" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C833">
         <v>2019</v>
@@ -30501,7 +30499,7 @@
         <v>18</v>
       </c>
       <c r="B834" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C834">
         <v>2014</v>
@@ -30537,7 +30535,7 @@
         <v>18</v>
       </c>
       <c r="B835" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C835">
         <v>2014</v>
@@ -30573,7 +30571,7 @@
         <v>18</v>
       </c>
       <c r="B836" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C836">
         <v>2014</v>
@@ -30609,7 +30607,7 @@
         <v>18</v>
       </c>
       <c r="B837" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C837">
         <v>2014</v>
@@ -30645,7 +30643,7 @@
         <v>18</v>
       </c>
       <c r="B838" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C838">
         <v>2014</v>
@@ -30681,7 +30679,7 @@
         <v>18</v>
       </c>
       <c r="B839" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C839">
         <v>2014</v>
@@ -30717,7 +30715,7 @@
         <v>18</v>
       </c>
       <c r="B840" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C840">
         <v>2014</v>
@@ -30753,7 +30751,7 @@
         <v>18</v>
       </c>
       <c r="B841" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C841">
         <v>2014</v>
@@ -30789,7 +30787,7 @@
         <v>18</v>
       </c>
       <c r="B842" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C842">
         <v>2014</v>
@@ -30825,7 +30823,7 @@
         <v>18</v>
       </c>
       <c r="B843" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C843">
         <v>2014</v>
@@ -30861,7 +30859,7 @@
         <v>18</v>
       </c>
       <c r="B844" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C844">
         <v>2014</v>
@@ -30897,7 +30895,7 @@
         <v>18</v>
       </c>
       <c r="B845" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C845">
         <v>2014</v>
@@ -30933,7 +30931,7 @@
         <v>18</v>
       </c>
       <c r="B846" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C846">
         <v>2015</v>
@@ -30969,7 +30967,7 @@
         <v>18</v>
       </c>
       <c r="B847" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C847">
         <v>2015</v>
@@ -31005,7 +31003,7 @@
         <v>18</v>
       </c>
       <c r="B848" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C848">
         <v>2015</v>
@@ -31041,7 +31039,7 @@
         <v>18</v>
       </c>
       <c r="B849" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C849">
         <v>2015</v>
@@ -31077,7 +31075,7 @@
         <v>18</v>
       </c>
       <c r="B850" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C850">
         <v>2015</v>
@@ -31113,7 +31111,7 @@
         <v>18</v>
       </c>
       <c r="B851" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C851">
         <v>2015</v>
@@ -31149,7 +31147,7 @@
         <v>18</v>
       </c>
       <c r="B852" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C852">
         <v>2015</v>
@@ -31185,7 +31183,7 @@
         <v>18</v>
       </c>
       <c r="B853" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C853">
         <v>2015</v>
@@ -31221,7 +31219,7 @@
         <v>18</v>
       </c>
       <c r="B854" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C854">
         <v>2015</v>
@@ -31257,7 +31255,7 @@
         <v>18</v>
       </c>
       <c r="B855" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C855">
         <v>2015</v>
@@ -31293,7 +31291,7 @@
         <v>18</v>
       </c>
       <c r="B856" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C856">
         <v>2015</v>
@@ -31329,7 +31327,7 @@
         <v>18</v>
       </c>
       <c r="B857" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C857">
         <v>2015</v>
@@ -31365,7 +31363,7 @@
         <v>18</v>
       </c>
       <c r="B858" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C858">
         <v>2016</v>
@@ -31401,7 +31399,7 @@
         <v>18</v>
       </c>
       <c r="B859" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C859">
         <v>2016</v>
@@ -31437,7 +31435,7 @@
         <v>18</v>
       </c>
       <c r="B860" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C860">
         <v>2016</v>
@@ -31473,7 +31471,7 @@
         <v>18</v>
       </c>
       <c r="B861" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C861">
         <v>2016</v>
@@ -31509,7 +31507,7 @@
         <v>18</v>
       </c>
       <c r="B862" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C862">
         <v>2016</v>
@@ -31545,7 +31543,7 @@
         <v>18</v>
       </c>
       <c r="B863" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C863">
         <v>2016</v>
@@ -31581,7 +31579,7 @@
         <v>18</v>
       </c>
       <c r="B864" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C864">
         <v>2016</v>
@@ -31617,7 +31615,7 @@
         <v>18</v>
       </c>
       <c r="B865" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C865">
         <v>2016</v>
@@ -31653,7 +31651,7 @@
         <v>18</v>
       </c>
       <c r="B866" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C866">
         <v>2016</v>
@@ -31689,7 +31687,7 @@
         <v>18</v>
       </c>
       <c r="B867" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C867">
         <v>2016</v>
@@ -31725,7 +31723,7 @@
         <v>18</v>
       </c>
       <c r="B868" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C868">
         <v>2016</v>
@@ -31761,7 +31759,7 @@
         <v>18</v>
       </c>
       <c r="B869" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C869">
         <v>2016</v>
@@ -31797,7 +31795,7 @@
         <v>18</v>
       </c>
       <c r="B870" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C870">
         <v>2017</v>
@@ -31833,7 +31831,7 @@
         <v>18</v>
       </c>
       <c r="B871" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C871">
         <v>2017</v>
@@ -31869,7 +31867,7 @@
         <v>18</v>
       </c>
       <c r="B872" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C872">
         <v>2017</v>
@@ -31905,7 +31903,7 @@
         <v>18</v>
       </c>
       <c r="B873" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C873">
         <v>2017</v>
@@ -31941,7 +31939,7 @@
         <v>18</v>
       </c>
       <c r="B874" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C874">
         <v>2017</v>
@@ -31977,7 +31975,7 @@
         <v>18</v>
       </c>
       <c r="B875" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C875">
         <v>2017</v>
@@ -32013,7 +32011,7 @@
         <v>18</v>
       </c>
       <c r="B876" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C876">
         <v>2017</v>
@@ -32049,7 +32047,7 @@
         <v>18</v>
       </c>
       <c r="B877" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C877">
         <v>2017</v>
@@ -32085,7 +32083,7 @@
         <v>18</v>
       </c>
       <c r="B878" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C878">
         <v>2017</v>
@@ -32121,7 +32119,7 @@
         <v>18</v>
       </c>
       <c r="B879" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C879">
         <v>2017</v>
@@ -32157,7 +32155,7 @@
         <v>18</v>
       </c>
       <c r="B880" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C880">
         <v>2017</v>
@@ -32193,7 +32191,7 @@
         <v>18</v>
       </c>
       <c r="B881" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C881">
         <v>2017</v>
@@ -32229,7 +32227,7 @@
         <v>18</v>
       </c>
       <c r="B882" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C882">
         <v>2018</v>
@@ -32265,7 +32263,7 @@
         <v>18</v>
       </c>
       <c r="B883" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C883">
         <v>2018</v>
@@ -32301,7 +32299,7 @@
         <v>18</v>
       </c>
       <c r="B884" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C884">
         <v>2018</v>
@@ -32337,7 +32335,7 @@
         <v>18</v>
       </c>
       <c r="B885" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C885">
         <v>2018</v>
@@ -32373,7 +32371,7 @@
         <v>18</v>
       </c>
       <c r="B886" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C886">
         <v>2018</v>
@@ -32409,7 +32407,7 @@
         <v>18</v>
       </c>
       <c r="B887" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C887">
         <v>2018</v>
@@ -32445,7 +32443,7 @@
         <v>18</v>
       </c>
       <c r="B888" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C888">
         <v>2018</v>
@@ -32481,7 +32479,7 @@
         <v>18</v>
       </c>
       <c r="B889" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C889">
         <v>2018</v>
@@ -32517,7 +32515,7 @@
         <v>18</v>
       </c>
       <c r="B890" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C890">
         <v>2018</v>
@@ -32553,7 +32551,7 @@
         <v>18</v>
       </c>
       <c r="B891" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C891">
         <v>2018</v>
@@ -32589,7 +32587,7 @@
         <v>18</v>
       </c>
       <c r="B892" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C892">
         <v>2018</v>
@@ -32625,7 +32623,7 @@
         <v>18</v>
       </c>
       <c r="B893" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C893">
         <v>2018</v>
@@ -32661,7 +32659,7 @@
         <v>18</v>
       </c>
       <c r="B894" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C894">
         <v>2019</v>
@@ -32697,7 +32695,7 @@
         <v>18</v>
       </c>
       <c r="B895" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C895">
         <v>2019</v>
@@ -32733,7 +32731,7 @@
         <v>18</v>
       </c>
       <c r="B896" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C896">
         <v>2019</v>
@@ -32769,7 +32767,7 @@
         <v>18</v>
       </c>
       <c r="B897" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C897">
         <v>2019</v>
